--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494D9FF1-00C1-F84C-A481-8360A128CF87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="32500" windowHeight="20540" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,14 +477,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +502,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,7 +510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,7 +530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
@@ -545,7 +547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -559,14 +561,20 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">XLL.GAMMA.PUT(f, sigma, F7, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J7" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G7, F7, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +582,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">XLL.GAMMA.PUT(f, sigma, k, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -582,14 +593,20 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H8" ca="1">XLL.GAMMA.PUT(f, sigma, F8, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J8" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G8, F8, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>72</v>
       </c>
@@ -597,14 +614,20 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H9" ca="1">XLL.GAMMA.PUT(f, sigma, F9, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J9" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J9" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G9, F9, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F10">
         <v>73</v>
       </c>
@@ -612,14 +635,20 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H10" ca="1">XLL.GAMMA.PUT(f, sigma, F10, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J10" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J10" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G10, F10, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F11">
         <v>74</v>
       </c>
@@ -627,14 +656,20 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H11" ca="1">XLL.GAMMA.PUT(f, sigma, F11, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J11" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J11" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G11, F11, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F12">
         <v>75</v>
       </c>
@@ -642,14 +677,20 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H12" ca="1">XLL.GAMMA.PUT(f, sigma, F12, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J12" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J12" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G12, F12, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>76</v>
       </c>
@@ -657,14 +698,20 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H13" ca="1">XLL.GAMMA.PUT(f, sigma, F13, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J13" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J13" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G13, F13, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F14">
         <v>77</v>
       </c>
@@ -672,14 +719,20 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">XLL.GAMMA.PUT(f, sigma, F14, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J14" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J14" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G14, F14, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>78</v>
       </c>
@@ -687,14 +740,20 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H15" ca="1">XLL.GAMMA.PUT(f, sigma, F15, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J15" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J15" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G15, F15, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F16">
         <v>79</v>
       </c>
@@ -702,14 +761,20 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H16" ca="1">XLL.GAMMA.PUT(f, sigma, F16, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J16" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J16" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G16, F16, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>80</v>
       </c>
@@ -717,14 +782,20 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H17" ca="1">XLL.GAMMA.PUT(f, sigma, F17, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J17" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J17" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G17, F17, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F18">
         <v>81</v>
       </c>
@@ -732,14 +803,20 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H18" ca="1">XLL.GAMMA.PUT(f, sigma, F18, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J18" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J18" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G18, F18, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>82</v>
       </c>
@@ -747,14 +824,20 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H19" ca="1">XLL.GAMMA.PUT(f, sigma, F19, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J19" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J19" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G19, F19, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F20">
         <v>83</v>
       </c>
@@ -762,14 +845,20 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H20" ca="1">XLL.GAMMA.PUT(f, sigma, F20, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J20" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J20" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G20, F20, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F21">
         <v>84</v>
       </c>
@@ -777,14 +866,20 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H21" ca="1">XLL.GAMMA.PUT(f, sigma, F21, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J21" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J21" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G21, F21, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F22">
         <v>85</v>
       </c>
@@ -792,14 +887,20 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H22" ca="1">XLL.GAMMA.PUT(f, sigma, F22, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J22" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J22" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G22, F22, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F23">
         <v>86</v>
       </c>
@@ -807,14 +908,20 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H23" ca="1">XLL.GAMMA.PUT(f, sigma, F23, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J23" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J23" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G23, F23, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F24">
         <v>87</v>
       </c>
@@ -822,14 +929,20 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H24" ca="1">XLL.GAMMA.PUT(f, sigma, F24, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J24" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J24" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G24, F24, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F25">
         <v>88</v>
       </c>
@@ -837,14 +950,20 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H25" ca="1">XLL.GAMMA.PUT(f, sigma, F25, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J25" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J25" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G25, F25, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F26">
         <v>89</v>
       </c>
@@ -852,14 +971,20 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H26" ca="1">XLL.GAMMA.PUT(f, sigma, F26, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J26" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J26" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G26, F26, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F27">
         <v>90</v>
       </c>
@@ -867,14 +992,20 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H27" ca="1">XLL.GAMMA.PUT(f, sigma, F27, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J27" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J27" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G27, F27, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F28">
         <v>91</v>
       </c>
@@ -882,14 +1013,20 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H28" ca="1">XLL.GAMMA.PUT(f, sigma, F28, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J28" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J28" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G28, F28, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F29">
         <v>92</v>
       </c>
@@ -897,14 +1034,20 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H29" ca="1">XLL.GAMMA.PUT(f, sigma, F29, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J29" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J29" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G29, F29, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F30">
         <v>93</v>
       </c>
@@ -912,14 +1055,20 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H30" ca="1">XLL.GAMMA.PUT(f, sigma, F30, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J30" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J30" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G30, F30, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F31">
         <v>94</v>
       </c>
@@ -927,14 +1076,20 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H31" ca="1">XLL.GAMMA.PUT(f, sigma, F31, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J31" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J31" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G31, F31, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F32">
         <v>95</v>
       </c>
@@ -942,14 +1097,20 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H32" ca="1">XLL.GAMMA.PUT(f, sigma, F32, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J32" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J32" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G32, F32, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F33">
         <v>96</v>
       </c>
@@ -957,14 +1118,20 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H33" ca="1">XLL.GAMMA.PUT(f, sigma, F33, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J33" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J33" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G33, F33, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F34">
         <v>97</v>
       </c>
@@ -972,14 +1139,20 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H34" ca="1">XLL.GAMMA.PUT(f, sigma, F34, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J34" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J34" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G34, F34, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F35">
         <v>98</v>
       </c>
@@ -987,14 +1160,20 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H35" ca="1">XLL.GAMMA.PUT(f, sigma, F35, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J35" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J35" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G35, F35, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F36">
         <v>99</v>
       </c>
@@ -1002,14 +1181,20 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H36" ca="1">XLL.GAMMA.PUT(f, sigma, F36, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J36" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J36" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G36, F36, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F37">
         <v>100</v>
       </c>
@@ -1017,14 +1202,20 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H37" ca="1">XLL.GAMMA.PUT(f, sigma, F37, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J37" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J37" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G37, F37, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F38">
         <v>101</v>
       </c>
@@ -1032,14 +1223,20 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H38" ca="1">XLL.GAMMA.PUT(f, sigma, F38, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J38" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J38" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G38, F38, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F39">
         <v>102</v>
       </c>
@@ -1047,14 +1244,20 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H39" ca="1">XLL.GAMMA.PUT(f, sigma, F39, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J39" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J39" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G39, F39, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F40">
         <v>103</v>
       </c>
@@ -1062,14 +1265,20 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H40" ca="1">XLL.GAMMA.PUT(f, sigma, F40, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J40" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J40" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G40, F40, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F41">
         <v>104</v>
       </c>
@@ -1077,14 +1286,20 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H41" ca="1">XLL.GAMMA.PUT(f, sigma, F41, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J41" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J41" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G41, F41, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F42">
         <v>105</v>
       </c>
@@ -1092,14 +1307,20 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H42" ca="1">XLL.GAMMA.PUT(f, sigma, F42, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J42" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J42" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G42, F42, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F43">
         <v>106</v>
       </c>
@@ -1107,14 +1328,20 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H43" ca="1">XLL.GAMMA.PUT(f, sigma, F43, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J43" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J43" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G43, F43, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F44">
         <v>107</v>
       </c>
@@ -1122,14 +1349,20 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H44" ca="1">XLL.GAMMA.PUT(f, sigma, F44, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J44" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J44" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G44, F44, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F45">
         <v>108</v>
       </c>
@@ -1137,14 +1370,20 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H45" ca="1">XLL.GAMMA.PUT(f, sigma, F45, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J45" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J45" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G45, F45, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F46">
         <v>109</v>
       </c>
@@ -1152,14 +1391,20 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H46" ca="1">XLL.GAMMA.PUT(f, sigma, F46, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J46" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J46" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G46, F46, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F47">
         <v>110</v>
       </c>
@@ -1167,14 +1412,20 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H47" ca="1">XLL.GAMMA.PUT(f, sigma, F47, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J47" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J47" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G47, F47, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F48">
         <v>111</v>
       </c>
@@ -1182,14 +1433,20 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H48" ca="1">XLL.GAMMA.PUT(f, sigma, F48, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J48" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J48" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G48, F48, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F49">
         <v>112</v>
       </c>
@@ -1197,14 +1454,20 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H49" ca="1">XLL.GAMMA.PUT(f, sigma, F49, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J49" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J49" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G49, F49, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F50">
         <v>113</v>
       </c>
@@ -1212,14 +1475,20 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H50" ca="1">XLL.GAMMA.PUT(f, sigma, F50, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J50" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J50" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G50, F50, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F51">
         <v>114</v>
       </c>
@@ -1227,14 +1496,20 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H51" ca="1">XLL.GAMMA.PUT(f, sigma, F51, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J51" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J51" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G51, F51, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F52">
         <v>115</v>
       </c>
@@ -1242,14 +1517,20 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H52" ca="1">XLL.GAMMA.PUT(f, sigma, F52, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J52" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J52" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G52, F52, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F53">
         <v>116</v>
       </c>
@@ -1257,14 +1538,20 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H53" ca="1">XLL.GAMMA.PUT(f, sigma, F53, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J53" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J53" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G53, F53, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F54">
         <v>117</v>
       </c>
@@ -1272,14 +1559,20 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H54" ca="1">XLL.GAMMA.PUT(f, sigma, F54, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J54" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J54" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G54, F54, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F55">
         <v>118</v>
       </c>
@@ -1287,14 +1580,20 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H55" ca="1">XLL.GAMMA.PUT(f, sigma, F55, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J55" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J55" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G55, F55, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F56">
         <v>119</v>
       </c>
@@ -1302,14 +1601,20 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H56" ca="1">XLL.GAMMA.PUT(f, sigma, F56, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J56" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J56" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G56, F56, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F57">
         <v>120</v>
       </c>
@@ -1317,14 +1622,20 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H57" ca="1">XLL.GAMMA.PUT(f, sigma, F57, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J57" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J57" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G57, F57, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F58">
         <v>121</v>
       </c>
@@ -1332,14 +1643,20 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H58" ca="1">XLL.GAMMA.PUT(f, sigma, F58, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J58" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J58" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G58, F58, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F59">
         <v>122</v>
       </c>
@@ -1347,14 +1664,20 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H59" ca="1">XLL.GAMMA.PUT(f, sigma, F59, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J59" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J59" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G59, F59, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F60">
         <v>123</v>
       </c>
@@ -1362,14 +1685,20 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H60" ca="1">XLL.GAMMA.PUT(f, sigma, F60, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J60" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J60" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G60, F60, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F61">
         <v>124</v>
       </c>
@@ -1377,14 +1706,20 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H61" ca="1">XLL.GAMMA.PUT(f, sigma, F61, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J61" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J61" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G61, F61, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F62">
         <v>125</v>
       </c>
@@ -1392,14 +1727,20 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H62" ca="1">XLL.GAMMA.PUT(f, sigma, F62, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J62" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J62" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G62, F62, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F63">
         <v>126</v>
       </c>
@@ -1407,14 +1748,20 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H63" ca="1">XLL.GAMMA.PUT(f, sigma, F63, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J63" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J63" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G63, F63, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F64">
         <v>127</v>
       </c>
@@ -1422,14 +1769,20 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H64" ca="1">XLL.GAMMA.PUT(f, sigma, F64, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J64" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J64" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G64, F64, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F65">
         <v>128</v>
       </c>
@@ -1437,14 +1790,20 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H65" ca="1">XLL.GAMMA.PUT(f, sigma, F65, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J65" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J65" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G65, F65, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F66">
         <v>129</v>
       </c>
@@ -1452,14 +1811,20 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H66" ca="1">XLL.GAMMA.PUT(f, sigma, F66, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J66" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J66" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G66, F66, t)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F67">
         <v>130</v>
       </c>
@@ -1467,12 +1832,18 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="H67" ca="1">XLL.GAMMA.PUT(f, sigma, F67, t)</f>
+        <v>#NAME?</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="J67" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G67, F67, t)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zfan2\source\repos\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60E6946-0B32-4881-B274-FE487801C2AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="sigma">Sheet1!$C$3</definedName>
     <definedName name="t">Sheet1!$C$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -479,12 +477,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +499,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,7 +507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
@@ -545,7 +544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -559,14 +558,20 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F7,t)</f>
+        <v>8.9763951445043927E-4</v>
+      </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J7" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H7, F7, t)</f>
+        <v>0.21231052715334578</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +579,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,k,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -582,14 +590,20 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F8,t)</f>
+        <v>1.4575439098829177E-3</v>
+      </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J8" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H8, F8, t)</f>
+        <v>0.21183817179416867</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>72</v>
       </c>
@@ -597,14 +611,20 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F9,t)</f>
+        <v>2.3228003245620993E-3</v>
+      </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J9" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H9, F9, t)</f>
+        <v>0.21137234937840421</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>73</v>
       </c>
@@ -612,14 +632,20 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F10,t)</f>
+        <v>3.6352252638087446E-3</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J10" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H10, F10, t)</f>
+        <v>0.21091288331598537</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>74</v>
       </c>
@@ -627,14 +653,20 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F11,t)</f>
+        <v>5.590231529384676E-3</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J11" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H11, F11, t)</f>
+        <v>0.21045960410593448</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>75</v>
       </c>
@@ -642,14 +674,20 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F12,t)</f>
+        <v>8.451791248063445E-3</v>
+      </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J12" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H12, F12, t)</f>
+        <v>0.21001234896104137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>76</v>
       </c>
@@ -657,14 +695,20 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F13,t)</f>
+        <v>1.2569613235804633E-2</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J13" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H13, F13, t)</f>
+        <v>0.20957096145645532</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>77</v>
       </c>
@@ -672,14 +716,20 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F14,t)</f>
+        <v>1.8398212800229241E-2</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J14" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H14, F14, t)</f>
+        <v>0.20913529120173258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>78</v>
       </c>
@@ -687,14 +737,20 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F15,t)</f>
+        <v>2.6517310308358133E-2</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J15" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H15, F15, t)</f>
+        <v>0.20870519353355413</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>79</v>
       </c>
@@ -702,14 +758,20 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F16,t)</f>
+        <v>3.7652736229766726E-2</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J16" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H16, F16, t)</f>
+        <v>0.20828052922744211</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>80</v>
       </c>
@@ -717,14 +779,20 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F17,t)</f>
+        <v>5.2696767052352822E-2</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J17" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H17, F17, t)</f>
+        <v>0.20786116422816761</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>81</v>
       </c>
@@ -732,14 +800,20 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F18,t)</f>
+        <v>7.2726594958209656E-2</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J18" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H18, F18, t)</f>
+        <v>0.20744696939560114</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>82</v>
       </c>
@@ -747,14 +821,20 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F19,t)</f>
+        <v>9.9019472852507118E-2</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J19" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H19, F19, t)</f>
+        <v>0.20703782026762049</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>83</v>
       </c>
@@ -762,14 +842,20 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F20,t)</f>
+        <v>0.13306300235605129</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J20" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H20, F20, t)</f>
+        <v>0.20663359683496854</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>84</v>
       </c>
@@ -777,14 +863,20 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F21,t)</f>
+        <v>0.17655906810759392</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J21" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H21, F21, t)</f>
+        <v>0.20623418333211044</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>85</v>
       </c>
@@ -792,14 +884,20 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F22,t)</f>
+        <v>0.23142008133591663</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J22" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H22, F22, t)</f>
+        <v>0.20583946803790867</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>86</v>
       </c>
@@ -807,14 +905,20 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F23,t)</f>
+        <v>0.2997564826258321</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J23" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H23, F23, t)</f>
+        <v>0.20544934308943413</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>87</v>
       </c>
@@ -822,14 +926,20 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F24,t)</f>
+        <v>0.38385485890439863</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J24" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H24, F24, t)</f>
+        <v>0.20506370430575391</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>88</v>
       </c>
@@ -837,14 +947,20 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F25,t)</f>
+        <v>0.48614653111121164</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J25" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H25, F25, t)</f>
+        <v>0.20468245102133648</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>89</v>
       </c>
@@ -852,14 +968,20 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F26,t)</f>
+        <v>0.60916703344991596</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J26" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H26, F26, t)</f>
+        <v>0.20430548593030609</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>90</v>
       </c>
@@ -867,14 +989,20 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F27,t)</f>
+        <v>0.75550749047170562</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J27" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H27, F27, t)</f>
+        <v>0.20393271493704457</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>91</v>
       </c>
@@ -882,14 +1010,20 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F28,t)</f>
+        <v>0.92775945788765313</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J28" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H28, F28, t)</f>
+        <v>0.20356404701673117</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>92</v>
       </c>
@@ -897,14 +1031,20 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F29,t)</f>
+        <v>1.1284552798969685</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J29" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H29, F29, t)</f>
+        <v>0.20319939408279358</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>93</v>
       </c>
@@ -912,14 +1052,20 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F30,t)</f>
+        <v>1.360006387955174</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J30" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H30, F30, t)</f>
+        <v>0.20283867086138452</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>94</v>
       </c>
@@ -927,14 +1073,20 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F31,t)</f>
+        <v>1.62464219013426</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J31" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H31, F31, t)</f>
+        <v>0.20248179477256115</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>95</v>
       </c>
@@ -942,14 +1094,20 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F32,t)</f>
+        <v>1.9243522559585848</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J32" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H32, F32, t)</f>
+        <v>0.20212868581788687</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F33">
         <v>96</v>
       </c>
@@ -957,14 +1115,20 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F33,t)</f>
+        <v>2.2608343827001036</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J33" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H33, F33, t)</f>
+        <v>0.20177926647365566</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F34">
         <v>97</v>
       </c>
@@ -972,14 +1136,20 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F34,t)</f>
+        <v>2.6354508444062361</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J34" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H34, F34, t)</f>
+        <v>0.20143346158876071</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F35">
         <v>98</v>
       </c>
@@ -987,14 +1157,20 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F35,t)</f>
+        <v>3.0491946970869392</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J35" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H35, F35, t)</f>
+        <v>0.20109119829026401</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F36">
         <v>99</v>
       </c>
@@ -1002,14 +1178,20 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F36,t)</f>
+        <v>3.5026674760476624</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J36" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H36, F36, t)</f>
+        <v>0.20075240589094284</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F37">
         <v>100</v>
       </c>
@@ -1017,14 +1199,20 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F37,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J37" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H37, F37, t)</f>
+        <v>0.20041701580256077</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F38">
         <v>101</v>
       </c>
@@ -1032,14 +1220,20 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F38,t)</f>
+        <v>4.5291995002208836</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J38" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H38, F38, t)</f>
+        <v>0.20008496145309618</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F39">
         <v>102</v>
       </c>
@@ -1047,14 +1241,20 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F39,t)</f>
+        <v>5.1014732268873928</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J39" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H39, F39, t)</f>
+        <v>0.19975617820979266</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F40">
         <v>103</v>
       </c>
@@ -1062,14 +1262,20 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F40,t)</f>
+        <v>5.7119430607959316</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J40" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H40, F40, t)</f>
+        <v>0.19943060330278106</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F41">
         <v>104</v>
       </c>
@@ -1077,14 +1283,20 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F41,t)</f>
+        <v>6.359334058132589</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J41" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H41, F41, t)</f>
+        <v>0.19910817575424916</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F42">
         <v>105</v>
       </c>
@@ -1092,14 +1304,20 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F42,t)</f>
+        <v>7.0420844428201121</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J42" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H42, F42, t)</f>
+        <v>0.19878883631142852</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F43">
         <v>106</v>
       </c>
@@ -1107,14 +1325,20 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F43,t)</f>
+        <v>7.7583918958759028</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J43" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H43, F43, t)</f>
+        <v>0.19847252738148907</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F44">
         <v>107</v>
       </c>
@@ -1122,14 +1346,20 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F44,t)</f>
+        <v>8.5062630478467582</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J44" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H44, F44, t)</f>
+        <v>0.19815919297022394</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F45">
         <v>108</v>
       </c>
@@ -1137,14 +1367,20 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F45,t)</f>
+        <v>9.2835641106318576</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J45" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H45, F45, t)</f>
+        <v>0.19784877862311953</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F46">
         <v>109</v>
       </c>
@@ -1152,14 +1388,20 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F46,t)</f>
+        <v>10.088070737440773</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J46" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H46, F46, t)</f>
+        <v>0.19754123136892979</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F47">
         <v>110</v>
       </c>
@@ -1167,14 +1409,20 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F47,t)</f>
+        <v>10.917515436164138</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J47" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H47, F47, t)</f>
+        <v>0.19723649966720683</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F48">
         <v>111</v>
       </c>
@@ -1182,14 +1430,20 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F48,t)</f>
+        <v>11.7696311573022</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J48" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H48, F48, t)</f>
+        <v>0.19693453335599928</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>112</v>
       </c>
@@ -1197,14 +1451,20 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F49,t)</f>
+        <v>12.64219000763228</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J49" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H49, F49, t)</f>
+        <v>0.19663528360386642</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>113</v>
       </c>
@@ -1212,14 +1472,20 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F50,t)</f>
+        <v>13.533036380390683</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J50" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H50, F50, t)</f>
+        <v>0.19633870286258381</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>114</v>
       </c>
@@ -1227,14 +1493,20 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F51,t)</f>
+        <v>14.44011412103788</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J51" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H51, F51, t)</f>
+        <v>0.1960447448226682</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>115</v>
       </c>
@@ -1242,14 +1514,20 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F52,t)</f>
+        <v>15.361487647106756</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J52" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H52, F52, t)</f>
+        <v>0.19575336437070706</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>116</v>
       </c>
@@ -1257,14 +1535,20 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F53,t)</f>
+        <v>16.29535719875858</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J53" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H53, F53, t)</f>
+        <v>0.19546451754846336</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>117</v>
       </c>
@@ -1272,14 +1556,20 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F54,t)</f>
+        <v>17.240068605568112</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J54" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H54, F54, t)</f>
+        <v>0.19517816151349443</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F55">
         <v>118</v>
       </c>
@@ -1287,14 +1577,20 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F55,t)</f>
+        <v>18.194118111378401</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J55" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H55, F55, t)</f>
+        <v>0.19489425450188741</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F56">
         <v>119</v>
       </c>
@@ -1302,14 +1598,20 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F56,t)</f>
+        <v>19.156152903317306</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J56" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H56, F56, t)</f>
+        <v>0.1946127557918918</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>120</v>
       </c>
@@ -1317,14 +1619,20 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F57,t)</f>
+        <v>20.12496804698003</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J57" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H57, F57, t)</f>
+        <v>0.19433362566998369</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>121</v>
       </c>
@@ -1332,14 +1640,20 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F58,t)</f>
+        <v>21.099500543233205</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J58" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H58, F58, t)</f>
+        <v>0.19405682539738733</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>122</v>
       </c>
@@ -1347,14 +1661,20 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F59,t)</f>
+        <v>22.078821200533753</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J59" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H59, F59, t)</f>
+        <v>0.19378231717859215</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>123</v>
       </c>
@@ -1362,14 +1682,20 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F60,t)</f>
+        <v>23.062124968007112</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J60" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H60, F60, t)</f>
+        <v>0.19351006413067628</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>124</v>
       </c>
@@ -1377,14 +1703,20 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F61,t)</f>
+        <v>24.04872030681635</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J61" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H61, F61, t)</f>
+        <v>0.19324003025443812</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>125</v>
       </c>
@@ -1392,14 +1724,20 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F62,t)</f>
+        <v>25.038018097943663</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J62" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H62, F62, t)</f>
+        <v>0.19297218040625874</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>126</v>
       </c>
@@ -1407,14 +1745,20 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F63,t)</f>
+        <v>26.029520499927315</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J63" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H63, F63, t)</f>
+        <v>0.19270648027075188</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F64">
         <v>127</v>
       </c>
@@ -1422,14 +1766,20 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F64,t)</f>
+        <v>27.022810085691404</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J64" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H64, F64, t)</f>
+        <v>0.19244289633549364</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F65">
         <v>128</v>
       </c>
@@ -1437,14 +1787,20 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F65,t)</f>
+        <v>28.017539507525299</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J65" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H65, F65, t)</f>
+        <v>0.19218139586568742</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F66">
         <v>129</v>
       </c>
@@ -1452,14 +1808,20 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F66,t)</f>
+        <v>29.013421866483313</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J66" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H66, F66, t)</f>
+        <v>0.19192194688040323</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F67">
         <v>130</v>
       </c>
@@ -1467,12 +1829,18 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F67,t)</f>
+        <v>30.010221898820959</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H67, F67, t)</f>
+        <v>0.19166451812980059</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhouy\Desktop\19fall\programming c++\review\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559723C5-174E-4A28-AA94-BA38B57A90FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -94,19 +92,38 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -147,11 +164,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -160,8 +180,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -477,14 +504,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +531,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,7 +539,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -518,7 +549,7 @@
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -528,14 +559,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10">
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -545,7 +576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -559,14 +590,20 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F7,t)</f>
+        <v>8.9763951445043927E-4</v>
+      </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J7" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H7, F7, t)</f>
+        <v>0.21231052715334578</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +611,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="7">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,k,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -582,14 +622,20 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F8,t)</f>
+        <v>1.4575439098829177E-3</v>
+      </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J8" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H8, F8, t)</f>
+        <v>0.21183817179416867</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="F9">
         <v>72</v>
       </c>
@@ -597,14 +643,20 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F9,t)</f>
+        <v>2.3228003245620993E-3</v>
+      </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J9" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H9, F9, t)</f>
+        <v>0.21137234937840421</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="F10">
         <v>73</v>
       </c>
@@ -612,14 +664,20 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F10,t)</f>
+        <v>3.6352252638087446E-3</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J10" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H10, F10, t)</f>
+        <v>0.21091288331598537</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="F11">
         <v>74</v>
       </c>
@@ -627,14 +685,20 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F11,t)</f>
+        <v>5.590231529384676E-3</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J11" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H11, F11, t)</f>
+        <v>0.21045960410593448</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="F12">
         <v>75</v>
       </c>
@@ -642,14 +706,20 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F12,t)</f>
+        <v>8.451791248063445E-3</v>
+      </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J12" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H12, F12, t)</f>
+        <v>0.21001234896104137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="F13">
         <v>76</v>
       </c>
@@ -657,14 +727,20 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F13,t)</f>
+        <v>1.2569613235804633E-2</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J13" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H13, F13, t)</f>
+        <v>0.20957096145645532</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="F14">
         <v>77</v>
       </c>
@@ -672,14 +748,20 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F14,t)</f>
+        <v>1.8398212800229241E-2</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J14" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H14, F14, t)</f>
+        <v>0.20913529120173258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="F15">
         <v>78</v>
       </c>
@@ -687,14 +769,20 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F15,t)</f>
+        <v>2.6517310308358133E-2</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J15" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H15, F15, t)</f>
+        <v>0.20870519353355413</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="F16">
         <v>79</v>
       </c>
@@ -702,14 +790,20 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F16,t)</f>
+        <v>3.7652736229766726E-2</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J16" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H16, F16, t)</f>
+        <v>0.20828052922744211</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10">
       <c r="F17">
         <v>80</v>
       </c>
@@ -717,14 +811,20 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F17,t)</f>
+        <v>5.2696767052352822E-2</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J17" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H17, F17, t)</f>
+        <v>0.20786116422816761</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10">
       <c r="F18">
         <v>81</v>
       </c>
@@ -732,14 +832,20 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F18,t)</f>
+        <v>7.2726594958209656E-2</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J18" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H18, F18, t)</f>
+        <v>0.20744696939560114</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10">
       <c r="F19">
         <v>82</v>
       </c>
@@ -747,14 +853,20 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F19,t)</f>
+        <v>9.9019472852507118E-2</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J19" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H19, F19, t)</f>
+        <v>0.20703782026762049</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10">
       <c r="F20">
         <v>83</v>
       </c>
@@ -762,14 +874,20 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F20,t)</f>
+        <v>0.13306300235605129</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J20" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H20, F20, t)</f>
+        <v>0.20663359683496854</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10">
       <c r="F21">
         <v>84</v>
       </c>
@@ -777,14 +895,20 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F21,t)</f>
+        <v>0.17655906810759392</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J21" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H21, F21, t)</f>
+        <v>0.20623418333211044</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10">
       <c r="F22">
         <v>85</v>
       </c>
@@ -792,14 +916,20 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F22,t)</f>
+        <v>0.23142008133591663</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J22" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H22, F22, t)</f>
+        <v>0.20583946803790867</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10">
       <c r="F23">
         <v>86</v>
       </c>
@@ -807,14 +937,20 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F23,t)</f>
+        <v>0.2997564826258321</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J23" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H23, F23, t)</f>
+        <v>0.20544934308943413</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10">
       <c r="F24">
         <v>87</v>
       </c>
@@ -822,14 +958,20 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F24,t)</f>
+        <v>0.38385485890439863</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J24" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H24, F24, t)</f>
+        <v>0.20506370430575391</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10">
       <c r="F25">
         <v>88</v>
       </c>
@@ -837,14 +979,20 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F25,t)</f>
+        <v>0.48614653111121164</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J25" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H25, F25, t)</f>
+        <v>0.20468245102133648</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10">
       <c r="F26">
         <v>89</v>
       </c>
@@ -852,14 +1000,20 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F26,t)</f>
+        <v>0.60916703344991596</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J26" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H26, F26, t)</f>
+        <v>0.20430548593030609</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10">
       <c r="F27">
         <v>90</v>
       </c>
@@ -867,14 +1021,20 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F27,t)</f>
+        <v>0.75550749047170562</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J27" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H27, F27, t)</f>
+        <v>0.20393271493704457</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10">
       <c r="F28">
         <v>91</v>
       </c>
@@ -882,14 +1042,20 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F28,t)</f>
+        <v>0.92775945788765313</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J28" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H28, F28, t)</f>
+        <v>0.20356404701673117</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10">
       <c r="F29">
         <v>92</v>
       </c>
@@ -897,14 +1063,20 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F29,t)</f>
+        <v>1.1284552798969685</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J29" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H29, F29, t)</f>
+        <v>0.20319939408279358</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10">
       <c r="F30">
         <v>93</v>
       </c>
@@ -912,14 +1084,20 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F30,t)</f>
+        <v>1.360006387955174</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J30" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H30, F30, t)</f>
+        <v>0.20283867086138452</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10">
       <c r="F31">
         <v>94</v>
       </c>
@@ -927,14 +1105,20 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F31,t)</f>
+        <v>1.62464219013426</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J31" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H31, F31, t)</f>
+        <v>0.20248179477256115</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10">
       <c r="F32">
         <v>95</v>
       </c>
@@ -942,14 +1126,20 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F32,t)</f>
+        <v>1.9243522559585848</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J32" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H32, F32, t)</f>
+        <v>0.20212868581788687</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10">
       <c r="F33">
         <v>96</v>
       </c>
@@ -957,14 +1147,20 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F33,t)</f>
+        <v>2.2608343827001036</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J33" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H33, F33, t)</f>
+        <v>0.20177926647365566</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10">
       <c r="F34">
         <v>97</v>
       </c>
@@ -972,14 +1168,20 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F34,t)</f>
+        <v>2.6354508444062361</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J34" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H34, F34, t)</f>
+        <v>0.20143346158876071</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10">
       <c r="F35">
         <v>98</v>
       </c>
@@ -987,14 +1189,20 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F35,t)</f>
+        <v>3.0491946970869392</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J35" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H35, F35, t)</f>
+        <v>0.20109119829026401</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10">
       <c r="F36">
         <v>99</v>
       </c>
@@ -1002,14 +1210,20 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F36,t)</f>
+        <v>3.5026674760476624</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J36" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H36, F36, t)</f>
+        <v>0.20075240589094284</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10">
       <c r="F37">
         <v>100</v>
       </c>
@@ -1017,14 +1231,20 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F37,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J37" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H37, F37, t)</f>
+        <v>0.20041701580256077</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10">
       <c r="F38">
         <v>101</v>
       </c>
@@ -1032,14 +1252,20 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F38,t)</f>
+        <v>4.5291995002208836</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J38" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H38, F38, t)</f>
+        <v>0.20008496145309618</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10">
       <c r="F39">
         <v>102</v>
       </c>
@@ -1047,14 +1273,20 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F39,t)</f>
+        <v>5.1014732268873928</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J39" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H39, F39, t)</f>
+        <v>0.19975617820979266</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10">
       <c r="F40">
         <v>103</v>
       </c>
@@ -1062,14 +1294,20 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F40,t)</f>
+        <v>5.7119430607959316</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J40" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H40, F40, t)</f>
+        <v>0.19943060330278106</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10">
       <c r="F41">
         <v>104</v>
       </c>
@@ -1077,14 +1315,20 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F41,t)</f>
+        <v>6.359334058132589</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J41" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H41, F41, t)</f>
+        <v>0.19910817575424916</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10">
       <c r="F42">
         <v>105</v>
       </c>
@@ -1092,14 +1336,20 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F42,t)</f>
+        <v>7.0420844428201121</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J42" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H42, F42, t)</f>
+        <v>0.19878883631142852</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10">
       <c r="F43">
         <v>106</v>
       </c>
@@ -1107,14 +1357,20 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F43,t)</f>
+        <v>7.7583918958759028</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J43" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H43, F43, t)</f>
+        <v>0.19847252738148907</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10">
       <c r="F44">
         <v>107</v>
       </c>
@@ -1122,14 +1378,20 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F44,t)</f>
+        <v>8.5062630478467582</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J44" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H44, F44, t)</f>
+        <v>0.19815919297022394</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10">
       <c r="F45">
         <v>108</v>
       </c>
@@ -1137,14 +1399,20 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F45,t)</f>
+        <v>9.2835641106318576</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J45" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H45, F45, t)</f>
+        <v>0.19784877862311953</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10">
       <c r="F46">
         <v>109</v>
       </c>
@@ -1152,14 +1420,20 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F46,t)</f>
+        <v>10.088070737440773</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J46" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H46, F46, t)</f>
+        <v>0.19754123136892979</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10">
       <c r="F47">
         <v>110</v>
       </c>
@@ -1167,14 +1441,20 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F47,t)</f>
+        <v>10.917515436164138</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J47" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H47, F47, t)</f>
+        <v>0.19723649966720683</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10">
       <c r="F48">
         <v>111</v>
       </c>
@@ -1182,14 +1462,20 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F48,t)</f>
+        <v>11.7696311573022</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J48" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H48, F48, t)</f>
+        <v>0.19693453335599928</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10">
       <c r="F49">
         <v>112</v>
       </c>
@@ -1197,14 +1483,20 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F49,t)</f>
+        <v>12.64219000763228</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J49" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H49, F49, t)</f>
+        <v>0.19663528360386642</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10">
       <c r="F50">
         <v>113</v>
       </c>
@@ -1212,14 +1504,20 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F50,t)</f>
+        <v>13.533036380390683</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J50" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H50, F50, t)</f>
+        <v>0.19633870286258381</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10">
       <c r="F51">
         <v>114</v>
       </c>
@@ -1227,14 +1525,20 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F51,t)</f>
+        <v>14.44011412103788</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J51" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H51, F51, t)</f>
+        <v>0.1960447448226682</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10">
       <c r="F52">
         <v>115</v>
       </c>
@@ -1242,14 +1546,20 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F52,t)</f>
+        <v>15.361487647106756</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J52" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H52, F52, t)</f>
+        <v>0.19575336437070706</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10">
       <c r="F53">
         <v>116</v>
       </c>
@@ -1257,14 +1567,20 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F53,t)</f>
+        <v>16.29535719875858</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J53" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H53, F53, t)</f>
+        <v>0.19546451754846336</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10">
       <c r="F54">
         <v>117</v>
       </c>
@@ -1272,14 +1588,20 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F54,t)</f>
+        <v>17.240068605568112</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J54" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H54, F54, t)</f>
+        <v>0.19517816151349443</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10">
       <c r="F55">
         <v>118</v>
       </c>
@@ -1287,14 +1609,20 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F55,t)</f>
+        <v>18.194118111378401</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J55" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H55, F55, t)</f>
+        <v>0.19489425450188741</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10">
       <c r="F56">
         <v>119</v>
       </c>
@@ -1302,14 +1630,20 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F56,t)</f>
+        <v>19.156152903317306</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J56" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H56, F56, t)</f>
+        <v>0.1946127557918918</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10">
       <c r="F57">
         <v>120</v>
       </c>
@@ -1317,14 +1651,20 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F57,t)</f>
+        <v>20.12496804698003</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J57" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H57, F57, t)</f>
+        <v>0.19433362566998369</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10">
       <c r="F58">
         <v>121</v>
       </c>
@@ -1332,14 +1672,20 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F58,t)</f>
+        <v>21.099500543233205</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J58" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H58, F58, t)</f>
+        <v>0.19405682539738733</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10">
       <c r="F59">
         <v>122</v>
       </c>
@@ -1347,14 +1693,20 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F59,t)</f>
+        <v>22.078821200533753</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J59" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H59, F59, t)</f>
+        <v>0.19378231717859215</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10">
       <c r="F60">
         <v>123</v>
       </c>
@@ -1362,14 +1714,20 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F60,t)</f>
+        <v>23.062124968007112</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J60" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H60, F60, t)</f>
+        <v>0.19351006413067628</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10">
       <c r="F61">
         <v>124</v>
       </c>
@@ -1377,14 +1735,20 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F61,t)</f>
+        <v>24.04872030681635</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J61" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H61, F61, t)</f>
+        <v>0.19324003025443812</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10">
       <c r="F62">
         <v>125</v>
       </c>
@@ -1392,14 +1756,20 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F62,t)</f>
+        <v>25.038018097943663</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J62" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H62, F62, t)</f>
+        <v>0.19297218040625874</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10">
       <c r="F63">
         <v>126</v>
       </c>
@@ -1407,14 +1777,20 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F63,t)</f>
+        <v>26.029520499927315</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J63" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H63, F63, t)</f>
+        <v>0.19270648027075188</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10">
       <c r="F64">
         <v>127</v>
       </c>
@@ -1422,14 +1798,20 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F64,t)</f>
+        <v>27.022810085691404</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J64" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H64, F64, t)</f>
+        <v>0.19244289633549364</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10">
       <c r="F65">
         <v>128</v>
       </c>
@@ -1437,14 +1819,20 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F65,t)</f>
+        <v>28.017539507525299</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J65" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H65, F65, t)</f>
+        <v>0.19218139586568742</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10">
       <c r="F66">
         <v>129</v>
       </c>
@@ -1452,14 +1840,20 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F66,t)</f>
+        <v>29.013421866483313</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J66" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H66, F66, t)</f>
+        <v>0.19192194688040323</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10">
       <c r="F67">
         <v>130</v>
       </c>
@@ -1467,14 +1861,21 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="6">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F67,t)</f>
+        <v>30.010221898820959</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H67, F67, t)</f>
+        <v>0.19166451812980059</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scarlett\source\repos\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716787CC-6098-47B6-A3BE-8B55B3334B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -176,6 +174,1721 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Implied</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Volatility Curve</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Black Implied</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$7:$I$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BFB1-4D4E-8AA3-6EE6CF2829CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Gamma Implied</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$7:$J$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0.21231052715334578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21183817179416867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21137234937840421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21091288331598537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21045960410593448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21001234896104137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20957096145645532</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20913529120173258</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20870519353355413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20828052922744211</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20786116422816761</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20744696939560114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20703782026762049</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20663359683496854</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20623418333210983</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20583946803790867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20544934308943413</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20506370430575391</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20468245102133648</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20430548593030609</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20393271493704457</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20356404701673117</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.20319939408279358</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20283867086138452</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20248179477256115</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20212868581788687</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.20177926647365566</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.20143346158876071</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.20109119829026401</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.20075240589094284</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20041701580256077</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.20008496145309618</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.19975617820979266</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19943060330278106</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19910817575424916</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.19878883631142771</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.19847252738148907</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.19815919297022394</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19784877862311953</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.19754123136892979</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.19723649966720683</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.19693453335599928</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.19663528360386642</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.19633870286258381</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1960447448226682</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.19575336437070706</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.19546451754846336</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.19517816151349443</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.19489425450188741</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1946127557918918</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.19433362566998369</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.19405682539738733</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.19378231717859215</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.19351006413067628</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19324003025443812</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.19297218040625874</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.19270648027075188</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.19244289633549364</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.19218139586568742</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.19192194688040323</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.19166451812980059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BFB1-4D4E-8AA3-6EE6CF2829CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="512294584"/>
+        <c:axId val="512302456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="512294584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="130"/>
+          <c:min val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512302456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="512302456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512294584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7143</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>45243</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>40481</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD8CDE7-A3A3-4C5E-B1C9-2B07F017230D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,11 +2190,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.45">
@@ -559,12 +2276,18 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" cm="1">
-        <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J7" s="2"/>
+      <c r="H7" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F7,t)</f>
+        <v>8.9763951445043927E-4</v>
+      </c>
+      <c r="I7">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H7,F7,t)</f>
+        <v>0.21231052715334578</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
@@ -574,7 +2297,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,k,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -582,12 +2308,18 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F8,t)</f>
+        <v>1.4575439098829177E-3</v>
+      </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H8,F8,t)</f>
+        <v>0.21183817179416867</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F9">
@@ -597,12 +2329,18 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" cm="1">
-        <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J9" s="2"/>
+      <c r="H9" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F9,t)</f>
+        <v>2.3228003245620993E-3</v>
+      </c>
+      <c r="I9">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H9,F9,t)</f>
+        <v>0.21137234937840421</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F10">
@@ -612,12 +2350,18 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F10,t)</f>
+        <v>3.6352252638087446E-3</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H10,F10,t)</f>
+        <v>0.21091288331598537</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F11">
@@ -627,12 +2371,18 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F11,t)</f>
+        <v>5.590231529384676E-3</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H11,F11,t)</f>
+        <v>0.21045960410593448</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F12">
@@ -642,12 +2392,18 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F12,t)</f>
+        <v>8.451791248063445E-3</v>
+      </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H12,F12,t)</f>
+        <v>0.21001234896104137</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F13">
@@ -657,12 +2413,18 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F13,t)</f>
+        <v>1.2569613235804633E-2</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H13,F13,t)</f>
+        <v>0.20957096145645532</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F14">
@@ -672,12 +2434,18 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F14,t)</f>
+        <v>1.8398212800229241E-2</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H14,F14,t)</f>
+        <v>0.20913529120173258</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F15">
@@ -687,12 +2455,18 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F15,t)</f>
+        <v>2.6517310308358133E-2</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H15,F15,t)</f>
+        <v>0.20870519353355413</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F16">
@@ -702,12 +2476,18 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F16,t)</f>
+        <v>3.7652736229766726E-2</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H16,F16,t)</f>
+        <v>0.20828052922744211</v>
+      </c>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F17">
@@ -717,12 +2497,18 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F17,t)</f>
+        <v>5.2696767052352822E-2</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H17,F17,t)</f>
+        <v>0.20786116422816761</v>
+      </c>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F18">
@@ -732,12 +2518,18 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F18,t)</f>
+        <v>7.2726594958209656E-2</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H18,F18,t)</f>
+        <v>0.20744696939560114</v>
+      </c>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F19">
@@ -747,12 +2539,18 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F19,t)</f>
+        <v>9.9019472852507118E-2</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H19,F19,t)</f>
+        <v>0.20703782026762049</v>
+      </c>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F20">
@@ -762,12 +2560,18 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F20,t)</f>
+        <v>0.13306300235605129</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H20,F20,t)</f>
+        <v>0.20663359683496854</v>
+      </c>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F21">
@@ -777,12 +2581,18 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F21,t)</f>
+        <v>0.17655906810759348</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H21,F21,t)</f>
+        <v>0.20623418333210983</v>
+      </c>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F22">
@@ -792,12 +2602,18 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F22,t)</f>
+        <v>0.23142008133591663</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H22,F22,t)</f>
+        <v>0.20583946803790867</v>
+      </c>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F23">
@@ -807,12 +2623,18 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F23,t)</f>
+        <v>0.2997564826258321</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H23,F23,t)</f>
+        <v>0.20544934308943413</v>
+      </c>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F24">
@@ -822,12 +2644,18 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F24,t)</f>
+        <v>0.38385485890439863</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H24,F24,t)</f>
+        <v>0.20506370430575391</v>
+      </c>
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F25">
@@ -837,12 +2665,18 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F25,t)</f>
+        <v>0.48614653111121164</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H25,F25,t)</f>
+        <v>0.20468245102133648</v>
+      </c>
     </row>
     <row r="26" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F26">
@@ -852,12 +2686,18 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F26,t)</f>
+        <v>0.60916703344991596</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H26,F26,t)</f>
+        <v>0.20430548593030609</v>
+      </c>
     </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F27">
@@ -867,12 +2707,18 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F27,t)</f>
+        <v>0.75550749047170562</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H27,F27,t)</f>
+        <v>0.20393271493704457</v>
+      </c>
     </row>
     <row r="28" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F28">
@@ -882,12 +2728,18 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F28,t)</f>
+        <v>0.92775945788765313</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H28,F28,t)</f>
+        <v>0.20356404701673117</v>
+      </c>
     </row>
     <row r="29" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F29">
@@ -897,12 +2749,18 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F29,t)</f>
+        <v>1.1284552798969685</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H29,F29,t)</f>
+        <v>0.20319939408279358</v>
+      </c>
     </row>
     <row r="30" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F30">
@@ -912,12 +2770,18 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F30,t)</f>
+        <v>1.360006387955174</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H30,F30,t)</f>
+        <v>0.20283867086138452</v>
+      </c>
     </row>
     <row r="31" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F31">
@@ -927,12 +2791,18 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F31,t)</f>
+        <v>1.62464219013426</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H31,F31,t)</f>
+        <v>0.20248179477256115</v>
+      </c>
     </row>
     <row r="32" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F32">
@@ -942,12 +2812,18 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F32,t)</f>
+        <v>1.9243522559585848</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H32,F32,t)</f>
+        <v>0.20212868581788687</v>
+      </c>
     </row>
     <row r="33" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F33">
@@ -957,12 +2833,18 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F33,t)</f>
+        <v>2.2608343827001036</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H33,F33,t)</f>
+        <v>0.20177926647365566</v>
+      </c>
     </row>
     <row r="34" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F34">
@@ -972,12 +2854,18 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F34,t)</f>
+        <v>2.6354508444062361</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
+      <c r="J34" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H34,F34,t)</f>
+        <v>0.20143346158876071</v>
+      </c>
     </row>
     <row r="35" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F35">
@@ -987,12 +2875,18 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F35,t)</f>
+        <v>3.0491946970869392</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="J35" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H35,F35,t)</f>
+        <v>0.20109119829026401</v>
+      </c>
     </row>
     <row r="36" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F36">
@@ -1002,12 +2896,18 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F36,t)</f>
+        <v>3.5026674760476624</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
+      <c r="J36" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H36,F36,t)</f>
+        <v>0.20075240589094284</v>
+      </c>
     </row>
     <row r="37" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F37">
@@ -1017,12 +2917,18 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F37,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H37,F37,t)</f>
+        <v>0.20041701580256077</v>
+      </c>
     </row>
     <row r="38" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F38">
@@ -1032,12 +2938,18 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F38,t)</f>
+        <v>4.5291995002208836</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
+      <c r="J38" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H38,F38,t)</f>
+        <v>0.20008496145309618</v>
+      </c>
     </row>
     <row r="39" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F39">
@@ -1047,12 +2959,18 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F39,t)</f>
+        <v>5.1014732268873928</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
+      <c r="J39" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H39,F39,t)</f>
+        <v>0.19975617820979266</v>
+      </c>
     </row>
     <row r="40" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F40">
@@ -1062,12 +2980,18 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F40,t)</f>
+        <v>5.7119430607959316</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
+      <c r="J40" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H40,F40,t)</f>
+        <v>0.19943060330278106</v>
+      </c>
     </row>
     <row r="41" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F41">
@@ -1077,12 +3001,18 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F41,t)</f>
+        <v>6.359334058132589</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
+      <c r="J41" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H41,F41,t)</f>
+        <v>0.19910817575424916</v>
+      </c>
     </row>
     <row r="42" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F42">
@@ -1090,14 +3020,20 @@
       </c>
       <c r="G42" cm="1">
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
-        <v>7.0640191378988533</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>7.0640191378988391</v>
+      </c>
+      <c r="H42" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F42,t)</f>
+        <v>7.0420844428201121</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
+      <c r="J42" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H42,F42,t)</f>
+        <v>0.19878883631142771</v>
+      </c>
     </row>
     <row r="43" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F43">
@@ -1107,12 +3043,18 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F43,t)</f>
+        <v>7.7583918958759028</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
+      <c r="J43" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H43,F43,t)</f>
+        <v>0.19847252738148907</v>
+      </c>
     </row>
     <row r="44" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F44">
@@ -1122,12 +3064,18 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F44,t)</f>
+        <v>8.5062630478467582</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
+      <c r="J44" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H44,F44,t)</f>
+        <v>0.19815919297022394</v>
+      </c>
     </row>
     <row r="45" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F45">
@@ -1137,12 +3085,18 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F45,t)</f>
+        <v>9.2835641106318576</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
+      <c r="J45" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H45,F45,t)</f>
+        <v>0.19784877862311953</v>
+      </c>
     </row>
     <row r="46" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F46">
@@ -1152,12 +3106,18 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F46,t)</f>
+        <v>10.088070737440773</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
+      <c r="J46" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H46,F46,t)</f>
+        <v>0.19754123136892979</v>
+      </c>
     </row>
     <row r="47" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F47">
@@ -1167,12 +3127,18 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F47,t)</f>
+        <v>10.917515436164138</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
+      <c r="J47" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H47,F47,t)</f>
+        <v>0.19723649966720683</v>
+      </c>
     </row>
     <row r="48" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F48">
@@ -1182,12 +3148,18 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F48,t)</f>
+        <v>11.7696311573022</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
+      <c r="J48" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H48,F48,t)</f>
+        <v>0.19693453335599928</v>
+      </c>
     </row>
     <row r="49" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F49">
@@ -1197,12 +3169,18 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F49,t)</f>
+        <v>12.64219000763228</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
+      <c r="J49" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H49,F49,t)</f>
+        <v>0.19663528360386642</v>
+      </c>
     </row>
     <row r="50" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F50">
@@ -1212,12 +3190,18 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F50,t)</f>
+        <v>13.533036380390683</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
+      <c r="J50" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H50,F50,t)</f>
+        <v>0.19633870286258381</v>
+      </c>
     </row>
     <row r="51" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F51">
@@ -1227,12 +3211,18 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F51,t)</f>
+        <v>14.44011412103788</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
+      <c r="J51" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H51,F51,t)</f>
+        <v>0.1960447448226682</v>
+      </c>
     </row>
     <row r="52" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F52">
@@ -1242,12 +3232,18 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F52,t)</f>
+        <v>15.361487647106756</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
+      <c r="J52" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H52,F52,t)</f>
+        <v>0.19575336437070706</v>
+      </c>
     </row>
     <row r="53" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F53">
@@ -1257,12 +3253,18 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F53,t)</f>
+        <v>16.29535719875858</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
+      <c r="J53" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H53,F53,t)</f>
+        <v>0.19546451754846336</v>
+      </c>
     </row>
     <row r="54" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F54">
@@ -1272,12 +3274,18 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F54,t)</f>
+        <v>17.240068605568112</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
+      <c r="J54" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H54,F54,t)</f>
+        <v>0.19517816151349443</v>
+      </c>
     </row>
     <row r="55" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F55">
@@ -1287,12 +3295,18 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F55,t)</f>
+        <v>18.194118111378401</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
+      <c r="J55" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H55,F55,t)</f>
+        <v>0.19489425450188741</v>
+      </c>
     </row>
     <row r="56" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F56">
@@ -1302,12 +3316,18 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F56,t)</f>
+        <v>19.156152903317306</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
+      <c r="J56" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H56,F56,t)</f>
+        <v>0.1946127557918918</v>
+      </c>
     </row>
     <row r="57" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F57">
@@ -1317,12 +3337,18 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F57,t)</f>
+        <v>20.12496804698003</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
+      <c r="J57" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H57,F57,t)</f>
+        <v>0.19433362566998369</v>
+      </c>
     </row>
     <row r="58" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F58">
@@ -1332,12 +3358,18 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F58,t)</f>
+        <v>21.099500543233205</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
+      <c r="J58" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H58,F58,t)</f>
+        <v>0.19405682539738733</v>
+      </c>
     </row>
     <row r="59" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F59">
@@ -1347,12 +3379,18 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F59,t)</f>
+        <v>22.078821200533753</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
+      <c r="J59" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H59,F59,t)</f>
+        <v>0.19378231717859215</v>
+      </c>
     </row>
     <row r="60" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F60">
@@ -1362,12 +3400,18 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F60,t)</f>
+        <v>23.062124968007112</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
+      <c r="J60" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H60,F60,t)</f>
+        <v>0.19351006413067628</v>
+      </c>
     </row>
     <row r="61" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F61">
@@ -1377,12 +3421,18 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F61,t)</f>
+        <v>24.04872030681635</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
+      <c r="J61" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H61,F61,t)</f>
+        <v>0.19324003025443812</v>
+      </c>
     </row>
     <row r="62" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F62">
@@ -1392,12 +3442,18 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F62,t)</f>
+        <v>25.038018097943663</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
+      <c r="J62" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H62,F62,t)</f>
+        <v>0.19297218040625874</v>
+      </c>
     </row>
     <row r="63" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F63">
@@ -1407,12 +3463,18 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F63,t)</f>
+        <v>26.029520499927315</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
+      <c r="J63" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H63,F63,t)</f>
+        <v>0.19270648027075188</v>
+      </c>
     </row>
     <row r="64" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F64">
@@ -1422,12 +3484,18 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F64,t)</f>
+        <v>27.022810085691404</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
+      <c r="J64" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H64,F64,t)</f>
+        <v>0.19244289633549364</v>
+      </c>
     </row>
     <row r="65" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F65">
@@ -1437,12 +3505,18 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F65,t)</f>
+        <v>28.017539507525299</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
+      <c r="J65" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H65,F65,t)</f>
+        <v>0.19218139586568742</v>
+      </c>
     </row>
     <row r="66" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F66">
@@ -1452,12 +3526,18 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F66,t)</f>
+        <v>29.013421866483313</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
+      <c r="J66" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H66,F66,t)</f>
+        <v>0.19192194688040323</v>
+      </c>
     </row>
     <row r="67" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F67">
@@ -1467,14 +3547,21 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F67,t)</f>
+        <v>30.010221898820959</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H67,F67,t)</f>
+        <v>0.19166451812980059</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/final.xlsx
+++ b/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhouy\Desktop\19fall\programming c++\review\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559723C5-174E-4A28-AA94-BA38B57A90FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62D2E72-2B32-42FC-BFEA-217151B306F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
@@ -203,6 +203,1529 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>strike</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-46FD-427F-8939-C2BF7684E220}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>put</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$7:$G$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>3.7401735689890359E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6190274539823513E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1416834541484455E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.921340827967688E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1579703105526491E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0742901084088743E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.978238008985894E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.228534023985528E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8543180097092993E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7456906561138417E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.991434342184963E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.7008934088089269E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0058534547871929E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1106179901946911</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15048353300942807</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20168732797265232</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.266480974586214</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34730740212793254</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.44676133725329947</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56753930674006803</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.71238089607367172</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.88400364647703356</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0850344779622993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3179408286409853</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.584964775689393</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8880632480607211</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2288570738163216</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6085910627585847</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0281066582734937</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4878279587501879</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.987761167674492</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5275068370385512</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.1062836665495652</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.7229621445706016</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.3761059854440632</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.0640191378988533</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.7847961044341929</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.5363734057617648</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.3165802243033653</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.123186539019287</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.953947391857227</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.806642276452763</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.679108988059141</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.569271600088328</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.47516252219144</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.39493883771641</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.32689330971084</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.269460583629098</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.221219204170339</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.180890108309001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20.14733226325697</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.119536094302745</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22.096615300806519</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23.077797596311726</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24.062414837222818</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25.04989292927732</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26.039741826510507</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27.031545866893069</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28.024954624625238</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.01967440261366</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.01546044060332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46FD-427F-8939-C2BF7684E220}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> put </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$67</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>8.9763951445043927E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4575439098829177E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3228003245620993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6352252638087446E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.590231529384676E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.451791248063445E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2569613235804633E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8398212800229241E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6517310308358133E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7652736229766726E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2696767052352822E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.2726594958209656E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9019472852507118E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13306300235605129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17655906810759392</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23142008133591663</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2997564826258321</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38385485890439863</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48614653111121164</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.60916703344991596</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.75550749047170562</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.92775945788765313</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1284552798969685</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.360006387955174</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.62464219013426</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9243522559585848</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2608343827001036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6354508444062361</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0491946970869392</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5026674760476624</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9960690164368557</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5291995002208836</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.1014732268873928</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.7119430607959316</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.359334058132589</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.0420844428201121</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.7583918958759028</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.5062630478467582</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.2835641106318576</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.088070737440773</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.917515436164138</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.7696311573022</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.64219000763228</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.533036380390683</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.44011412103788</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.361487647106756</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.29535719875858</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.240068605568112</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.194118111378401</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.156152903317306</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20.12496804698003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.099500543233205</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22.078821200533753</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23.062124968007112</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24.04872030681635</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25.038018097943663</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26.029520499927315</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27.022810085691404</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28.017539507525299</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.013421866483313</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.010221898820959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-46FD-427F-8939-C2BF7684E220}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="498552336"/>
+        <c:axId val="846937296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="498552336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="846937296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="846937296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498552336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>383380</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>421480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7C0FA5-8E0B-4F56-9477-2A92B9BD19ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -1877,5 +3400,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/final.xlsx
+++ b/final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lizhuyan\source\repos\final(2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A01A99B-BDB0-456F-BB51-66C507204050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,19 +94,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -477,14 +484,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +511,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,7 +519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,7 +539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10">
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
@@ -545,7 +556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -559,14 +570,20 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" cm="1">
+        <f t="array" ref="H7">_xll.XLL.GAMMA.PUT(f,sigma,F7,t)</f>
+        <v>8.9763951445043927E-4</v>
+      </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J7" s="2" cm="1">
+        <f t="array" ref="J7">_xll.XLL.BLACK.PUT.IMPLIED(f,H7,F7,t)</f>
+        <v>0.21231052715334578</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +591,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" cm="1">
+        <f t="array" ref="D8">_xll.XLL.GAMMA.PUT(f,sigma,k,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -582,14 +602,21 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" cm="1">
+        <f t="array" ref="H8">_xll.XLL.GAMMA.PUT(f,sigma,F8,t)</f>
+        <v>1.4575439098829177E-3</v>
+      </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J8" s="2" cm="1">
+        <f t="array" ref="J8">_xll.XLL.BLACK.PUT.IMPLIED(f,H8,F8,t)</f>
+        <v>0.21183817179416867</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="1"/>
       <c r="F9">
         <v>72</v>
       </c>
@@ -597,14 +624,20 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" cm="1">
+        <f t="array" ref="H9">_xll.XLL.GAMMA.PUT(f,sigma,F9,t)</f>
+        <v>2.3228003245620993E-3</v>
+      </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J9" s="2" cm="1">
+        <f t="array" ref="J9">_xll.XLL.BLACK.PUT.IMPLIED(f,H9,F9,t)</f>
+        <v>0.21137234937840421</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="F10">
         <v>73</v>
       </c>
@@ -612,14 +645,20 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" cm="1">
+        <f t="array" ref="H10">_xll.XLL.GAMMA.PUT(f,sigma,F10,t)</f>
+        <v>3.6352252638087446E-3</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J10" s="2" cm="1">
+        <f t="array" ref="J10">_xll.XLL.BLACK.PUT.IMPLIED(f,H10,F10,t)</f>
+        <v>0.21091288331598537</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="F11">
         <v>74</v>
       </c>
@@ -627,14 +666,20 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" cm="1">
+        <f t="array" ref="H11">_xll.XLL.GAMMA.PUT(f,sigma,F11,t)</f>
+        <v>5.590231529384676E-3</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J11" s="2" cm="1">
+        <f t="array" ref="J11">_xll.XLL.BLACK.PUT.IMPLIED(f,H11,F11,t)</f>
+        <v>0.21045960410593448</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="F12">
         <v>75</v>
       </c>
@@ -642,14 +687,20 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" cm="1">
+        <f t="array" ref="H12">_xll.XLL.GAMMA.PUT(f,sigma,F12,t)</f>
+        <v>8.451791248063445E-3</v>
+      </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J12" s="2" cm="1">
+        <f t="array" ref="J12">_xll.XLL.BLACK.PUT.IMPLIED(f,H12,F12,t)</f>
+        <v>0.21001234896104137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="F13">
         <v>76</v>
       </c>
@@ -657,14 +708,20 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" cm="1">
+        <f t="array" ref="H13">_xll.XLL.GAMMA.PUT(f,sigma,F13,t)</f>
+        <v>1.2569613235804633E-2</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J13" s="2" cm="1">
+        <f t="array" ref="J13">_xll.XLL.BLACK.PUT.IMPLIED(f,H13,F13,t)</f>
+        <v>0.20957096145645532</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="F14">
         <v>77</v>
       </c>
@@ -672,14 +729,20 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" cm="1">
+        <f t="array" ref="H14">_xll.XLL.GAMMA.PUT(f,sigma,F14,t)</f>
+        <v>1.8398212800229241E-2</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J14" s="2" cm="1">
+        <f t="array" ref="J14">_xll.XLL.BLACK.PUT.IMPLIED(f,H14,F14,t)</f>
+        <v>0.20913529120173258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="F15">
         <v>78</v>
       </c>
@@ -687,14 +750,20 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" cm="1">
+        <f t="array" ref="H15">_xll.XLL.GAMMA.PUT(f,sigma,F15,t)</f>
+        <v>2.6517310308358133E-2</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J15" s="2" cm="1">
+        <f t="array" ref="J15">_xll.XLL.BLACK.PUT.IMPLIED(f,H15,F15,t)</f>
+        <v>0.20870519353355413</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="F16">
         <v>79</v>
       </c>
@@ -702,14 +771,20 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" cm="1">
+        <f t="array" ref="H16">_xll.XLL.GAMMA.PUT(f,sigma,F16,t)</f>
+        <v>3.7652736229766726E-2</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J16" s="2" cm="1">
+        <f t="array" ref="J16">_xll.XLL.BLACK.PUT.IMPLIED(f,H16,F16,t)</f>
+        <v>0.20828052922744211</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10">
       <c r="F17">
         <v>80</v>
       </c>
@@ -717,14 +792,20 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" cm="1">
+        <f t="array" ref="H17">_xll.XLL.GAMMA.PUT(f,sigma,F17,t)</f>
+        <v>5.2696767052352822E-2</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J17" s="2" cm="1">
+        <f t="array" ref="J17">_xll.XLL.BLACK.PUT.IMPLIED(f,H17,F17,t)</f>
+        <v>0.20786116422816761</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10">
       <c r="F18">
         <v>81</v>
       </c>
@@ -732,14 +813,20 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2" cm="1">
+        <f t="array" ref="H18">_xll.XLL.GAMMA.PUT(f,sigma,F18,t)</f>
+        <v>7.2726594958209656E-2</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J18" s="2" cm="1">
+        <f t="array" ref="J18">_xll.XLL.BLACK.PUT.IMPLIED(f,H18,F18,t)</f>
+        <v>0.20744696939560114</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10">
       <c r="F19">
         <v>82</v>
       </c>
@@ -747,14 +834,20 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" cm="1">
+        <f t="array" ref="H19">_xll.XLL.GAMMA.PUT(f,sigma,F19,t)</f>
+        <v>9.9019472852507118E-2</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J19" s="2" cm="1">
+        <f t="array" ref="J19">_xll.XLL.BLACK.PUT.IMPLIED(f,H19,F19,t)</f>
+        <v>0.20703782026762049</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10">
       <c r="F20">
         <v>83</v>
       </c>
@@ -762,14 +855,20 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2" cm="1">
+        <f t="array" ref="H20">_xll.XLL.GAMMA.PUT(f,sigma,F20,t)</f>
+        <v>0.13306300235605129</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J20" s="2" cm="1">
+        <f t="array" ref="J20">_xll.XLL.BLACK.PUT.IMPLIED(f,H20,F20,t)</f>
+        <v>0.20663359683496854</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10">
       <c r="F21">
         <v>84</v>
       </c>
@@ -777,14 +876,20 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" cm="1">
+        <f t="array" ref="H21">_xll.XLL.GAMMA.PUT(f,sigma,F21,t)</f>
+        <v>0.17655906810759392</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J21" s="2" cm="1">
+        <f t="array" ref="J21">_xll.XLL.BLACK.PUT.IMPLIED(f,H21,F21,t)</f>
+        <v>0.20623418333211044</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10">
       <c r="F22">
         <v>85</v>
       </c>
@@ -792,14 +897,20 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2" cm="1">
+        <f t="array" ref="H22">_xll.XLL.GAMMA.PUT(f,sigma,F22,t)</f>
+        <v>0.23142008133591663</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J22" s="2" cm="1">
+        <f t="array" ref="J22">_xll.XLL.BLACK.PUT.IMPLIED(f,H22,F22,t)</f>
+        <v>0.20583946803790867</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10">
       <c r="F23">
         <v>86</v>
       </c>
@@ -807,14 +918,20 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2" cm="1">
+        <f t="array" ref="H23">_xll.XLL.GAMMA.PUT(f,sigma,F23,t)</f>
+        <v>0.2997564826258321</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J23" s="2" cm="1">
+        <f t="array" ref="J23">_xll.XLL.BLACK.PUT.IMPLIED(f,H23,F23,t)</f>
+        <v>0.20544934308943413</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10">
       <c r="F24">
         <v>87</v>
       </c>
@@ -822,14 +939,20 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2" cm="1">
+        <f t="array" ref="H24">_xll.XLL.GAMMA.PUT(f,sigma,F24,t)</f>
+        <v>0.38385485890439863</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J24" s="2" cm="1">
+        <f t="array" ref="J24">_xll.XLL.BLACK.PUT.IMPLIED(f,H24,F24,t)</f>
+        <v>0.20506370430575391</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10">
       <c r="F25">
         <v>88</v>
       </c>
@@ -837,14 +960,20 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2" cm="1">
+        <f t="array" ref="H25">_xll.XLL.GAMMA.PUT(f,sigma,F25,t)</f>
+        <v>0.48614653111121164</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J25" s="2" cm="1">
+        <f t="array" ref="J25">_xll.XLL.BLACK.PUT.IMPLIED(f,H25,F25,t)</f>
+        <v>0.20468245102133648</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10">
       <c r="F26">
         <v>89</v>
       </c>
@@ -852,14 +981,20 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2" cm="1">
+        <f t="array" ref="H26">_xll.XLL.GAMMA.PUT(f,sigma,F26,t)</f>
+        <v>0.60916703344991596</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J26" s="2" cm="1">
+        <f t="array" ref="J26">_xll.XLL.BLACK.PUT.IMPLIED(f,H26,F26,t)</f>
+        <v>0.20430548593030609</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10">
       <c r="F27">
         <v>90</v>
       </c>
@@ -867,14 +1002,20 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2" cm="1">
+        <f t="array" ref="H27">_xll.XLL.GAMMA.PUT(f,sigma,F27,t)</f>
+        <v>0.75550749047170562</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J27" s="2" cm="1">
+        <f t="array" ref="J27">_xll.XLL.BLACK.PUT.IMPLIED(f,H27,F27,t)</f>
+        <v>0.20393271493704457</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10">
       <c r="F28">
         <v>91</v>
       </c>
@@ -882,14 +1023,20 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2" cm="1">
+        <f t="array" ref="H28">_xll.XLL.GAMMA.PUT(f,sigma,F28,t)</f>
+        <v>0.92775945788765313</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J28" s="2" cm="1">
+        <f t="array" ref="J28">_xll.XLL.BLACK.PUT.IMPLIED(f,H28,F28,t)</f>
+        <v>0.20356404701673117</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10">
       <c r="F29">
         <v>92</v>
       </c>
@@ -897,14 +1044,20 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2" cm="1">
+        <f t="array" ref="H29">_xll.XLL.GAMMA.PUT(f,sigma,F29,t)</f>
+        <v>1.1284552798969685</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J29" s="2" cm="1">
+        <f t="array" ref="J29">_xll.XLL.BLACK.PUT.IMPLIED(f,H29,F29,t)</f>
+        <v>0.20319939408279358</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10">
       <c r="F30">
         <v>93</v>
       </c>
@@ -912,14 +1065,20 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2" cm="1">
+        <f t="array" ref="H30">_xll.XLL.GAMMA.PUT(f,sigma,F30,t)</f>
+        <v>1.360006387955174</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J30" s="2" cm="1">
+        <f t="array" ref="J30">_xll.XLL.BLACK.PUT.IMPLIED(f,H30,F30,t)</f>
+        <v>0.20283867086138452</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10">
       <c r="F31">
         <v>94</v>
       </c>
@@ -927,14 +1086,20 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2" cm="1">
+        <f t="array" ref="H31">_xll.XLL.GAMMA.PUT(f,sigma,F31,t)</f>
+        <v>1.62464219013426</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J31" s="2" cm="1">
+        <f t="array" ref="J31">_xll.XLL.BLACK.PUT.IMPLIED(f,H31,F31,t)</f>
+        <v>0.20248179477256115</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10">
       <c r="F32">
         <v>95</v>
       </c>
@@ -942,14 +1107,20 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2" cm="1">
+        <f t="array" ref="H32">_xll.XLL.GAMMA.PUT(f,sigma,F32,t)</f>
+        <v>1.9243522559585848</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J32" s="2" cm="1">
+        <f t="array" ref="J32">_xll.XLL.BLACK.PUT.IMPLIED(f,H32,F32,t)</f>
+        <v>0.20212868581788687</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10">
       <c r="F33">
         <v>96</v>
       </c>
@@ -957,14 +1128,20 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2" cm="1">
+        <f t="array" ref="H33">_xll.XLL.GAMMA.PUT(f,sigma,F33,t)</f>
+        <v>2.2608343827001036</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J33" s="2" cm="1">
+        <f t="array" ref="J33">_xll.XLL.BLACK.PUT.IMPLIED(f,H33,F33,t)</f>
+        <v>0.20177926647365566</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10">
       <c r="F34">
         <v>97</v>
       </c>
@@ -972,14 +1149,20 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2" cm="1">
+        <f t="array" ref="H34">_xll.XLL.GAMMA.PUT(f,sigma,F34,t)</f>
+        <v>2.6354508444062361</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J34" s="2" cm="1">
+        <f t="array" ref="J34">_xll.XLL.BLACK.PUT.IMPLIED(f,H34,F34,t)</f>
+        <v>0.20143346158876071</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10">
       <c r="F35">
         <v>98</v>
       </c>
@@ -987,14 +1170,20 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2" cm="1">
+        <f t="array" ref="H35">_xll.XLL.GAMMA.PUT(f,sigma,F35,t)</f>
+        <v>3.0491946970869392</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J35" s="2" cm="1">
+        <f t="array" ref="J35">_xll.XLL.BLACK.PUT.IMPLIED(f,H35,F35,t)</f>
+        <v>0.20109119829026401</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10">
       <c r="F36">
         <v>99</v>
       </c>
@@ -1002,14 +1191,20 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2" cm="1">
+        <f t="array" ref="H36">_xll.XLL.GAMMA.PUT(f,sigma,F36,t)</f>
+        <v>3.5026674760476624</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J36" s="2" cm="1">
+        <f t="array" ref="J36">_xll.XLL.BLACK.PUT.IMPLIED(f,H36,F36,t)</f>
+        <v>0.20075240589094284</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10">
       <c r="F37">
         <v>100</v>
       </c>
@@ -1017,14 +1212,20 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2" cm="1">
+        <f t="array" ref="H37">_xll.XLL.GAMMA.PUT(f,sigma,F37,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J37" s="2" cm="1">
+        <f t="array" ref="J37">_xll.XLL.BLACK.PUT.IMPLIED(f,H37,F37,t)</f>
+        <v>0.20041701580256077</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10">
       <c r="F38">
         <v>101</v>
       </c>
@@ -1032,14 +1233,20 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2" cm="1">
+        <f t="array" ref="H38">_xll.XLL.GAMMA.PUT(f,sigma,F38,t)</f>
+        <v>4.5291995002208836</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J38" s="2" cm="1">
+        <f t="array" ref="J38">_xll.XLL.BLACK.PUT.IMPLIED(f,H38,F38,t)</f>
+        <v>0.20008496145309618</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10">
       <c r="F39">
         <v>102</v>
       </c>
@@ -1047,14 +1254,20 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2" cm="1">
+        <f t="array" ref="H39">_xll.XLL.GAMMA.PUT(f,sigma,F39,t)</f>
+        <v>5.1014732268873928</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J39" s="2" cm="1">
+        <f t="array" ref="J39">_xll.XLL.BLACK.PUT.IMPLIED(f,H39,F39,t)</f>
+        <v>0.19975617820979266</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10">
       <c r="F40">
         <v>103</v>
       </c>
@@ -1062,14 +1275,20 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2" cm="1">
+        <f t="array" ref="H40">_xll.XLL.GAMMA.PUT(f,sigma,F40,t)</f>
+        <v>5.7119430607959316</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J40" s="2" cm="1">
+        <f t="array" ref="J40">_xll.XLL.BLACK.PUT.IMPLIED(f,H40,F40,t)</f>
+        <v>0.19943060330278106</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10">
       <c r="F41">
         <v>104</v>
       </c>
@@ -1077,14 +1296,20 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2" cm="1">
+        <f t="array" ref="H41">_xll.XLL.GAMMA.PUT(f,sigma,F41,t)</f>
+        <v>6.359334058132589</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J41" s="2" cm="1">
+        <f t="array" ref="J41">_xll.XLL.BLACK.PUT.IMPLIED(f,H41,F41,t)</f>
+        <v>0.19910817575424916</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10">
       <c r="F42">
         <v>105</v>
       </c>
@@ -1092,14 +1317,20 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2" cm="1">
+        <f t="array" ref="H42">_xll.XLL.GAMMA.PUT(f,sigma,F42,t)</f>
+        <v>7.0420844428201121</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J42" s="2" cm="1">
+        <f t="array" ref="J42">_xll.XLL.BLACK.PUT.IMPLIED(f,H42,F42,t)</f>
+        <v>0.19878883631142852</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10">
       <c r="F43">
         <v>106</v>
       </c>
@@ -1107,14 +1338,20 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2" cm="1">
+        <f t="array" ref="H43">_xll.XLL.GAMMA.PUT(f,sigma,F43,t)</f>
+        <v>7.7583918958759028</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J43" s="2" cm="1">
+        <f t="array" ref="J43">_xll.XLL.BLACK.PUT.IMPLIED(f,H43,F43,t)</f>
+        <v>0.19847252738148907</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10">
       <c r="F44">
         <v>107</v>
       </c>
@@ -1122,14 +1359,20 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2" cm="1">
+        <f t="array" ref="H44">_xll.XLL.GAMMA.PUT(f,sigma,F44,t)</f>
+        <v>8.5062630478467582</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J44" s="2" cm="1">
+        <f t="array" ref="J44">_xll.XLL.BLACK.PUT.IMPLIED(f,H44,F44,t)</f>
+        <v>0.19815919297022394</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10">
       <c r="F45">
         <v>108</v>
       </c>
@@ -1137,14 +1380,20 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2" cm="1">
+        <f t="array" ref="H45">_xll.XLL.GAMMA.PUT(f,sigma,F45,t)</f>
+        <v>9.2835641106318576</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J45" s="2" cm="1">
+        <f t="array" ref="J45">_xll.XLL.BLACK.PUT.IMPLIED(f,H45,F45,t)</f>
+        <v>0.19784877862311953</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10">
       <c r="F46">
         <v>109</v>
       </c>
@@ -1152,14 +1401,20 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2" cm="1">
+        <f t="array" ref="H46">_xll.XLL.GAMMA.PUT(f,sigma,F46,t)</f>
+        <v>10.088070737440773</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J46" s="2" cm="1">
+        <f t="array" ref="J46">_xll.XLL.BLACK.PUT.IMPLIED(f,H46,F46,t)</f>
+        <v>0.19754123136892979</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10">
       <c r="F47">
         <v>110</v>
       </c>
@@ -1167,14 +1422,20 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2" cm="1">
+        <f t="array" ref="H47">_xll.XLL.GAMMA.PUT(f,sigma,F47,t)</f>
+        <v>10.917515436164138</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J47" s="2" cm="1">
+        <f t="array" ref="J47">_xll.XLL.BLACK.PUT.IMPLIED(f,H47,F47,t)</f>
+        <v>0.19723649966720683</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10">
       <c r="F48">
         <v>111</v>
       </c>
@@ -1182,14 +1443,20 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2" cm="1">
+        <f t="array" ref="H48">_xll.XLL.GAMMA.PUT(f,sigma,F48,t)</f>
+        <v>11.7696311573022</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J48" s="2" cm="1">
+        <f t="array" ref="J48">_xll.XLL.BLACK.PUT.IMPLIED(f,H48,F48,t)</f>
+        <v>0.19693453335599928</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10">
       <c r="F49">
         <v>112</v>
       </c>
@@ -1197,14 +1464,20 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2" cm="1">
+        <f t="array" ref="H49">_xll.XLL.GAMMA.PUT(f,sigma,F49,t)</f>
+        <v>12.64219000763228</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J49" s="2" cm="1">
+        <f t="array" ref="J49">_xll.XLL.BLACK.PUT.IMPLIED(f,H49,F49,t)</f>
+        <v>0.19663528360386642</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10">
       <c r="F50">
         <v>113</v>
       </c>
@@ -1212,14 +1485,20 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2" cm="1">
+        <f t="array" ref="H50">_xll.XLL.GAMMA.PUT(f,sigma,F50,t)</f>
+        <v>13.533036380390683</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J50" s="2" cm="1">
+        <f t="array" ref="J50">_xll.XLL.BLACK.PUT.IMPLIED(f,H50,F50,t)</f>
+        <v>0.19633870286258381</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10">
       <c r="F51">
         <v>114</v>
       </c>
@@ -1227,14 +1506,20 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2" cm="1">
+        <f t="array" ref="H51">_xll.XLL.GAMMA.PUT(f,sigma,F51,t)</f>
+        <v>14.44011412103788</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J51" s="2" cm="1">
+        <f t="array" ref="J51">_xll.XLL.BLACK.PUT.IMPLIED(f,H51,F51,t)</f>
+        <v>0.1960447448226682</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10">
       <c r="F52">
         <v>115</v>
       </c>
@@ -1242,14 +1527,20 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2" cm="1">
+        <f t="array" ref="H52">_xll.XLL.GAMMA.PUT(f,sigma,F52,t)</f>
+        <v>15.361487647106756</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J52" s="2" cm="1">
+        <f t="array" ref="J52">_xll.XLL.BLACK.PUT.IMPLIED(f,H52,F52,t)</f>
+        <v>0.19575336437070706</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10">
       <c r="F53">
         <v>116</v>
       </c>
@@ -1257,14 +1548,20 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2" cm="1">
+        <f t="array" ref="H53">_xll.XLL.GAMMA.PUT(f,sigma,F53,t)</f>
+        <v>16.29535719875858</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J53" s="2" cm="1">
+        <f t="array" ref="J53">_xll.XLL.BLACK.PUT.IMPLIED(f,H53,F53,t)</f>
+        <v>0.19546451754846336</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10">
       <c r="F54">
         <v>117</v>
       </c>
@@ -1272,14 +1569,20 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2" cm="1">
+        <f t="array" ref="H54">_xll.XLL.GAMMA.PUT(f,sigma,F54,t)</f>
+        <v>17.240068605568112</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J54" s="2" cm="1">
+        <f t="array" ref="J54">_xll.XLL.BLACK.PUT.IMPLIED(f,H54,F54,t)</f>
+        <v>0.19517816151349443</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10">
       <c r="F55">
         <v>118</v>
       </c>
@@ -1287,14 +1590,20 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2" cm="1">
+        <f t="array" ref="H55">_xll.XLL.GAMMA.PUT(f,sigma,F55,t)</f>
+        <v>18.194118111378401</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J55" s="2" cm="1">
+        <f t="array" ref="J55">_xll.XLL.BLACK.PUT.IMPLIED(f,H55,F55,t)</f>
+        <v>0.19489425450188741</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10">
       <c r="F56">
         <v>119</v>
       </c>
@@ -1302,14 +1611,20 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2" cm="1">
+        <f t="array" ref="H56">_xll.XLL.GAMMA.PUT(f,sigma,F56,t)</f>
+        <v>19.156152903317306</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J56" s="2" cm="1">
+        <f t="array" ref="J56">_xll.XLL.BLACK.PUT.IMPLIED(f,H56,F56,t)</f>
+        <v>0.1946127557918918</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10">
       <c r="F57">
         <v>120</v>
       </c>
@@ -1317,14 +1632,20 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2" cm="1">
+        <f t="array" ref="H57">_xll.XLL.GAMMA.PUT(f,sigma,F57,t)</f>
+        <v>20.12496804698003</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J57" s="2" cm="1">
+        <f t="array" ref="J57">_xll.XLL.BLACK.PUT.IMPLIED(f,H57,F57,t)</f>
+        <v>0.19433362566998369</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10">
       <c r="F58">
         <v>121</v>
       </c>
@@ -1332,14 +1653,20 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2" cm="1">
+        <f t="array" ref="H58">_xll.XLL.GAMMA.PUT(f,sigma,F58,t)</f>
+        <v>21.099500543233205</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J58" s="2" cm="1">
+        <f t="array" ref="J58">_xll.XLL.BLACK.PUT.IMPLIED(f,H58,F58,t)</f>
+        <v>0.19405682539738733</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10">
       <c r="F59">
         <v>122</v>
       </c>
@@ -1347,14 +1674,20 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2" cm="1">
+        <f t="array" ref="H59">_xll.XLL.GAMMA.PUT(f,sigma,F59,t)</f>
+        <v>22.078821200533753</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J59" s="2" cm="1">
+        <f t="array" ref="J59">_xll.XLL.BLACK.PUT.IMPLIED(f,H59,F59,t)</f>
+        <v>0.19378231717859215</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10">
       <c r="F60">
         <v>123</v>
       </c>
@@ -1362,14 +1695,20 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2" cm="1">
+        <f t="array" ref="H60">_xll.XLL.GAMMA.PUT(f,sigma,F60,t)</f>
+        <v>23.062124968007112</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J60" s="2" cm="1">
+        <f t="array" ref="J60">_xll.XLL.BLACK.PUT.IMPLIED(f,H60,F60,t)</f>
+        <v>0.19351006413067628</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10">
       <c r="F61">
         <v>124</v>
       </c>
@@ -1377,14 +1716,20 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2" cm="1">
+        <f t="array" ref="H61">_xll.XLL.GAMMA.PUT(f,sigma,F61,t)</f>
+        <v>24.04872030681635</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J61" s="2" cm="1">
+        <f t="array" ref="J61">_xll.XLL.BLACK.PUT.IMPLIED(f,H61,F61,t)</f>
+        <v>0.19324003025443812</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10">
       <c r="F62">
         <v>125</v>
       </c>
@@ -1392,14 +1737,20 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2" cm="1">
+        <f t="array" ref="H62">_xll.XLL.GAMMA.PUT(f,sigma,F62,t)</f>
+        <v>25.038018097943663</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J62" s="2" cm="1">
+        <f t="array" ref="J62">_xll.XLL.BLACK.PUT.IMPLIED(f,H62,F62,t)</f>
+        <v>0.19297218040625874</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10">
       <c r="F63">
         <v>126</v>
       </c>
@@ -1407,14 +1758,20 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2" cm="1">
+        <f t="array" ref="H63">_xll.XLL.GAMMA.PUT(f,sigma,F63,t)</f>
+        <v>26.029520499927315</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J63" s="2" cm="1">
+        <f t="array" ref="J63">_xll.XLL.BLACK.PUT.IMPLIED(f,H63,F63,t)</f>
+        <v>0.19270648027075188</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10">
       <c r="F64">
         <v>127</v>
       </c>
@@ -1422,14 +1779,20 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2" cm="1">
+        <f t="array" ref="H64">_xll.XLL.GAMMA.PUT(f,sigma,F64,t)</f>
+        <v>27.022810085691404</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J64" s="2" cm="1">
+        <f t="array" ref="J64">_xll.XLL.BLACK.PUT.IMPLIED(f,H64,F64,t)</f>
+        <v>0.19244289633549364</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10">
       <c r="F65">
         <v>128</v>
       </c>
@@ -1437,14 +1800,20 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2" cm="1">
+        <f t="array" ref="H65">_xll.XLL.GAMMA.PUT(f,sigma,F65,t)</f>
+        <v>28.017539507525299</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J65" s="2" cm="1">
+        <f t="array" ref="J65">_xll.XLL.BLACK.PUT.IMPLIED(f,H65,F65,t)</f>
+        <v>0.19218139586568742</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10">
       <c r="F66">
         <v>129</v>
       </c>
@@ -1452,14 +1821,20 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2" cm="1">
+        <f t="array" ref="H66">_xll.XLL.GAMMA.PUT(f,sigma,F66,t)</f>
+        <v>29.013421866483313</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J66" s="2" cm="1">
+        <f t="array" ref="J66">_xll.XLL.BLACK.PUT.IMPLIED(f,H66,F66,t)</f>
+        <v>0.19192194688040323</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10">
       <c r="F67">
         <v>130</v>
       </c>
@@ -1467,14 +1842,21 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2" cm="1">
+        <f t="array" ref="H67">_xll.XLL.GAMMA.PUT(f,sigma,F67,t)</f>
+        <v>30.010221898820959</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2" cm="1">
+        <f t="array" ref="J67">_xll.XLL.BLACK.PUT.IMPLIED(f,H67,F67,t)</f>
+        <v>0.19166451812980059</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18421\source\repos\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2BF8BE-E6BD-4805-A577-D57EFAA3D845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -94,19 +92,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -477,14 +482,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +509,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,7 +517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,7 +537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
@@ -545,7 +554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -559,14 +568,20 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F7, t)</f>
+        <v>8.9763951445043927E-4</v>
+      </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J7">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H7, F7, t)</f>
+        <v>0.21231052715334578</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +589,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,k,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -582,14 +600,20 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F8, t)</f>
+        <v>1.4575439098829177E-3</v>
+      </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J8">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H8, F8, t)</f>
+        <v>0.21183817179416867</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>72</v>
       </c>
@@ -597,14 +621,20 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F9, t)</f>
+        <v>2.3228003245620993E-3</v>
+      </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J9">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H9, F9, t)</f>
+        <v>0.21137234937840421</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>73</v>
       </c>
@@ -612,14 +642,20 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F10, t)</f>
+        <v>3.6352252638087446E-3</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J10">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H10, F10, t)</f>
+        <v>0.21091288331598537</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>74</v>
       </c>
@@ -627,14 +663,20 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F11, t)</f>
+        <v>5.590231529384676E-3</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J11">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H11, F11, t)</f>
+        <v>0.21045960410593448</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>75</v>
       </c>
@@ -642,14 +684,20 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F12, t)</f>
+        <v>8.451791248063445E-3</v>
+      </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J12">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H12, F12, t)</f>
+        <v>0.21001234896104137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>76</v>
       </c>
@@ -657,14 +705,20 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F13, t)</f>
+        <v>1.2569613235804633E-2</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J13">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H13, F13, t)</f>
+        <v>0.20957096145645532</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>77</v>
       </c>
@@ -672,14 +726,20 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F14, t)</f>
+        <v>1.8398212800229241E-2</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J14">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H14, F14, t)</f>
+        <v>0.20913529120173258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>78</v>
       </c>
@@ -687,14 +747,20 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F15, t)</f>
+        <v>2.6517310308358133E-2</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J15">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H15, F15, t)</f>
+        <v>0.20870519353355413</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>79</v>
       </c>
@@ -702,14 +768,20 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F16, t)</f>
+        <v>3.7652736229766726E-2</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J16">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H16, F16, t)</f>
+        <v>0.20828052922744211</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>80</v>
       </c>
@@ -717,14 +789,20 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F17, t)</f>
+        <v>5.2696767052352822E-2</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J17">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H17, F17, t)</f>
+        <v>0.20786116422816761</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>81</v>
       </c>
@@ -732,14 +810,20 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F18, t)</f>
+        <v>7.2726594958209656E-2</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J18">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H18, F18, t)</f>
+        <v>0.20744696939560114</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>82</v>
       </c>
@@ -747,14 +831,20 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F19, t)</f>
+        <v>9.9019472852507118E-2</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J19">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H19, F19, t)</f>
+        <v>0.20703782026762049</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>83</v>
       </c>
@@ -762,14 +852,20 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F20, t)</f>
+        <v>0.13306300235605129</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J20">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H20, F20, t)</f>
+        <v>0.20663359683496854</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>84</v>
       </c>
@@ -777,14 +873,20 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F21, t)</f>
+        <v>0.17655906810759392</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J21">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H21, F21, t)</f>
+        <v>0.20623418333211044</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>85</v>
       </c>
@@ -792,14 +894,20 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F22, t)</f>
+        <v>0.23142008133591663</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J22">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H22, F22, t)</f>
+        <v>0.20583946803790867</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>86</v>
       </c>
@@ -807,14 +915,20 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F23, t)</f>
+        <v>0.2997564826258321</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J23">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H23, F23, t)</f>
+        <v>0.20544934308943413</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>87</v>
       </c>
@@ -822,14 +936,20 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F24, t)</f>
+        <v>0.38385485890439863</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J24">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H24, F24, t)</f>
+        <v>0.20506370430575391</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>88</v>
       </c>
@@ -837,14 +957,20 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F25, t)</f>
+        <v>0.48614653111121164</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J25">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H25, F25, t)</f>
+        <v>0.20468245102133648</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>89</v>
       </c>
@@ -852,14 +978,20 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F26, t)</f>
+        <v>0.60916703344991596</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J26">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H26, F26, t)</f>
+        <v>0.20430548593030609</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>90</v>
       </c>
@@ -867,14 +999,20 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F27, t)</f>
+        <v>0.75550749047170562</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J27">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H27, F27, t)</f>
+        <v>0.20393271493704457</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>91</v>
       </c>
@@ -882,14 +1020,20 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F28, t)</f>
+        <v>0.92775945788765313</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J28">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H28, F28, t)</f>
+        <v>0.20356404701673117</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>92</v>
       </c>
@@ -897,14 +1041,20 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F29, t)</f>
+        <v>1.1284552798969685</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J29">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H29, F29, t)</f>
+        <v>0.20319939408279358</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>93</v>
       </c>
@@ -912,14 +1062,20 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F30, t)</f>
+        <v>1.360006387955174</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J30">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H30, F30, t)</f>
+        <v>0.20283867086138452</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>94</v>
       </c>
@@ -927,14 +1083,20 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F31, t)</f>
+        <v>1.62464219013426</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J31">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H31, F31, t)</f>
+        <v>0.20248179477256115</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>95</v>
       </c>
@@ -942,14 +1104,20 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F32, t)</f>
+        <v>1.9243522559585848</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J32">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H32, F32, t)</f>
+        <v>0.20212868581788687</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F33">
         <v>96</v>
       </c>
@@ -957,14 +1125,20 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F33, t)</f>
+        <v>2.2608343827001036</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J33">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H33, F33, t)</f>
+        <v>0.20177926647365566</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F34">
         <v>97</v>
       </c>
@@ -972,14 +1146,20 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F34, t)</f>
+        <v>2.6354508444062361</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J34">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H34, F34, t)</f>
+        <v>0.20143346158876071</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F35">
         <v>98</v>
       </c>
@@ -987,14 +1167,20 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F35, t)</f>
+        <v>3.0491946970869392</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J35">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H35, F35, t)</f>
+        <v>0.20109119829026401</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F36">
         <v>99</v>
       </c>
@@ -1002,14 +1188,20 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F36, t)</f>
+        <v>3.5026674760476624</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J36">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H36, F36, t)</f>
+        <v>0.20075240589094284</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F37">
         <v>100</v>
       </c>
@@ -1017,14 +1209,20 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F37, t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J37">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H37, F37, t)</f>
+        <v>0.20041701580256077</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F38">
         <v>101</v>
       </c>
@@ -1032,14 +1230,20 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F38, t)</f>
+        <v>4.5291995002208836</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J38">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H38, F38, t)</f>
+        <v>0.20008496145309618</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F39">
         <v>102</v>
       </c>
@@ -1047,14 +1251,20 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F39, t)</f>
+        <v>5.1014732268873928</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J39">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H39, F39, t)</f>
+        <v>0.19975617820979266</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F40">
         <v>103</v>
       </c>
@@ -1062,14 +1272,20 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F40, t)</f>
+        <v>5.7119430607959316</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J40">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H40, F40, t)</f>
+        <v>0.19943060330278106</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F41">
         <v>104</v>
       </c>
@@ -1077,14 +1293,20 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F41, t)</f>
+        <v>6.359334058132589</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J41">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H41, F41, t)</f>
+        <v>0.19910817575424916</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F42">
         <v>105</v>
       </c>
@@ -1092,14 +1314,20 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F42, t)</f>
+        <v>7.0420844428201121</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J42">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H42, F42, t)</f>
+        <v>0.19878883631142852</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F43">
         <v>106</v>
       </c>
@@ -1107,14 +1335,20 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F43, t)</f>
+        <v>7.7583918958759028</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J43">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H43, F43, t)</f>
+        <v>0.19847252738148907</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F44">
         <v>107</v>
       </c>
@@ -1122,14 +1356,20 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F44, t)</f>
+        <v>8.5062630478467582</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J44">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H44, F44, t)</f>
+        <v>0.19815919297022394</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F45">
         <v>108</v>
       </c>
@@ -1137,14 +1377,20 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F45, t)</f>
+        <v>9.2835641106318576</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J45">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H45, F45, t)</f>
+        <v>0.19784877862311953</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F46">
         <v>109</v>
       </c>
@@ -1152,14 +1398,20 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F46, t)</f>
+        <v>10.088070737440773</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J46">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H46, F46, t)</f>
+        <v>0.19754123136892979</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F47">
         <v>110</v>
       </c>
@@ -1167,14 +1419,20 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F47, t)</f>
+        <v>10.917515436164138</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J47">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H47, F47, t)</f>
+        <v>0.19723649966720683</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F48">
         <v>111</v>
       </c>
@@ -1182,14 +1440,20 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F48, t)</f>
+        <v>11.7696311573022</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J48">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H48, F48, t)</f>
+        <v>0.19693453335599928</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>112</v>
       </c>
@@ -1197,14 +1461,20 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F49, t)</f>
+        <v>12.64219000763228</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J49">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H49, F49, t)</f>
+        <v>0.19663528360386642</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>113</v>
       </c>
@@ -1212,14 +1482,20 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F50, t)</f>
+        <v>13.533036380390683</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J50">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H50, F50, t)</f>
+        <v>0.19633870286258381</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>114</v>
       </c>
@@ -1227,14 +1503,20 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F51, t)</f>
+        <v>14.44011412103788</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J51">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H51, F51, t)</f>
+        <v>0.1960447448226682</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>115</v>
       </c>
@@ -1242,14 +1524,20 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F52, t)</f>
+        <v>15.361487647106756</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J52">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H52, F52, t)</f>
+        <v>0.19575336437070706</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>116</v>
       </c>
@@ -1257,14 +1545,20 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F53, t)</f>
+        <v>16.29535719875858</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J53">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H53, F53, t)</f>
+        <v>0.19546451754846336</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>117</v>
       </c>
@@ -1272,14 +1566,20 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F54, t)</f>
+        <v>17.240068605568112</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J54">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H54, F54, t)</f>
+        <v>0.19517816151349443</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F55">
         <v>118</v>
       </c>
@@ -1287,14 +1587,20 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F55, t)</f>
+        <v>18.194118111378401</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J55">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H55, F55, t)</f>
+        <v>0.19489425450188741</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F56">
         <v>119</v>
       </c>
@@ -1302,14 +1608,20 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F56, t)</f>
+        <v>19.156152903317306</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J56">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H56, F56, t)</f>
+        <v>0.1946127557918918</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>120</v>
       </c>
@@ -1317,14 +1629,20 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F57, t)</f>
+        <v>20.12496804698003</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J57">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H57, F57, t)</f>
+        <v>0.19433362566998369</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>121</v>
       </c>
@@ -1332,14 +1650,20 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F58, t)</f>
+        <v>21.099500543233205</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J58">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H58, F58, t)</f>
+        <v>0.19405682539738733</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>122</v>
       </c>
@@ -1347,14 +1671,20 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F59, t)</f>
+        <v>22.078821200533753</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J59">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H59, F59, t)</f>
+        <v>0.19378231717859215</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>123</v>
       </c>
@@ -1362,14 +1692,20 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F60, t)</f>
+        <v>23.062124968007112</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J60">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H60, F60, t)</f>
+        <v>0.19351006413067628</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>124</v>
       </c>
@@ -1377,14 +1713,20 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F61, t)</f>
+        <v>24.04872030681635</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J61">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H61, F61, t)</f>
+        <v>0.19324003025443812</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>125</v>
       </c>
@@ -1392,14 +1734,20 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F62, t)</f>
+        <v>25.038018097943663</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J62">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H62, F62, t)</f>
+        <v>0.19297218040625874</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>126</v>
       </c>
@@ -1407,14 +1755,20 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F63, t)</f>
+        <v>26.029520499927315</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J63">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H63, F63, t)</f>
+        <v>0.19270648027075188</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F64">
         <v>127</v>
       </c>
@@ -1422,14 +1776,20 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F64, t)</f>
+        <v>27.022810085691404</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J64">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H64, F64, t)</f>
+        <v>0.19244289633549364</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F65">
         <v>128</v>
       </c>
@@ -1437,14 +1797,20 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F65, t)</f>
+        <v>28.017539507525299</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J65">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H65, F65, t)</f>
+        <v>0.19218139586568742</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F66">
         <v>129</v>
       </c>
@@ -1452,14 +1818,20 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F66, t)</f>
+        <v>29.013421866483313</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J66">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H66, F66, t)</f>
+        <v>0.19192194688040323</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F67">
         <v>130</v>
       </c>
@@ -1467,14 +1839,21 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F67, t)</f>
+        <v>30.010221898820959</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H67, F67, t)</f>
+        <v>0.19166451812980059</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feiwq\source\repos\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905BFAC3-E462-4886-BB7E-3B6AB08DE58A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -477,14 +475,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +501,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,7 +509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,7 +529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
@@ -545,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -559,14 +560,20 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F7,t)</f>
+        <v>8.9763951445043927E-4</v>
+      </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J7" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H7,F7,t)</f>
+        <v>0.21231052715334578</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +581,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,k,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -582,14 +592,20 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F8,t)</f>
+        <v>1.4575439098829177E-3</v>
+      </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J8" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H8,F8,t)</f>
+        <v>0.21183817179416867</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F9">
         <v>72</v>
       </c>
@@ -597,14 +613,20 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F9,t)</f>
+        <v>2.3228003245620993E-3</v>
+      </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J9" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H9,F9,t)</f>
+        <v>0.21137234937840421</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F10">
         <v>73</v>
       </c>
@@ -612,14 +634,20 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F10,t)</f>
+        <v>3.6352252638087446E-3</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J10" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H10,F10,t)</f>
+        <v>0.21091288331598537</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F11">
         <v>74</v>
       </c>
@@ -627,14 +655,20 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F11,t)</f>
+        <v>5.590231529384676E-3</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J11" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H11,F11,t)</f>
+        <v>0.21045960410593448</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F12">
         <v>75</v>
       </c>
@@ -642,14 +676,20 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F12,t)</f>
+        <v>8.451791248063445E-3</v>
+      </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J12" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H12,F12,t)</f>
+        <v>0.21001234896104137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>76</v>
       </c>
@@ -657,14 +697,20 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F13,t)</f>
+        <v>1.2569613235804633E-2</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J13" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H13,F13,t)</f>
+        <v>0.20957096145645532</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F14">
         <v>77</v>
       </c>
@@ -672,14 +718,20 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F14,t)</f>
+        <v>1.8398212800229241E-2</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J14" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H14,F14,t)</f>
+        <v>0.20913529120173258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>78</v>
       </c>
@@ -687,14 +739,20 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F15,t)</f>
+        <v>2.6517310308358133E-2</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J15" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H15,F15,t)</f>
+        <v>0.20870519353355413</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F16">
         <v>79</v>
       </c>
@@ -702,14 +760,20 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F16,t)</f>
+        <v>3.7652736229766726E-2</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J16" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H16,F16,t)</f>
+        <v>0.20828052922744211</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>80</v>
       </c>
@@ -717,14 +781,20 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F17,t)</f>
+        <v>5.2696767052352822E-2</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J17" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H17,F17,t)</f>
+        <v>0.20786116422816761</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>81</v>
       </c>
@@ -732,14 +802,20 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F18,t)</f>
+        <v>7.2726594958209656E-2</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J18" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H18,F18,t)</f>
+        <v>0.20744696939560114</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>82</v>
       </c>
@@ -747,14 +823,20 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F19,t)</f>
+        <v>9.9019472852507118E-2</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J19" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H19,F19,t)</f>
+        <v>0.20703782026762049</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F20">
         <v>83</v>
       </c>
@@ -762,14 +844,20 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F20,t)</f>
+        <v>0.13306300235605129</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J20" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H20,F20,t)</f>
+        <v>0.20663359683496854</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F21">
         <v>84</v>
       </c>
@@ -777,14 +865,20 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F21,t)</f>
+        <v>0.17655906810759392</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J21" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H21,F21,t)</f>
+        <v>0.20623418333211044</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F22">
         <v>85</v>
       </c>
@@ -792,14 +886,20 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F22,t)</f>
+        <v>0.23142008133591663</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J22" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H22,F22,t)</f>
+        <v>0.20583946803790867</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F23">
         <v>86</v>
       </c>
@@ -807,14 +907,20 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F23,t)</f>
+        <v>0.2997564826258321</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J23" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H23,F23,t)</f>
+        <v>0.20544934308943413</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F24">
         <v>87</v>
       </c>
@@ -822,14 +928,20 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F24,t)</f>
+        <v>0.38385485890439863</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J24" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H24,F24,t)</f>
+        <v>0.20506370430575391</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F25">
         <v>88</v>
       </c>
@@ -837,14 +949,20 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F25,t)</f>
+        <v>0.48614653111121164</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J25" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H25,F25,t)</f>
+        <v>0.20468245102133648</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F26">
         <v>89</v>
       </c>
@@ -852,14 +970,20 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F26,t)</f>
+        <v>0.60916703344991596</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J26" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H26,F26,t)</f>
+        <v>0.20430548593030609</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F27">
         <v>90</v>
       </c>
@@ -867,14 +991,20 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F27,t)</f>
+        <v>0.75550749047170562</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J27" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H27,F27,t)</f>
+        <v>0.20393271493704457</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F28">
         <v>91</v>
       </c>
@@ -882,14 +1012,20 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F28,t)</f>
+        <v>0.92775945788765313</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J28" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H28,F28,t)</f>
+        <v>0.20356404701673117</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F29">
         <v>92</v>
       </c>
@@ -897,14 +1033,20 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F29,t)</f>
+        <v>1.1284552798969685</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J29" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H29,F29,t)</f>
+        <v>0.20319939408279358</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F30">
         <v>93</v>
       </c>
@@ -912,14 +1054,20 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F30,t)</f>
+        <v>1.360006387955174</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J30" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H30,F30,t)</f>
+        <v>0.20283867086138452</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F31">
         <v>94</v>
       </c>
@@ -927,14 +1075,20 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F31,t)</f>
+        <v>1.62464219013426</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J31" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H31,F31,t)</f>
+        <v>0.20248179477256115</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F32">
         <v>95</v>
       </c>
@@ -942,14 +1096,20 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F32,t)</f>
+        <v>1.9243522559585848</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J32" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H32,F32,t)</f>
+        <v>0.20212868581788687</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F33">
         <v>96</v>
       </c>
@@ -957,14 +1117,20 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F33,t)</f>
+        <v>2.2608343827001036</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J33" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H33,F33,t)</f>
+        <v>0.20177926647365566</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F34">
         <v>97</v>
       </c>
@@ -972,14 +1138,20 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F34,t)</f>
+        <v>2.6354508444062361</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J34" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H34,F34,t)</f>
+        <v>0.20143346158876071</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F35">
         <v>98</v>
       </c>
@@ -987,14 +1159,20 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F35,t)</f>
+        <v>3.0491946970869392</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J35" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H35,F35,t)</f>
+        <v>0.20109119829026401</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F36">
         <v>99</v>
       </c>
@@ -1002,14 +1180,20 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F36,t)</f>
+        <v>3.5026674760476624</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J36" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H36,F36,t)</f>
+        <v>0.20075240589094284</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F37">
         <v>100</v>
       </c>
@@ -1017,14 +1201,20 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F37,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J37" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H37,F37,t)</f>
+        <v>0.20041701580256077</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F38">
         <v>101</v>
       </c>
@@ -1032,14 +1222,20 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F38,t)</f>
+        <v>4.5291995002208836</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J38" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H38,F38,t)</f>
+        <v>0.20008496145309618</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F39">
         <v>102</v>
       </c>
@@ -1047,14 +1243,20 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F39,t)</f>
+        <v>5.1014732268873928</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J39" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H39,F39,t)</f>
+        <v>0.19975617820979266</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F40">
         <v>103</v>
       </c>
@@ -1062,14 +1264,20 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F40,t)</f>
+        <v>5.7119430607959316</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J40" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H40,F40,t)</f>
+        <v>0.19943060330278106</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F41">
         <v>104</v>
       </c>
@@ -1077,14 +1285,20 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F41,t)</f>
+        <v>6.359334058132589</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J41" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H41,F41,t)</f>
+        <v>0.19910817575424916</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F42">
         <v>105</v>
       </c>
@@ -1092,14 +1306,20 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F42,t)</f>
+        <v>7.0420844428201121</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J42" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H42,F42,t)</f>
+        <v>0.19878883631142852</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F43">
         <v>106</v>
       </c>
@@ -1107,14 +1327,20 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F43,t)</f>
+        <v>7.7583918958759028</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J43" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H43,F43,t)</f>
+        <v>0.19847252738148907</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F44">
         <v>107</v>
       </c>
@@ -1122,14 +1348,20 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F44,t)</f>
+        <v>8.5062630478467582</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J44" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H44,F44,t)</f>
+        <v>0.19815919297022394</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F45">
         <v>108</v>
       </c>
@@ -1137,14 +1369,20 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F45,t)</f>
+        <v>9.2835641106318576</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J45" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H45,F45,t)</f>
+        <v>0.19784877862311953</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F46">
         <v>109</v>
       </c>
@@ -1152,14 +1390,20 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F46,t)</f>
+        <v>10.088070737440773</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J46" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H46,F46,t)</f>
+        <v>0.19754123136892979</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F47">
         <v>110</v>
       </c>
@@ -1167,14 +1411,20 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F47,t)</f>
+        <v>10.917515436164138</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J47" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H47,F47,t)</f>
+        <v>0.19723649966720683</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F48">
         <v>111</v>
       </c>
@@ -1182,14 +1432,20 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F48,t)</f>
+        <v>11.7696311573022</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J48" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H48,F48,t)</f>
+        <v>0.19693453335599928</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F49">
         <v>112</v>
       </c>
@@ -1197,14 +1453,20 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F49,t)</f>
+        <v>12.64219000763228</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J49" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H49,F49,t)</f>
+        <v>0.19663528360386642</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F50">
         <v>113</v>
       </c>
@@ -1212,14 +1474,20 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F50,t)</f>
+        <v>13.533036380390683</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J50" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H50,F50,t)</f>
+        <v>0.19633870286258381</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F51">
         <v>114</v>
       </c>
@@ -1227,14 +1495,20 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F51,t)</f>
+        <v>14.44011412103788</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J51" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H51,F51,t)</f>
+        <v>0.1960447448226682</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F52">
         <v>115</v>
       </c>
@@ -1242,14 +1516,20 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F52,t)</f>
+        <v>15.361487647106756</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J52" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H52,F52,t)</f>
+        <v>0.19575336437070706</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F53">
         <v>116</v>
       </c>
@@ -1257,14 +1537,20 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F53,t)</f>
+        <v>16.29535719875858</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J53" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H53,F53,t)</f>
+        <v>0.19546451754846336</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F54">
         <v>117</v>
       </c>
@@ -1272,14 +1558,20 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F54,t)</f>
+        <v>17.240068605568112</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J54" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H54,F54,t)</f>
+        <v>0.19517816151349443</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F55">
         <v>118</v>
       </c>
@@ -1287,14 +1579,20 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F55,t)</f>
+        <v>18.194118111378401</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J55" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H55,F55,t)</f>
+        <v>0.19489425450188741</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F56">
         <v>119</v>
       </c>
@@ -1302,14 +1600,20 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F56,t)</f>
+        <v>19.156152903317306</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J56" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H56,F56,t)</f>
+        <v>0.1946127557918918</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F57">
         <v>120</v>
       </c>
@@ -1317,14 +1621,20 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F57,t)</f>
+        <v>20.12496804698003</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J57" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H57,F57,t)</f>
+        <v>0.19433362566998369</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F58">
         <v>121</v>
       </c>
@@ -1332,14 +1642,20 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F58,t)</f>
+        <v>21.099500543233205</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J58" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H58,F58,t)</f>
+        <v>0.19405682539738733</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F59">
         <v>122</v>
       </c>
@@ -1347,14 +1663,20 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F59,t)</f>
+        <v>22.078821200533753</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J59" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H59,F59,t)</f>
+        <v>0.19378231717859215</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F60">
         <v>123</v>
       </c>
@@ -1362,14 +1684,20 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F60,t)</f>
+        <v>23.062124968007112</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J60" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H60,F60,t)</f>
+        <v>0.19351006413067628</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F61">
         <v>124</v>
       </c>
@@ -1377,14 +1705,20 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F61,t)</f>
+        <v>24.04872030681635</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J61" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H61,F61,t)</f>
+        <v>0.19324003025443812</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F62">
         <v>125</v>
       </c>
@@ -1392,14 +1726,20 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F62,t)</f>
+        <v>25.038018097943663</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J62" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H62,F62,t)</f>
+        <v>0.19297218040625874</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F63">
         <v>126</v>
       </c>
@@ -1407,14 +1747,20 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F63,t)</f>
+        <v>26.029520499927315</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J63" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H63,F63,t)</f>
+        <v>0.19270648027075188</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F64">
         <v>127</v>
       </c>
@@ -1422,14 +1768,20 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F64,t)</f>
+        <v>27.022810085691404</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J64" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H64,F64,t)</f>
+        <v>0.19244289633549364</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F65">
         <v>128</v>
       </c>
@@ -1437,14 +1789,20 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F65,t)</f>
+        <v>28.017539507525299</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J65" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H65,F65,t)</f>
+        <v>0.19218139586568742</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F66">
         <v>129</v>
       </c>
@@ -1452,14 +1810,20 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F66,t)</f>
+        <v>29.013421866483313</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J66" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H66,F66,t)</f>
+        <v>0.19192194688040323</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F67">
         <v>130</v>
       </c>
@@ -1467,12 +1831,18 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F67,t)</f>
+        <v>30.010221898820959</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H67,F67,t)</f>
+        <v>0.19166451812980059</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chunlin\source\repos\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DCC615-5A83-486D-88A6-F4A0B25A833F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -176,6 +174,1238 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81782633420822393"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>8.9763951445043927E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4575439098829177E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3228003245620993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6352252638087446E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.590231529384676E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.451791248063445E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2569613235804633E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8398212800229241E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6517310308358133E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7652736229766726E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2696767052352822E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.2726594958209656E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9019472852507118E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13306300235605129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17655906810759392</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23142008133591663</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2997564826258321</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38385485890439863</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48614653111121164</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.60916703344991596</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.75550749047170562</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.92775945788765313</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1284552798969685</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.360006387955174</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.62464219013426</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9243522559585848</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2608343827001036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6354508444062361</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0491946970869392</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5026674760476624</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9960690164368557</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.5291995002208836</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.1014732268873928</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.7119430607959316</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.359334058132589</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.0420844428201121</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.7583918958759028</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.5062630478467582</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.2835641106318576</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.088070737440773</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.917515436164138</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.7696311573022</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.64219000763228</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.533036380390683</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.44011412103788</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.361487647106756</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.29535719875858</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.240068605568112</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.194118111378401</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.156152903317306</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20.12496804698003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.099500543233205</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22.078821200533753</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23.062124968007112</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24.04872030681635</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25.038018097943663</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26.029520499927315</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27.022810085691404</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28.017539507525299</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.013421866483313</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.010221898820959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$7:$J$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0.21231052715334578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21183817179416867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21137234937840421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21091288331598537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21045960410593448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21001234896104137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20957096145645532</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20913529120173258</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20870519353355413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20828052922744211</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20786116422816761</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20744696939560114</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20703782026762049</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20663359683496854</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20623418333211044</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20583946803790867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20544934308943413</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20506370430575391</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20468245102133648</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20430548593030609</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20393271493704457</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20356404701673117</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.20319939408279358</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20283867086138452</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20248179477256115</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20212868581788687</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.20177926647365566</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.20143346158876071</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.20109119829026401</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.20075240589094284</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20041701580256077</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.20008496145309618</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.19975617820979266</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.19943060330278106</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19910817575424916</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.19878883631142852</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.19847252738148907</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.19815919297022394</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19784877862311953</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.19754123136892979</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.19723649966720683</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.19693453335599928</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.19663528360386642</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.19633870286258381</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1960447448226682</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.19575336437070706</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.19546451754846336</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.19517816151349443</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.19489425450188741</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1946127557918918</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.19433362566998369</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.19405682539738733</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.19378231717859215</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.19351006413067628</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19324003025443812</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.19297218040625874</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.19270648027075188</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.19244289633549364</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.19218139586568742</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.19192194688040323</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.19166451812980059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A253-4CE4-9702-8B4729206C99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1893289328"/>
+        <c:axId val="1900888864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1893289328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1900888864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1900888864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1893289328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>369093</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>407193</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>159544</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDB0137-60F3-42FD-B71C-375D8D367EA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,7 +1707,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -559,12 +1791,18 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" cm="1">
-        <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J7" s="2"/>
+      <c r="H7">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F7, t)</f>
+        <v>8.9763951445043927E-4</v>
+      </c>
+      <c r="I7">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J7">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H7, F7, t)</f>
+        <v>0.21231052715334578</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
@@ -574,7 +1812,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,k,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -582,12 +1823,18 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F8, t)</f>
+        <v>1.4575439098829177E-3</v>
+      </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H8, F8, t)</f>
+        <v>0.21183817179416867</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F9">
@@ -597,12 +1844,18 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F9, t)</f>
+        <v>2.3228003245620993E-3</v>
+      </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H9, F9, t)</f>
+        <v>0.21137234937840421</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F10">
@@ -612,12 +1865,18 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F10, t)</f>
+        <v>3.6352252638087446E-3</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H10, F10, t)</f>
+        <v>0.21091288331598537</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F11">
@@ -627,12 +1886,18 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F11, t)</f>
+        <v>5.590231529384676E-3</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H11, F11, t)</f>
+        <v>0.21045960410593448</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F12">
@@ -642,12 +1907,18 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F12, t)</f>
+        <v>8.451791248063445E-3</v>
+      </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H12, F12, t)</f>
+        <v>0.21001234896104137</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F13">
@@ -657,12 +1928,18 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F13, t)</f>
+        <v>1.2569613235804633E-2</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H13, F13, t)</f>
+        <v>0.20957096145645532</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F14">
@@ -672,12 +1949,18 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F14, t)</f>
+        <v>1.8398212800229241E-2</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H14, F14, t)</f>
+        <v>0.20913529120173258</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F15">
@@ -687,12 +1970,18 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F15, t)</f>
+        <v>2.6517310308358133E-2</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H15, F15, t)</f>
+        <v>0.20870519353355413</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F16">
@@ -702,12 +1991,18 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F16, t)</f>
+        <v>3.7652736229766726E-2</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H16, F16, t)</f>
+        <v>0.20828052922744211</v>
+      </c>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F17">
@@ -717,12 +2012,18 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F17, t)</f>
+        <v>5.2696767052352822E-2</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H17, F17, t)</f>
+        <v>0.20786116422816761</v>
+      </c>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F18">
@@ -732,12 +2033,18 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F18, t)</f>
+        <v>7.2726594958209656E-2</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H18, F18, t)</f>
+        <v>0.20744696939560114</v>
+      </c>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F19">
@@ -747,12 +2054,18 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F19, t)</f>
+        <v>9.9019472852507118E-2</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H19, F19, t)</f>
+        <v>0.20703782026762049</v>
+      </c>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F20">
@@ -762,12 +2075,18 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F20, t)</f>
+        <v>0.13306300235605129</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H20, F20, t)</f>
+        <v>0.20663359683496854</v>
+      </c>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F21">
@@ -777,12 +2096,18 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F21, t)</f>
+        <v>0.17655906810759392</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H21, F21, t)</f>
+        <v>0.20623418333211044</v>
+      </c>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F22">
@@ -792,12 +2117,18 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F22, t)</f>
+        <v>0.23142008133591663</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H22, F22, t)</f>
+        <v>0.20583946803790867</v>
+      </c>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F23">
@@ -807,12 +2138,18 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F23, t)</f>
+        <v>0.2997564826258321</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H23, F23, t)</f>
+        <v>0.20544934308943413</v>
+      </c>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F24">
@@ -822,12 +2159,18 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F24, t)</f>
+        <v>0.38385485890439863</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H24, F24, t)</f>
+        <v>0.20506370430575391</v>
+      </c>
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F25">
@@ -837,12 +2180,18 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F25, t)</f>
+        <v>0.48614653111121164</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H25, F25, t)</f>
+        <v>0.20468245102133648</v>
+      </c>
     </row>
     <row r="26" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F26">
@@ -852,12 +2201,18 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F26, t)</f>
+        <v>0.60916703344991596</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H26, F26, t)</f>
+        <v>0.20430548593030609</v>
+      </c>
     </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F27">
@@ -867,12 +2222,18 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F27, t)</f>
+        <v>0.75550749047170562</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H27, F27, t)</f>
+        <v>0.20393271493704457</v>
+      </c>
     </row>
     <row r="28" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F28">
@@ -882,12 +2243,18 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F28, t)</f>
+        <v>0.92775945788765313</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H28, F28, t)</f>
+        <v>0.20356404701673117</v>
+      </c>
     </row>
     <row r="29" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F29">
@@ -897,12 +2264,18 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F29, t)</f>
+        <v>1.1284552798969685</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H29, F29, t)</f>
+        <v>0.20319939408279358</v>
+      </c>
     </row>
     <row r="30" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F30">
@@ -912,12 +2285,18 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F30, t)</f>
+        <v>1.360006387955174</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H30, F30, t)</f>
+        <v>0.20283867086138452</v>
+      </c>
     </row>
     <row r="31" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F31">
@@ -927,12 +2306,18 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F31, t)</f>
+        <v>1.62464219013426</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H31, F31, t)</f>
+        <v>0.20248179477256115</v>
+      </c>
     </row>
     <row r="32" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F32">
@@ -942,12 +2327,18 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F32, t)</f>
+        <v>1.9243522559585848</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H32, F32, t)</f>
+        <v>0.20212868581788687</v>
+      </c>
     </row>
     <row r="33" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F33">
@@ -957,12 +2348,18 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F33, t)</f>
+        <v>2.2608343827001036</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
+      <c r="J33">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H33, F33, t)</f>
+        <v>0.20177926647365566</v>
+      </c>
     </row>
     <row r="34" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F34">
@@ -972,12 +2369,18 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F34, t)</f>
+        <v>2.6354508444062361</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
+      <c r="J34">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H34, F34, t)</f>
+        <v>0.20143346158876071</v>
+      </c>
     </row>
     <row r="35" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F35">
@@ -987,12 +2390,18 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F35, t)</f>
+        <v>3.0491946970869392</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="J35">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H35, F35, t)</f>
+        <v>0.20109119829026401</v>
+      </c>
     </row>
     <row r="36" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F36">
@@ -1002,12 +2411,18 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F36, t)</f>
+        <v>3.5026674760476624</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
+      <c r="J36">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H36, F36, t)</f>
+        <v>0.20075240589094284</v>
+      </c>
     </row>
     <row r="37" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F37">
@@ -1017,12 +2432,18 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F37, t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
+      <c r="J37">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H37, F37, t)</f>
+        <v>0.20041701580256077</v>
+      </c>
     </row>
     <row r="38" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F38">
@@ -1032,12 +2453,18 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F38, t)</f>
+        <v>4.5291995002208836</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
+      <c r="J38">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H38, F38, t)</f>
+        <v>0.20008496145309618</v>
+      </c>
     </row>
     <row r="39" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F39">
@@ -1047,12 +2474,18 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F39, t)</f>
+        <v>5.1014732268873928</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
+      <c r="J39">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H39, F39, t)</f>
+        <v>0.19975617820979266</v>
+      </c>
     </row>
     <row r="40" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F40">
@@ -1062,12 +2495,18 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F40, t)</f>
+        <v>5.7119430607959316</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
+      <c r="J40">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H40, F40, t)</f>
+        <v>0.19943060330278106</v>
+      </c>
     </row>
     <row r="41" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F41">
@@ -1077,12 +2516,18 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F41, t)</f>
+        <v>6.359334058132589</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
+      <c r="J41">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H41, F41, t)</f>
+        <v>0.19910817575424916</v>
+      </c>
     </row>
     <row r="42" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F42">
@@ -1092,12 +2537,18 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F42, t)</f>
+        <v>7.0420844428201121</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
+      <c r="J42">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H42, F42, t)</f>
+        <v>0.19878883631142852</v>
+      </c>
     </row>
     <row r="43" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F43">
@@ -1107,12 +2558,18 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F43, t)</f>
+        <v>7.7583918958759028</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
+      <c r="J43">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H43, F43, t)</f>
+        <v>0.19847252738148907</v>
+      </c>
     </row>
     <row r="44" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F44">
@@ -1122,12 +2579,18 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F44, t)</f>
+        <v>8.5062630478467582</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
+      <c r="J44">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H44, F44, t)</f>
+        <v>0.19815919297022394</v>
+      </c>
     </row>
     <row r="45" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F45">
@@ -1137,12 +2600,18 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F45, t)</f>
+        <v>9.2835641106318576</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
+      <c r="J45">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H45, F45, t)</f>
+        <v>0.19784877862311953</v>
+      </c>
     </row>
     <row r="46" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F46">
@@ -1152,12 +2621,18 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F46, t)</f>
+        <v>10.088070737440773</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
+      <c r="J46">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H46, F46, t)</f>
+        <v>0.19754123136892979</v>
+      </c>
     </row>
     <row r="47" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F47">
@@ -1167,12 +2642,18 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F47, t)</f>
+        <v>10.917515436164138</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
+      <c r="J47">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H47, F47, t)</f>
+        <v>0.19723649966720683</v>
+      </c>
     </row>
     <row r="48" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F48">
@@ -1182,12 +2663,18 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F48, t)</f>
+        <v>11.7696311573022</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
+      <c r="J48">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H48, F48, t)</f>
+        <v>0.19693453335599928</v>
+      </c>
     </row>
     <row r="49" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F49">
@@ -1197,12 +2684,18 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F49, t)</f>
+        <v>12.64219000763228</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
+      <c r="J49">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H49, F49, t)</f>
+        <v>0.19663528360386642</v>
+      </c>
     </row>
     <row r="50" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F50">
@@ -1212,12 +2705,18 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F50, t)</f>
+        <v>13.533036380390683</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
+      <c r="J50">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H50, F50, t)</f>
+        <v>0.19633870286258381</v>
+      </c>
     </row>
     <row r="51" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F51">
@@ -1227,12 +2726,18 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F51, t)</f>
+        <v>14.44011412103788</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
+      <c r="J51">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H51, F51, t)</f>
+        <v>0.1960447448226682</v>
+      </c>
     </row>
     <row r="52" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F52">
@@ -1242,12 +2747,18 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F52, t)</f>
+        <v>15.361487647106756</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
+      <c r="J52">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H52, F52, t)</f>
+        <v>0.19575336437070706</v>
+      </c>
     </row>
     <row r="53" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F53">
@@ -1257,12 +2768,18 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F53, t)</f>
+        <v>16.29535719875858</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
+      <c r="J53">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H53, F53, t)</f>
+        <v>0.19546451754846336</v>
+      </c>
     </row>
     <row r="54" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F54">
@@ -1272,12 +2789,18 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F54, t)</f>
+        <v>17.240068605568112</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
+      <c r="J54">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H54, F54, t)</f>
+        <v>0.19517816151349443</v>
+      </c>
     </row>
     <row r="55" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F55">
@@ -1287,12 +2810,18 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F55, t)</f>
+        <v>18.194118111378401</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
+      <c r="J55">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H55, F55, t)</f>
+        <v>0.19489425450188741</v>
+      </c>
     </row>
     <row r="56" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F56">
@@ -1302,12 +2831,18 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F56, t)</f>
+        <v>19.156152903317306</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
+      <c r="J56">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H56, F56, t)</f>
+        <v>0.1946127557918918</v>
+      </c>
     </row>
     <row r="57" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F57">
@@ -1317,12 +2852,18 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F57, t)</f>
+        <v>20.12496804698003</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
+      <c r="J57">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H57, F57, t)</f>
+        <v>0.19433362566998369</v>
+      </c>
     </row>
     <row r="58" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F58">
@@ -1332,12 +2873,18 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F58, t)</f>
+        <v>21.099500543233205</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
+      <c r="J58">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H58, F58, t)</f>
+        <v>0.19405682539738733</v>
+      </c>
     </row>
     <row r="59" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F59">
@@ -1347,12 +2894,18 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F59, t)</f>
+        <v>22.078821200533753</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
+      <c r="J59">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H59, F59, t)</f>
+        <v>0.19378231717859215</v>
+      </c>
     </row>
     <row r="60" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F60">
@@ -1362,12 +2915,18 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F60, t)</f>
+        <v>23.062124968007112</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
+      <c r="J60">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H60, F60, t)</f>
+        <v>0.19351006413067628</v>
+      </c>
     </row>
     <row r="61" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F61">
@@ -1377,12 +2936,18 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F61, t)</f>
+        <v>24.04872030681635</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
+      <c r="J61">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H61, F61, t)</f>
+        <v>0.19324003025443812</v>
+      </c>
     </row>
     <row r="62" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F62">
@@ -1392,12 +2957,18 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F62, t)</f>
+        <v>25.038018097943663</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
+      <c r="J62">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H62, F62, t)</f>
+        <v>0.19297218040625874</v>
+      </c>
     </row>
     <row r="63" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F63">
@@ -1407,12 +2978,18 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F63, t)</f>
+        <v>26.029520499927315</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
+      <c r="J63">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H63, F63, t)</f>
+        <v>0.19270648027075188</v>
+      </c>
     </row>
     <row r="64" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F64">
@@ -1422,12 +2999,18 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F64, t)</f>
+        <v>27.022810085691404</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
+      <c r="J64">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H64, F64, t)</f>
+        <v>0.19244289633549364</v>
+      </c>
     </row>
     <row r="65" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F65">
@@ -1437,12 +3020,18 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F65, t)</f>
+        <v>28.017539507525299</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
+      <c r="J65">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H65, F65, t)</f>
+        <v>0.19218139586568742</v>
+      </c>
     </row>
     <row r="66" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F66">
@@ -1452,12 +3041,18 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F66, t)</f>
+        <v>29.013421866483313</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
+      <c r="J66">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H66, F66, t)</f>
+        <v>0.19192194688040323</v>
+      </c>
     </row>
     <row r="67" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F67">
@@ -1467,14 +3062,21 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67">
+        <f>_xll.XLL.GAMMA.PUT(f, sigma, F67, t)</f>
+        <v>30.010221898820959</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H67, F67, t)</f>
+        <v>0.19166451812980059</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FinalExam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9FB030-D089-4E3E-8ED7-71B9CEF8CD42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -94,19 +92,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -477,14 +482,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +508,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,7 +516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
@@ -545,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -559,14 +567,20 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" cm="1">
-        <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="H7" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F7,t)</f>
+        <v>8.9763951445043927E-4</v>
+      </c>
+      <c r="I7">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H7, F7, t)</f>
+        <v>0.21231052715334578</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +588,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,k,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -582,14 +599,20 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" cm="1">
-        <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="H8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F8,t)</f>
+        <v>1.4575439098829177E-3</v>
+      </c>
+      <c r="I8">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H8, F8, t)</f>
+        <v>0.21183817179416867</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F9">
         <v>72</v>
       </c>
@@ -597,14 +620,20 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" cm="1">
-        <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="H9" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F9,t)</f>
+        <v>2.3228003245620993E-3</v>
+      </c>
+      <c r="I9">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H9, F9, t)</f>
+        <v>0.21137234937840421</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F10">
         <v>73</v>
       </c>
@@ -612,14 +641,20 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F10,t)</f>
+        <v>3.6352252638087446E-3</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J10" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H10, F10, t)</f>
+        <v>0.21091288331598537</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F11">
         <v>74</v>
       </c>
@@ -627,14 +662,20 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F11,t)</f>
+        <v>5.590231529384676E-3</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J11" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H11, F11, t)</f>
+        <v>0.21045960410593448</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F12">
         <v>75</v>
       </c>
@@ -642,14 +683,20 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" cm="1">
-        <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="H12" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F12,t)</f>
+        <v>8.451791248063445E-3</v>
+      </c>
+      <c r="I12">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H12, F12, t)</f>
+        <v>0.21001234896104137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F13">
         <v>76</v>
       </c>
@@ -657,14 +704,20 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F13,t)</f>
+        <v>1.2569613235804633E-2</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J13" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H13, F13, t)</f>
+        <v>0.20957096145645532</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F14">
         <v>77</v>
       </c>
@@ -672,14 +725,20 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F14,t)</f>
+        <v>1.8398212800229241E-2</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J14" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H14, F14, t)</f>
+        <v>0.20913529120173258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F15">
         <v>78</v>
       </c>
@@ -687,14 +746,20 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F15,t)</f>
+        <v>2.6517310308358133E-2</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J15" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H15, F15, t)</f>
+        <v>0.20870519353355413</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="F16">
         <v>79</v>
       </c>
@@ -702,14 +767,20 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F16,t)</f>
+        <v>3.7652736229766726E-2</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J16" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H16, F16, t)</f>
+        <v>0.20828052922744211</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F17">
         <v>80</v>
       </c>
@@ -717,14 +788,20 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F17,t)</f>
+        <v>5.2696767052352822E-2</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J17" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H17, F17, t)</f>
+        <v>0.20786116422816761</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F18">
         <v>81</v>
       </c>
@@ -732,14 +809,20 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F18,t)</f>
+        <v>7.2726594958209656E-2</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J18" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H18, F18, t)</f>
+        <v>0.20744696939560114</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F19">
         <v>82</v>
       </c>
@@ -747,14 +830,20 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F19,t)</f>
+        <v>9.9019472852507118E-2</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J19" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H19, F19, t)</f>
+        <v>0.20703782026762049</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F20">
         <v>83</v>
       </c>
@@ -762,14 +851,20 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F20,t)</f>
+        <v>0.13306300235605129</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J20" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H20, F20, t)</f>
+        <v>0.20663359683496854</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F21">
         <v>84</v>
       </c>
@@ -777,14 +872,20 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F21,t)</f>
+        <v>0.17655906810759392</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J21" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H21, F21, t)</f>
+        <v>0.20623418333211044</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F22">
         <v>85</v>
       </c>
@@ -792,14 +893,20 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F22,t)</f>
+        <v>0.23142008133591663</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J22" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H22, F22, t)</f>
+        <v>0.20583946803790867</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F23">
         <v>86</v>
       </c>
@@ -807,14 +914,20 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F23,t)</f>
+        <v>0.2997564826258321</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J23" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H23, F23, t)</f>
+        <v>0.20544934308943413</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F24">
         <v>87</v>
       </c>
@@ -822,14 +935,20 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F24,t)</f>
+        <v>0.38385485890439863</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J24" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H24, F24, t)</f>
+        <v>0.20506370430575391</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F25">
         <v>88</v>
       </c>
@@ -837,14 +956,20 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F25,t)</f>
+        <v>0.48614653111121164</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J25" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H25, F25, t)</f>
+        <v>0.20468245102133648</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F26">
         <v>89</v>
       </c>
@@ -852,14 +977,20 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F26,t)</f>
+        <v>0.60916703344991596</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J26" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H26, F26, t)</f>
+        <v>0.20430548593030609</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F27">
         <v>90</v>
       </c>
@@ -867,14 +998,20 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F27,t)</f>
+        <v>0.75550749047170562</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J27" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H27, F27, t)</f>
+        <v>0.20393271493704457</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F28">
         <v>91</v>
       </c>
@@ -882,14 +1019,20 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F28,t)</f>
+        <v>0.92775945788765313</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J28" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H28, F28, t)</f>
+        <v>0.20356404701673117</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F29">
         <v>92</v>
       </c>
@@ -897,14 +1040,20 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F29,t)</f>
+        <v>1.1284552798969685</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J29" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H29, F29, t)</f>
+        <v>0.20319939408279358</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F30">
         <v>93</v>
       </c>
@@ -912,14 +1061,20 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F30,t)</f>
+        <v>1.360006387955174</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J30" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H30, F30, t)</f>
+        <v>0.20283867086138452</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F31">
         <v>94</v>
       </c>
@@ -927,14 +1082,20 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F31,t)</f>
+        <v>1.62464219013426</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J31" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H31, F31, t)</f>
+        <v>0.20248179477256115</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F32">
         <v>95</v>
       </c>
@@ -942,14 +1103,20 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F32,t)</f>
+        <v>1.9243522559585848</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J32" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H32, F32, t)</f>
+        <v>0.20212868581788687</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F33">
         <v>96</v>
       </c>
@@ -957,14 +1124,20 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F33,t)</f>
+        <v>2.2608343827001036</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J33" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H33, F33, t)</f>
+        <v>0.20177926647365566</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F34">
         <v>97</v>
       </c>
@@ -972,14 +1145,20 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F34,t)</f>
+        <v>2.6354508444062361</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J34" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H34, F34, t)</f>
+        <v>0.20143346158876071</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F35">
         <v>98</v>
       </c>
@@ -987,14 +1166,20 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F35,t)</f>
+        <v>3.0491946970869392</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J35" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H35, F35, t)</f>
+        <v>0.20109119829026401</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F36">
         <v>99</v>
       </c>
@@ -1002,14 +1187,20 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F36,t)</f>
+        <v>3.5026674760476624</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J36" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H36, F36, t)</f>
+        <v>0.20075240589094284</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F37">
         <v>100</v>
       </c>
@@ -1017,14 +1208,20 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F37,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J37" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H37, F37, t)</f>
+        <v>0.20041701580256077</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F38">
         <v>101</v>
       </c>
@@ -1032,14 +1229,20 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F38,t)</f>
+        <v>4.5291995002208836</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J38" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H38, F38, t)</f>
+        <v>0.20008496145309618</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F39">
         <v>102</v>
       </c>
@@ -1047,14 +1250,20 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F39,t)</f>
+        <v>5.1014732268873928</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J39" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H39, F39, t)</f>
+        <v>0.19975617820979266</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F40">
         <v>103</v>
       </c>
@@ -1062,14 +1271,20 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F40,t)</f>
+        <v>5.7119430607959316</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J40" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H40, F40, t)</f>
+        <v>0.19943060330278106</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F41">
         <v>104</v>
       </c>
@@ -1077,14 +1292,20 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F41,t)</f>
+        <v>6.359334058132589</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J41" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H41, F41, t)</f>
+        <v>0.19910817575424916</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F42">
         <v>105</v>
       </c>
@@ -1092,14 +1313,20 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F42,t)</f>
+        <v>7.0420844428201121</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J42" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H42, F42, t)</f>
+        <v>0.19878883631142852</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F43">
         <v>106</v>
       </c>
@@ -1107,14 +1334,20 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F43,t)</f>
+        <v>7.7583918958759028</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J43" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H43, F43, t)</f>
+        <v>0.19847252738148907</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F44">
         <v>107</v>
       </c>
@@ -1122,14 +1355,20 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F44,t)</f>
+        <v>8.5062630478467582</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J44" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H44, F44, t)</f>
+        <v>0.19815919297022394</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F45">
         <v>108</v>
       </c>
@@ -1137,14 +1376,20 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F45,t)</f>
+        <v>9.2835641106318576</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J45" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H45, F45, t)</f>
+        <v>0.19784877862311953</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F46">
         <v>109</v>
       </c>
@@ -1152,14 +1397,20 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F46,t)</f>
+        <v>10.088070737440773</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J46" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H46, F46, t)</f>
+        <v>0.19754123136892979</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F47">
         <v>110</v>
       </c>
@@ -1167,14 +1418,20 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F47,t)</f>
+        <v>10.917515436164138</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J47" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H47, F47, t)</f>
+        <v>0.19723649966720683</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F48">
         <v>111</v>
       </c>
@@ -1182,14 +1439,20 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F48,t)</f>
+        <v>11.7696311573022</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J48" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H48, F48, t)</f>
+        <v>0.19693453335599928</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F49">
         <v>112</v>
       </c>
@@ -1197,14 +1460,20 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F49,t)</f>
+        <v>12.64219000763228</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J49" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H49, F49, t)</f>
+        <v>0.19663528360386642</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F50">
         <v>113</v>
       </c>
@@ -1212,14 +1481,20 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F50,t)</f>
+        <v>13.533036380390683</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J50" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H50, F50, t)</f>
+        <v>0.19633870286258381</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F51">
         <v>114</v>
       </c>
@@ -1227,14 +1502,20 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F51,t)</f>
+        <v>14.44011412103788</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J51" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H51, F51, t)</f>
+        <v>0.1960447448226682</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F52">
         <v>115</v>
       </c>
@@ -1242,14 +1523,20 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F52,t)</f>
+        <v>15.361487647106756</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J52" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H52, F52, t)</f>
+        <v>0.19575336437070706</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F53">
         <v>116</v>
       </c>
@@ -1257,14 +1544,20 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F53,t)</f>
+        <v>16.29535719875858</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J53" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H53, F53, t)</f>
+        <v>0.19546451754846336</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F54">
         <v>117</v>
       </c>
@@ -1272,14 +1565,20 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F54,t)</f>
+        <v>17.240068605568112</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J54" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H54, F54, t)</f>
+        <v>0.19517816151349443</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F55">
         <v>118</v>
       </c>
@@ -1287,14 +1586,20 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F55,t)</f>
+        <v>18.194118111378401</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J55" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H55, F55, t)</f>
+        <v>0.19489425450188741</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F56">
         <v>119</v>
       </c>
@@ -1302,14 +1607,20 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F56,t)</f>
+        <v>19.156152903317306</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J56" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H56, F56, t)</f>
+        <v>0.1946127557918918</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F57">
         <v>120</v>
       </c>
@@ -1317,14 +1628,20 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F57,t)</f>
+        <v>20.12496804698003</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J57" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H57, F57, t)</f>
+        <v>0.19433362566998369</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F58">
         <v>121</v>
       </c>
@@ -1332,14 +1649,20 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F58,t)</f>
+        <v>21.099500543233205</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J58" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H58, F58, t)</f>
+        <v>0.19405682539738733</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F59">
         <v>122</v>
       </c>
@@ -1347,14 +1670,20 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F59,t)</f>
+        <v>22.078821200533753</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J59" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H59, F59, t)</f>
+        <v>0.19378231717859215</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F60">
         <v>123</v>
       </c>
@@ -1362,14 +1691,20 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F60,t)</f>
+        <v>23.062124968007112</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J60" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H60, F60, t)</f>
+        <v>0.19351006413067628</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F61">
         <v>124</v>
       </c>
@@ -1377,14 +1712,20 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F61,t)</f>
+        <v>24.04872030681635</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J61" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H61, F61, t)</f>
+        <v>0.19324003025443812</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F62">
         <v>125</v>
       </c>
@@ -1392,14 +1733,20 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F62,t)</f>
+        <v>25.038018097943663</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J62" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H62, F62, t)</f>
+        <v>0.19297218040625874</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F63">
         <v>126</v>
       </c>
@@ -1407,14 +1754,20 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F63,t)</f>
+        <v>26.029520499927315</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J63" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H63, F63, t)</f>
+        <v>0.19270648027075188</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F64">
         <v>127</v>
       </c>
@@ -1422,14 +1775,20 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F64,t)</f>
+        <v>27.022810085691404</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J64" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H64, F64, t)</f>
+        <v>0.19244289633549364</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F65">
         <v>128</v>
       </c>
@@ -1437,14 +1796,20 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F65,t)</f>
+        <v>28.017539507525299</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J65" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H65, F65, t)</f>
+        <v>0.19218139586568742</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F66">
         <v>129</v>
       </c>
@@ -1452,14 +1817,20 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F66,t)</f>
+        <v>29.013421866483313</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J66" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H66, F66, t)</f>
+        <v>0.19192194688040323</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F67">
         <v>130</v>
       </c>
@@ -1467,14 +1838,21 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F67,t)</f>
+        <v>30.010221898820959</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H67, F67, t)</f>
+        <v>0.19166451812980059</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyi Zhang\Documents\GitHub\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B6E2FA-2B4D-427C-BA34-EFDAF1B5F7D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="t">Sheet1!$C$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +38,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -477,7 +476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -559,12 +560,18 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F7,t)</f>
+        <v>8.9763951445043927E-4</v>
+      </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H7,F7,t)</f>
+        <v>0.21231052715334578</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
@@ -574,7 +581,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,k,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -582,12 +592,18 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F8,t)</f>
+        <v>1.4575439098829177E-3</v>
+      </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H8,F8,t)</f>
+        <v>0.21183817179416867</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F9">
@@ -597,12 +613,18 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F9,t)</f>
+        <v>2.3228003245620993E-3</v>
+      </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H9,F9,t)</f>
+        <v>0.21137234937840421</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F10">
@@ -612,12 +634,18 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F10,t)</f>
+        <v>3.6352252638087446E-3</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H10,F10,t)</f>
+        <v>0.21091288331598537</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F11">
@@ -627,12 +655,18 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F11,t)</f>
+        <v>5.590231529384676E-3</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H11,F11,t)</f>
+        <v>0.21045960410593448</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F12">
@@ -642,12 +676,18 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F12,t)</f>
+        <v>8.451791248063445E-3</v>
+      </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H12,F12,t)</f>
+        <v>0.21001234896104137</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F13">
@@ -657,12 +697,18 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F13,t)</f>
+        <v>1.2569613235804633E-2</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H13,F13,t)</f>
+        <v>0.20957096145645532</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F14">
@@ -672,12 +718,18 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F14,t)</f>
+        <v>1.8398212800229241E-2</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H14,F14,t)</f>
+        <v>0.20913529120173258</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F15">
@@ -687,12 +739,18 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F15,t)</f>
+        <v>2.6517310308358133E-2</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H15,F15,t)</f>
+        <v>0.20870519353355413</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F16">
@@ -702,12 +760,18 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F16,t)</f>
+        <v>3.7652736229766726E-2</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H16,F16,t)</f>
+        <v>0.20828052922744211</v>
+      </c>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F17">
@@ -717,12 +781,18 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F17,t)</f>
+        <v>5.2696767052352822E-2</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H17,F17,t)</f>
+        <v>0.20786116422816761</v>
+      </c>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F18">
@@ -732,12 +802,18 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F18,t)</f>
+        <v>7.2726594958209656E-2</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H18,F18,t)</f>
+        <v>0.20744696939560114</v>
+      </c>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F19">
@@ -747,12 +823,18 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F19,t)</f>
+        <v>9.9019472852507118E-2</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H19,F19,t)</f>
+        <v>0.20703782026762049</v>
+      </c>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F20">
@@ -762,12 +844,18 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F20,t)</f>
+        <v>0.13306300235605129</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H20,F20,t)</f>
+        <v>0.20663359683496854</v>
+      </c>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F21">
@@ -777,12 +865,18 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F21,t)</f>
+        <v>0.17655906810759392</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H21,F21,t)</f>
+        <v>0.20623418333211044</v>
+      </c>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F22">
@@ -792,12 +886,18 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F22,t)</f>
+        <v>0.23142008133591663</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H22,F22,t)</f>
+        <v>0.20583946803790867</v>
+      </c>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F23">
@@ -807,12 +907,18 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F23,t)</f>
+        <v>0.2997564826258321</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H23,F23,t)</f>
+        <v>0.20544934308943413</v>
+      </c>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F24">
@@ -822,12 +928,18 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F24,t)</f>
+        <v>0.38385485890439863</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H24,F24,t)</f>
+        <v>0.20506370430575391</v>
+      </c>
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F25">
@@ -837,12 +949,18 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F25,t)</f>
+        <v>0.48614653111121164</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H25,F25,t)</f>
+        <v>0.20468245102133648</v>
+      </c>
     </row>
     <row r="26" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F26">
@@ -852,12 +970,18 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F26,t)</f>
+        <v>0.60916703344991596</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H26,F26,t)</f>
+        <v>0.20430548593030609</v>
+      </c>
     </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F27">
@@ -867,12 +991,18 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F27,t)</f>
+        <v>0.75550749047170562</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H27,F27,t)</f>
+        <v>0.20393271493704457</v>
+      </c>
     </row>
     <row r="28" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F28">
@@ -882,12 +1012,18 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F28,t)</f>
+        <v>0.92775945788765313</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H28,F28,t)</f>
+        <v>0.20356404701673117</v>
+      </c>
     </row>
     <row r="29" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F29">
@@ -897,12 +1033,18 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F29,t)</f>
+        <v>1.1284552798969685</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H29,F29,t)</f>
+        <v>0.20319939408279358</v>
+      </c>
     </row>
     <row r="30" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F30">
@@ -912,12 +1054,18 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F30,t)</f>
+        <v>1.360006387955174</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H30,F30,t)</f>
+        <v>0.20283867086138452</v>
+      </c>
     </row>
     <row r="31" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F31">
@@ -927,12 +1075,18 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F31,t)</f>
+        <v>1.62464219013426</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H31,F31,t)</f>
+        <v>0.20248179477256115</v>
+      </c>
     </row>
     <row r="32" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F32">
@@ -942,12 +1096,18 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F32,t)</f>
+        <v>1.9243522559585848</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H32,F32,t)</f>
+        <v>0.20212868581788687</v>
+      </c>
     </row>
     <row r="33" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F33">
@@ -957,12 +1117,18 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F33,t)</f>
+        <v>2.2608343827001036</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H33,F33,t)</f>
+        <v>0.20177926647365566</v>
+      </c>
     </row>
     <row r="34" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F34">
@@ -972,12 +1138,18 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F34,t)</f>
+        <v>2.6354508444062361</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
+      <c r="J34" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H34,F34,t)</f>
+        <v>0.20143346158876071</v>
+      </c>
     </row>
     <row r="35" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F35">
@@ -987,12 +1159,18 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F35,t)</f>
+        <v>3.0491946970869392</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="J35" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H35,F35,t)</f>
+        <v>0.20109119829026401</v>
+      </c>
     </row>
     <row r="36" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F36">
@@ -1002,12 +1180,18 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F36,t)</f>
+        <v>3.5026674760476624</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
+      <c r="J36" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H36,F36,t)</f>
+        <v>0.20075240589094284</v>
+      </c>
     </row>
     <row r="37" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F37">
@@ -1017,12 +1201,18 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F37,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H37,F37,t)</f>
+        <v>0.20041701580256077</v>
+      </c>
     </row>
     <row r="38" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F38">
@@ -1032,12 +1222,18 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F38,t)</f>
+        <v>4.5291995002208836</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
+      <c r="J38" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H38,F38,t)</f>
+        <v>0.20008496145309618</v>
+      </c>
     </row>
     <row r="39" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F39">
@@ -1047,12 +1243,18 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F39,t)</f>
+        <v>5.1014732268873928</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
+      <c r="J39" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H39,F39,t)</f>
+        <v>0.19975617820979266</v>
+      </c>
     </row>
     <row r="40" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F40">
@@ -1062,12 +1264,18 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F40,t)</f>
+        <v>5.7119430607959316</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
+      <c r="J40" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H40,F40,t)</f>
+        <v>0.19943060330278106</v>
+      </c>
     </row>
     <row r="41" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F41">
@@ -1077,12 +1285,18 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F41,t)</f>
+        <v>6.359334058132589</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
+      <c r="J41" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H41,F41,t)</f>
+        <v>0.19910817575424916</v>
+      </c>
     </row>
     <row r="42" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F42">
@@ -1092,12 +1306,18 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F42,t)</f>
+        <v>7.0420844428201121</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
+      <c r="J42" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H42,F42,t)</f>
+        <v>0.19878883631142852</v>
+      </c>
     </row>
     <row r="43" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F43">
@@ -1107,12 +1327,18 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F43,t)</f>
+        <v>7.7583918958759028</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
+      <c r="J43" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H43,F43,t)</f>
+        <v>0.19847252738148907</v>
+      </c>
     </row>
     <row r="44" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F44">
@@ -1122,12 +1348,18 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F44,t)</f>
+        <v>8.5062630478467582</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
+      <c r="J44" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H44,F44,t)</f>
+        <v>0.19815919297022394</v>
+      </c>
     </row>
     <row r="45" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F45">
@@ -1137,12 +1369,18 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F45,t)</f>
+        <v>9.2835641106318576</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
+      <c r="J45" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H45,F45,t)</f>
+        <v>0.19784877862311953</v>
+      </c>
     </row>
     <row r="46" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F46">
@@ -1152,12 +1390,18 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F46,t)</f>
+        <v>10.088070737440773</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
+      <c r="J46" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H46,F46,t)</f>
+        <v>0.19754123136892979</v>
+      </c>
     </row>
     <row r="47" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F47">
@@ -1167,12 +1411,18 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F47,t)</f>
+        <v>10.917515436164138</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
+      <c r="J47" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H47,F47,t)</f>
+        <v>0.19723649966720683</v>
+      </c>
     </row>
     <row r="48" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F48">
@@ -1182,12 +1432,18 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F48,t)</f>
+        <v>11.7696311573022</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
+      <c r="J48" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H48,F48,t)</f>
+        <v>0.19693453335599928</v>
+      </c>
     </row>
     <row r="49" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F49">
@@ -1197,12 +1453,18 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F49,t)</f>
+        <v>12.64219000763228</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
+      <c r="J49" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H49,F49,t)</f>
+        <v>0.19663528360386642</v>
+      </c>
     </row>
     <row r="50" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F50">
@@ -1212,12 +1474,18 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F50,t)</f>
+        <v>13.533036380390683</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
+      <c r="J50" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H50,F50,t)</f>
+        <v>0.19633870286258381</v>
+      </c>
     </row>
     <row r="51" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F51">
@@ -1227,12 +1495,18 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F51,t)</f>
+        <v>14.44011412103788</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
+      <c r="J51" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H51,F51,t)</f>
+        <v>0.1960447448226682</v>
+      </c>
     </row>
     <row r="52" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F52">
@@ -1242,12 +1516,18 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F52,t)</f>
+        <v>15.361487647106756</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
+      <c r="J52" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H52,F52,t)</f>
+        <v>0.19575336437070706</v>
+      </c>
     </row>
     <row r="53" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F53">
@@ -1257,12 +1537,18 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F53,t)</f>
+        <v>16.29535719875858</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
+      <c r="J53" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H53,F53,t)</f>
+        <v>0.19546451754846336</v>
+      </c>
     </row>
     <row r="54" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F54">
@@ -1272,12 +1558,18 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F54,t)</f>
+        <v>17.240068605568112</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
+      <c r="J54" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H54,F54,t)</f>
+        <v>0.19517816151349443</v>
+      </c>
     </row>
     <row r="55" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F55">
@@ -1287,12 +1579,18 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F55,t)</f>
+        <v>18.194118111378401</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
+      <c r="J55" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H55,F55,t)</f>
+        <v>0.19489425450188741</v>
+      </c>
     </row>
     <row r="56" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F56">
@@ -1302,12 +1600,18 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F56,t)</f>
+        <v>19.156152903317306</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
+      <c r="J56" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H56,F56,t)</f>
+        <v>0.1946127557918918</v>
+      </c>
     </row>
     <row r="57" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F57">
@@ -1317,12 +1621,18 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F57,t)</f>
+        <v>20.12496804698003</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
+      <c r="J57" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H57,F57,t)</f>
+        <v>0.19433362566998369</v>
+      </c>
     </row>
     <row r="58" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F58">
@@ -1332,12 +1642,18 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F58,t)</f>
+        <v>21.099500543233205</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
+      <c r="J58" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H58,F58,t)</f>
+        <v>0.19405682539738733</v>
+      </c>
     </row>
     <row r="59" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F59">
@@ -1347,12 +1663,18 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F59,t)</f>
+        <v>22.078821200533753</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
+      <c r="J59" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H59,F59,t)</f>
+        <v>0.19378231717859215</v>
+      </c>
     </row>
     <row r="60" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F60">
@@ -1362,12 +1684,18 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F60,t)</f>
+        <v>23.062124968007112</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
+      <c r="J60" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H60,F60,t)</f>
+        <v>0.19351006413067628</v>
+      </c>
     </row>
     <row r="61" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F61">
@@ -1377,12 +1705,18 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F61,t)</f>
+        <v>24.04872030681635</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
+      <c r="J61" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H61,F61,t)</f>
+        <v>0.19324003025443812</v>
+      </c>
     </row>
     <row r="62" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F62">
@@ -1392,12 +1726,18 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F62,t)</f>
+        <v>25.038018097943663</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
+      <c r="J62" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H62,F62,t)</f>
+        <v>0.19297218040625874</v>
+      </c>
     </row>
     <row r="63" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F63">
@@ -1407,12 +1747,18 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F63,t)</f>
+        <v>26.029520499927315</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
+      <c r="J63" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H63,F63,t)</f>
+        <v>0.19270648027075188</v>
+      </c>
     </row>
     <row r="64" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F64">
@@ -1422,12 +1768,18 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F64,t)</f>
+        <v>27.022810085691404</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
+      <c r="J64" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H64,F64,t)</f>
+        <v>0.19244289633549364</v>
+      </c>
     </row>
     <row r="65" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F65">
@@ -1437,12 +1789,18 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F65,t)</f>
+        <v>28.017539507525299</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
+      <c r="J65" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H65,F65,t)</f>
+        <v>0.19218139586568742</v>
+      </c>
     </row>
     <row r="66" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F66">
@@ -1452,12 +1810,18 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F66,t)</f>
+        <v>29.013421866483313</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
+      <c r="J66" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H66,F66,t)</f>
+        <v>0.19192194688040323</v>
+      </c>
     </row>
     <row r="67" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F67">
@@ -1467,12 +1831,18 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F67,t)</f>
+        <v>30.010221898820959</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H67,F67,t)</f>
+        <v>0.19166451812980059</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHENG LU\Source\Repos\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D831A4-32A3-44F7-8F48-E52962AD77BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -477,11 +475,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.45">
@@ -559,12 +561,18 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <f t="array" ref="H7">_xll.XLL.GAMMA.PUT(f,sigma,F7,t)</f>
+        <v>8.9763951445043927E-4</v>
+      </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <f t="array" ref="J7">_xll.XLL.BLACK.PUT.IMPLIED(f,H7,F7,t)</f>
+        <v>0.21231052715334578</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
@@ -574,7 +582,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <f t="array" ref="D8">_xll.XLL.GAMMA.PUT(f,sigma,k,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -582,12 +593,18 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f t="array" ref="H8">_xll.XLL.GAMMA.PUT(f,sigma,F8,t)</f>
+        <v>1.4575439098829177E-3</v>
+      </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <f t="array" ref="J8">_xll.XLL.BLACK.PUT.IMPLIED(f,H8,F8,t)</f>
+        <v>0.21183817179416867</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F9">
@@ -597,12 +614,18 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <f t="array" ref="H9">_xll.XLL.GAMMA.PUT(f,sigma,F9,t)</f>
+        <v>2.3228003245620993E-3</v>
+      </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <f t="array" ref="J9">_xll.XLL.BLACK.PUT.IMPLIED(f,H9,F9,t)</f>
+        <v>0.21137234937840421</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F10">
@@ -612,12 +635,18 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f t="array" ref="H10">_xll.XLL.GAMMA.PUT(f,sigma,F10,t)</f>
+        <v>3.6352252638087446E-3</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <f t="array" ref="J10">_xll.XLL.BLACK.PUT.IMPLIED(f,H10,F10,t)</f>
+        <v>0.21091288331598537</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F11">
@@ -627,12 +656,18 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <f t="array" ref="H11">_xll.XLL.GAMMA.PUT(f,sigma,F11,t)</f>
+        <v>5.590231529384676E-3</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <f t="array" ref="J11">_xll.XLL.BLACK.PUT.IMPLIED(f,H11,F11,t)</f>
+        <v>0.21045960410593448</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F12">
@@ -642,12 +677,18 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <f t="array" ref="H12">_xll.XLL.GAMMA.PUT(f,sigma,F12,t)</f>
+        <v>8.451791248063445E-3</v>
+      </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <f t="array" ref="J12">_xll.XLL.BLACK.PUT.IMPLIED(f,H12,F12,t)</f>
+        <v>0.21001234896104137</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F13">
@@ -657,12 +698,18 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <f t="array" ref="H13">_xll.XLL.GAMMA.PUT(f,sigma,F13,t)</f>
+        <v>1.2569613235804633E-2</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <f t="array" ref="J13">_xll.XLL.BLACK.PUT.IMPLIED(f,H13,F13,t)</f>
+        <v>0.20957096145645532</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F14">
@@ -672,12 +719,18 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <f t="array" ref="H14">_xll.XLL.GAMMA.PUT(f,sigma,F14,t)</f>
+        <v>1.8398212800229241E-2</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2">
+        <f t="array" ref="J14">_xll.XLL.BLACK.PUT.IMPLIED(f,H14,F14,t)</f>
+        <v>0.20913529120173258</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F15">
@@ -687,12 +740,18 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <f t="array" ref="H15">_xll.XLL.GAMMA.PUT(f,sigma,F15,t)</f>
+        <v>2.6517310308358133E-2</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2">
+        <f t="array" ref="J15">_xll.XLL.BLACK.PUT.IMPLIED(f,H15,F15,t)</f>
+        <v>0.20870519353355413</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="F16">
@@ -702,12 +761,18 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <f t="array" ref="H16">_xll.XLL.GAMMA.PUT(f,sigma,F16,t)</f>
+        <v>3.7652736229766726E-2</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <f t="array" ref="J16">_xll.XLL.BLACK.PUT.IMPLIED(f,H16,F16,t)</f>
+        <v>0.20828052922744211</v>
+      </c>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F17">
@@ -717,12 +782,18 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f t="array" ref="H17">_xll.XLL.GAMMA.PUT(f,sigma,F17,t)</f>
+        <v>5.2696767052352822E-2</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <f t="array" ref="J17">_xll.XLL.BLACK.PUT.IMPLIED(f,H17,F17,t)</f>
+        <v>0.20786116422816761</v>
+      </c>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F18">
@@ -732,12 +803,18 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">_xll.XLL.GAMMA.PUT(f,sigma,F18,t)</f>
+        <v>7.2726594958209656E-2</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2">
+        <f t="array" ref="J18">_xll.XLL.BLACK.PUT.IMPLIED(f,H18,F18,t)</f>
+        <v>0.20744696939560114</v>
+      </c>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F19">
@@ -747,12 +824,18 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f t="array" ref="H19">_xll.XLL.GAMMA.PUT(f,sigma,F19,t)</f>
+        <v>9.9019472852507118E-2</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <f t="array" ref="J19">_xll.XLL.BLACK.PUT.IMPLIED(f,H19,F19,t)</f>
+        <v>0.20703782026762049</v>
+      </c>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F20">
@@ -762,12 +845,18 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f t="array" ref="H20">_xll.XLL.GAMMA.PUT(f,sigma,F20,t)</f>
+        <v>0.13306300235605129</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2">
+        <f t="array" ref="J20">_xll.XLL.BLACK.PUT.IMPLIED(f,H20,F20,t)</f>
+        <v>0.20663359683496854</v>
+      </c>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F21">
@@ -777,12 +866,18 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <f t="array" ref="H21">_xll.XLL.GAMMA.PUT(f,sigma,F21,t)</f>
+        <v>0.17655906810759348</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2">
+        <f t="array" ref="J21">_xll.XLL.BLACK.PUT.IMPLIED(f,H21,F21,t)</f>
+        <v>0.20623418333210983</v>
+      </c>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F22">
@@ -792,12 +887,18 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <f t="array" ref="H22">_xll.XLL.GAMMA.PUT(f,sigma,F22,t)</f>
+        <v>0.23142008133591663</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2">
+        <f t="array" ref="J22">_xll.XLL.BLACK.PUT.IMPLIED(f,H22,F22,t)</f>
+        <v>0.20583946803790867</v>
+      </c>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F23">
@@ -807,12 +908,18 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <f t="array" ref="H23">_xll.XLL.GAMMA.PUT(f,sigma,F23,t)</f>
+        <v>0.2997564826258321</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2">
+        <f t="array" ref="J23">_xll.XLL.BLACK.PUT.IMPLIED(f,H23,F23,t)</f>
+        <v>0.20544934308943413</v>
+      </c>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F24">
@@ -822,12 +929,18 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <f t="array" ref="H24">_xll.XLL.GAMMA.PUT(f,sigma,F24,t)</f>
+        <v>0.38385485890439863</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2">
+        <f t="array" ref="J24">_xll.XLL.BLACK.PUT.IMPLIED(f,H24,F24,t)</f>
+        <v>0.20506370430575391</v>
+      </c>
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F25">
@@ -837,12 +950,18 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <f t="array" ref="H25">_xll.XLL.GAMMA.PUT(f,sigma,F25,t)</f>
+        <v>0.48614653111121164</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2">
+        <f t="array" ref="J25">_xll.XLL.BLACK.PUT.IMPLIED(f,H25,F25,t)</f>
+        <v>0.20468245102133648</v>
+      </c>
     </row>
     <row r="26" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F26">
@@ -852,12 +971,18 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <f t="array" ref="H26">_xll.XLL.GAMMA.PUT(f,sigma,F26,t)</f>
+        <v>0.60916703344991596</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2">
+        <f t="array" ref="J26">_xll.XLL.BLACK.PUT.IMPLIED(f,H26,F26,t)</f>
+        <v>0.20430548593030609</v>
+      </c>
     </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F27">
@@ -867,12 +992,18 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <f t="array" ref="H27">_xll.XLL.GAMMA.PUT(f,sigma,F27,t)</f>
+        <v>0.75550749047170562</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="2">
+        <f t="array" ref="J27">_xll.XLL.BLACK.PUT.IMPLIED(f,H27,F27,t)</f>
+        <v>0.20393271493704457</v>
+      </c>
     </row>
     <row r="28" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F28">
@@ -882,12 +1013,18 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <f t="array" ref="H28">_xll.XLL.GAMMA.PUT(f,sigma,F28,t)</f>
+        <v>0.92775945788765313</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="2">
+        <f t="array" ref="J28">_xll.XLL.BLACK.PUT.IMPLIED(f,H28,F28,t)</f>
+        <v>0.20356404701673117</v>
+      </c>
     </row>
     <row r="29" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F29">
@@ -897,12 +1034,18 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <f t="array" ref="H29">_xll.XLL.GAMMA.PUT(f,sigma,F29,t)</f>
+        <v>1.1284552798969685</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2">
+        <f t="array" ref="J29">_xll.XLL.BLACK.PUT.IMPLIED(f,H29,F29,t)</f>
+        <v>0.20319939408279358</v>
+      </c>
     </row>
     <row r="30" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F30">
@@ -912,12 +1055,18 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <f t="array" ref="H30">_xll.XLL.GAMMA.PUT(f,sigma,F30,t)</f>
+        <v>1.360006387955174</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2">
+        <f t="array" ref="J30">_xll.XLL.BLACK.PUT.IMPLIED(f,H30,F30,t)</f>
+        <v>0.20283867086138452</v>
+      </c>
     </row>
     <row r="31" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F31">
@@ -927,12 +1076,18 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <f t="array" ref="H31">_xll.XLL.GAMMA.PUT(f,sigma,F31,t)</f>
+        <v>1.62464219013426</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2">
+        <f t="array" ref="J31">_xll.XLL.BLACK.PUT.IMPLIED(f,H31,F31,t)</f>
+        <v>0.20248179477256115</v>
+      </c>
     </row>
     <row r="32" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F32">
@@ -942,12 +1097,18 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <f t="array" ref="H32">_xll.XLL.GAMMA.PUT(f,sigma,F32,t)</f>
+        <v>1.9243522559585848</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2">
+        <f t="array" ref="J32">_xll.XLL.BLACK.PUT.IMPLIED(f,H32,F32,t)</f>
+        <v>0.20212868581788687</v>
+      </c>
     </row>
     <row r="33" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F33">
@@ -957,12 +1118,18 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <f t="array" ref="H33">_xll.XLL.GAMMA.PUT(f,sigma,F33,t)</f>
+        <v>2.2608343827001036</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2">
+        <f t="array" ref="J33">_xll.XLL.BLACK.PUT.IMPLIED(f,H33,F33,t)</f>
+        <v>0.20177926647365566</v>
+      </c>
     </row>
     <row r="34" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F34">
@@ -972,12 +1139,18 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <f t="array" ref="H34">_xll.XLL.GAMMA.PUT(f,sigma,F34,t)</f>
+        <v>2.6354508444062361</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
+      <c r="J34" s="2">
+        <f t="array" ref="J34">_xll.XLL.BLACK.PUT.IMPLIED(f,H34,F34,t)</f>
+        <v>0.20143346158876071</v>
+      </c>
     </row>
     <row r="35" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F35">
@@ -987,12 +1160,18 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <f t="array" ref="H35">_xll.XLL.GAMMA.PUT(f,sigma,F35,t)</f>
+        <v>3.0491946970869392</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="J35" s="2">
+        <f t="array" ref="J35">_xll.XLL.BLACK.PUT.IMPLIED(f,H35,F35,t)</f>
+        <v>0.20109119829026401</v>
+      </c>
     </row>
     <row r="36" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F36">
@@ -1002,12 +1181,18 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <f t="array" ref="H36">_xll.XLL.GAMMA.PUT(f,sigma,F36,t)</f>
+        <v>3.5026674760476624</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
+      <c r="J36" s="2">
+        <f t="array" ref="J36">_xll.XLL.BLACK.PUT.IMPLIED(f,H36,F36,t)</f>
+        <v>0.20075240589094284</v>
+      </c>
     </row>
     <row r="37" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F37">
@@ -1017,12 +1202,18 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <f t="array" ref="H37">_xll.XLL.GAMMA.PUT(f,sigma,F37,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2">
+        <f t="array" ref="J37">_xll.XLL.BLACK.PUT.IMPLIED(f,H37,F37,t)</f>
+        <v>0.20041701580256077</v>
+      </c>
     </row>
     <row r="38" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F38">
@@ -1032,12 +1223,18 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <f t="array" ref="H38">_xll.XLL.GAMMA.PUT(f,sigma,F38,t)</f>
+        <v>4.5291995002208836</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
+      <c r="J38" s="2">
+        <f t="array" ref="J38">_xll.XLL.BLACK.PUT.IMPLIED(f,H38,F38,t)</f>
+        <v>0.20008496145309618</v>
+      </c>
     </row>
     <row r="39" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F39">
@@ -1047,12 +1244,18 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <f t="array" ref="H39">_xll.XLL.GAMMA.PUT(f,sigma,F39,t)</f>
+        <v>5.1014732268873928</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
+      <c r="J39" s="2">
+        <f t="array" ref="J39">_xll.XLL.BLACK.PUT.IMPLIED(f,H39,F39,t)</f>
+        <v>0.19975617820979266</v>
+      </c>
     </row>
     <row r="40" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F40">
@@ -1062,12 +1265,18 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <f t="array" ref="H40">_xll.XLL.GAMMA.PUT(f,sigma,F40,t)</f>
+        <v>5.7119430607959316</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
+      <c r="J40" s="2">
+        <f t="array" ref="J40">_xll.XLL.BLACK.PUT.IMPLIED(f,H40,F40,t)</f>
+        <v>0.19943060330278106</v>
+      </c>
     </row>
     <row r="41" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F41">
@@ -1077,12 +1286,18 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <f t="array" ref="H41">_xll.XLL.GAMMA.PUT(f,sigma,F41,t)</f>
+        <v>6.359334058132589</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
+      <c r="J41" s="2">
+        <f t="array" ref="J41">_xll.XLL.BLACK.PUT.IMPLIED(f,H41,F41,t)</f>
+        <v>0.19910817575424916</v>
+      </c>
     </row>
     <row r="42" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F42">
@@ -1092,12 +1307,18 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <f t="array" ref="H42">_xll.XLL.GAMMA.PUT(f,sigma,F42,t)</f>
+        <v>7.0420844428201121</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
+      <c r="J42" s="2">
+        <f t="array" ref="J42">_xll.XLL.BLACK.PUT.IMPLIED(f,H42,F42,t)</f>
+        <v>0.19878883631142771</v>
+      </c>
     </row>
     <row r="43" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F43">
@@ -1107,12 +1328,18 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <f t="array" ref="H43">_xll.XLL.GAMMA.PUT(f,sigma,F43,t)</f>
+        <v>7.7583918958759028</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
+      <c r="J43" s="2">
+        <f t="array" ref="J43">_xll.XLL.BLACK.PUT.IMPLIED(f,H43,F43,t)</f>
+        <v>0.19847252738148907</v>
+      </c>
     </row>
     <row r="44" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F44">
@@ -1122,12 +1349,18 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <f t="array" ref="H44">_xll.XLL.GAMMA.PUT(f,sigma,F44,t)</f>
+        <v>8.5062630478467582</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
+      <c r="J44" s="2">
+        <f t="array" ref="J44">_xll.XLL.BLACK.PUT.IMPLIED(f,H44,F44,t)</f>
+        <v>0.19815919297022394</v>
+      </c>
     </row>
     <row r="45" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F45">
@@ -1137,12 +1370,18 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <f t="array" ref="H45">_xll.XLL.GAMMA.PUT(f,sigma,F45,t)</f>
+        <v>9.2835641106318576</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
+      <c r="J45" s="2">
+        <f t="array" ref="J45">_xll.XLL.BLACK.PUT.IMPLIED(f,H45,F45,t)</f>
+        <v>0.19784877862311953</v>
+      </c>
     </row>
     <row r="46" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F46">
@@ -1152,12 +1391,18 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <f t="array" ref="H46">_xll.XLL.GAMMA.PUT(f,sigma,F46,t)</f>
+        <v>10.088070737440773</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
+      <c r="J46" s="2">
+        <f t="array" ref="J46">_xll.XLL.BLACK.PUT.IMPLIED(f,H46,F46,t)</f>
+        <v>0.19754123136892979</v>
+      </c>
     </row>
     <row r="47" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F47">
@@ -1167,12 +1412,18 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <f t="array" ref="H47">_xll.XLL.GAMMA.PUT(f,sigma,F47,t)</f>
+        <v>10.917515436164138</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
+      <c r="J47" s="2">
+        <f t="array" ref="J47">_xll.XLL.BLACK.PUT.IMPLIED(f,H47,F47,t)</f>
+        <v>0.19723649966720683</v>
+      </c>
     </row>
     <row r="48" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F48">
@@ -1182,12 +1433,18 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <f t="array" ref="H48">_xll.XLL.GAMMA.PUT(f,sigma,F48,t)</f>
+        <v>11.7696311573022</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
+      <c r="J48" s="2">
+        <f t="array" ref="J48">_xll.XLL.BLACK.PUT.IMPLIED(f,H48,F48,t)</f>
+        <v>0.19693453335599928</v>
+      </c>
     </row>
     <row r="49" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F49">
@@ -1197,12 +1454,18 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <f t="array" ref="H49">_xll.XLL.GAMMA.PUT(f,sigma,F49,t)</f>
+        <v>12.64219000763228</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
+      <c r="J49" s="2">
+        <f t="array" ref="J49">_xll.XLL.BLACK.PUT.IMPLIED(f,H49,F49,t)</f>
+        <v>0.19663528360386642</v>
+      </c>
     </row>
     <row r="50" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F50">
@@ -1212,12 +1475,18 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <f t="array" ref="H50">_xll.XLL.GAMMA.PUT(f,sigma,F50,t)</f>
+        <v>13.533036380390683</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
+      <c r="J50" s="2">
+        <f t="array" ref="J50">_xll.XLL.BLACK.PUT.IMPLIED(f,H50,F50,t)</f>
+        <v>0.19633870286258381</v>
+      </c>
     </row>
     <row r="51" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F51">
@@ -1227,12 +1496,18 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <f t="array" ref="H51">_xll.XLL.GAMMA.PUT(f,sigma,F51,t)</f>
+        <v>14.44011412103788</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
+      <c r="J51" s="2">
+        <f t="array" ref="J51">_xll.XLL.BLACK.PUT.IMPLIED(f,H51,F51,t)</f>
+        <v>0.1960447448226682</v>
+      </c>
     </row>
     <row r="52" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F52">
@@ -1242,12 +1517,18 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <f t="array" ref="H52">_xll.XLL.GAMMA.PUT(f,sigma,F52,t)</f>
+        <v>15.361487647106756</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
+      <c r="J52" s="2">
+        <f t="array" ref="J52">_xll.XLL.BLACK.PUT.IMPLIED(f,H52,F52,t)</f>
+        <v>0.19575336437070706</v>
+      </c>
     </row>
     <row r="53" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F53">
@@ -1257,12 +1538,18 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <f t="array" ref="H53">_xll.XLL.GAMMA.PUT(f,sigma,F53,t)</f>
+        <v>16.29535719875858</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
+      <c r="J53" s="2">
+        <f t="array" ref="J53">_xll.XLL.BLACK.PUT.IMPLIED(f,H53,F53,t)</f>
+        <v>0.19546451754846336</v>
+      </c>
     </row>
     <row r="54" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F54">
@@ -1272,12 +1559,18 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <f t="array" ref="H54">_xll.XLL.GAMMA.PUT(f,sigma,F54,t)</f>
+        <v>17.240068605568112</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
+      <c r="J54" s="2">
+        <f t="array" ref="J54">_xll.XLL.BLACK.PUT.IMPLIED(f,H54,F54,t)</f>
+        <v>0.19517816151349443</v>
+      </c>
     </row>
     <row r="55" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F55">
@@ -1287,12 +1580,18 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <f t="array" ref="H55">_xll.XLL.GAMMA.PUT(f,sigma,F55,t)</f>
+        <v>18.194118111378401</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
+      <c r="J55" s="2">
+        <f t="array" ref="J55">_xll.XLL.BLACK.PUT.IMPLIED(f,H55,F55,t)</f>
+        <v>0.19489425450188741</v>
+      </c>
     </row>
     <row r="56" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F56">
@@ -1302,12 +1601,18 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <f t="array" ref="H56">_xll.XLL.GAMMA.PUT(f,sigma,F56,t)</f>
+        <v>19.156152903317306</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
+      <c r="J56" s="2">
+        <f t="array" ref="J56">_xll.XLL.BLACK.PUT.IMPLIED(f,H56,F56,t)</f>
+        <v>0.1946127557918918</v>
+      </c>
     </row>
     <row r="57" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F57">
@@ -1317,12 +1622,18 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <f t="array" ref="H57">_xll.XLL.GAMMA.PUT(f,sigma,F57,t)</f>
+        <v>20.12496804698003</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
+      <c r="J57" s="2">
+        <f t="array" ref="J57">_xll.XLL.BLACK.PUT.IMPLIED(f,H57,F57,t)</f>
+        <v>0.19433362566998369</v>
+      </c>
     </row>
     <row r="58" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F58">
@@ -1332,12 +1643,18 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <f t="array" ref="H58">_xll.XLL.GAMMA.PUT(f,sigma,F58,t)</f>
+        <v>21.099500543233205</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
+      <c r="J58" s="2">
+        <f t="array" ref="J58">_xll.XLL.BLACK.PUT.IMPLIED(f,H58,F58,t)</f>
+        <v>0.19405682539738733</v>
+      </c>
     </row>
     <row r="59" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F59">
@@ -1347,12 +1664,18 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2">
+        <f t="array" ref="H59">_xll.XLL.GAMMA.PUT(f,sigma,F59,t)</f>
+        <v>22.078821200533753</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
+      <c r="J59" s="2">
+        <f t="array" ref="J59">_xll.XLL.BLACK.PUT.IMPLIED(f,H59,F59,t)</f>
+        <v>0.19378231717859215</v>
+      </c>
     </row>
     <row r="60" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F60">
@@ -1362,12 +1685,18 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <f t="array" ref="H60">_xll.XLL.GAMMA.PUT(f,sigma,F60,t)</f>
+        <v>23.062124968007112</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
+      <c r="J60" s="2">
+        <f t="array" ref="J60">_xll.XLL.BLACK.PUT.IMPLIED(f,H60,F60,t)</f>
+        <v>0.19351006413067628</v>
+      </c>
     </row>
     <row r="61" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F61">
@@ -1377,12 +1706,18 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <f t="array" ref="H61">_xll.XLL.GAMMA.PUT(f,sigma,F61,t)</f>
+        <v>24.04872030681635</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
+      <c r="J61" s="2">
+        <f t="array" ref="J61">_xll.XLL.BLACK.PUT.IMPLIED(f,H61,F61,t)</f>
+        <v>0.19324003025443812</v>
+      </c>
     </row>
     <row r="62" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F62">
@@ -1392,12 +1727,18 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <f t="array" ref="H62">_xll.XLL.GAMMA.PUT(f,sigma,F62,t)</f>
+        <v>25.038018097943663</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
+      <c r="J62" s="2">
+        <f t="array" ref="J62">_xll.XLL.BLACK.PUT.IMPLIED(f,H62,F62,t)</f>
+        <v>0.19297218040625874</v>
+      </c>
     </row>
     <row r="63" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F63">
@@ -1407,12 +1748,18 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <f t="array" ref="H63">_xll.XLL.GAMMA.PUT(f,sigma,F63,t)</f>
+        <v>26.029520499927315</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
+      <c r="J63" s="2">
+        <f t="array" ref="J63">_xll.XLL.BLACK.PUT.IMPLIED(f,H63,F63,t)</f>
+        <v>0.19270648027075188</v>
+      </c>
     </row>
     <row r="64" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F64">
@@ -1422,12 +1769,18 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <f t="array" ref="H64">_xll.XLL.GAMMA.PUT(f,sigma,F64,t)</f>
+        <v>27.022810085691404</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
+      <c r="J64" s="2">
+        <f t="array" ref="J64">_xll.XLL.BLACK.PUT.IMPLIED(f,H64,F64,t)</f>
+        <v>0.19244289633549364</v>
+      </c>
     </row>
     <row r="65" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F65">
@@ -1437,12 +1790,18 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2">
+        <f t="array" ref="H65">_xll.XLL.GAMMA.PUT(f,sigma,F65,t)</f>
+        <v>28.017539507525299</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
+      <c r="J65" s="2">
+        <f t="array" ref="J65">_xll.XLL.BLACK.PUT.IMPLIED(f,H65,F65,t)</f>
+        <v>0.19218139586568742</v>
+      </c>
     </row>
     <row r="66" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F66">
@@ -1452,12 +1811,18 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <f t="array" ref="H66">_xll.XLL.GAMMA.PUT(f,sigma,F66,t)</f>
+        <v>29.013421866483313</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
+      <c r="J66" s="2">
+        <f t="array" ref="J66">_xll.XLL.BLACK.PUT.IMPLIED(f,H66,F66,t)</f>
+        <v>0.19192194688040323</v>
+      </c>
     </row>
     <row r="67" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F67">
@@ -1467,12 +1832,18 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <f t="array" ref="H67">_xll.XLL.GAMMA.PUT(f,sigma,F67,t)</f>
+        <v>30.010221898820959</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2">
+        <f t="array" ref="J67">_xll.XLL.BLACK.PUT.IMPLIED(f,H67,F67,t)</f>
+        <v>0.19166451812980059</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjp97\source\Repos\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2DE26F-DF40-4E4F-8CE1-0C04B8FCC757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,14 +477,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +502,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,7 +510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,7 +530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
@@ -545,7 +547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -559,14 +561,20 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" cm="1">
+        <f t="array" ref="H7">_xll.XLL.GAMMA.PUT(f,sigma,F7,t)</f>
+        <v>8.9763951445043927E-4</v>
+      </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J7" s="2" cm="1">
+        <f t="array" ref="J7">_xll.XLL.BLACK.PUT.IMPLIED(f,H7,F7,t)</f>
+        <v>0.21231052715334578</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +582,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" cm="1">
+        <f t="array" ref="D8">_xll.XLL.GAMMA.PUT(f,sigma,k,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -582,14 +593,20 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" cm="1">
+        <f t="array" ref="H8">_xll.XLL.GAMMA.PUT(f,sigma,F8,t)</f>
+        <v>1.4575439098829177E-3</v>
+      </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J8" s="2" cm="1">
+        <f t="array" ref="J8">_xll.XLL.BLACK.PUT.IMPLIED(f,H8,F8,t)</f>
+        <v>0.21183817179416867</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F9">
         <v>72</v>
       </c>
@@ -597,14 +614,20 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" cm="1">
+        <f t="array" ref="H9">_xll.XLL.GAMMA.PUT(f,sigma,F9,t)</f>
+        <v>2.3228003245620993E-3</v>
+      </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J9" s="2" cm="1">
+        <f t="array" ref="J9">_xll.XLL.BLACK.PUT.IMPLIED(f,H9,F9,t)</f>
+        <v>0.21137234937840421</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F10">
         <v>73</v>
       </c>
@@ -612,14 +635,20 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" cm="1">
+        <f t="array" ref="H10">_xll.XLL.GAMMA.PUT(f,sigma,F10,t)</f>
+        <v>3.6352252638087446E-3</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J10" s="2" cm="1">
+        <f t="array" ref="J10">_xll.XLL.BLACK.PUT.IMPLIED(f,H10,F10,t)</f>
+        <v>0.21091288331598537</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F11">
         <v>74</v>
       </c>
@@ -627,14 +656,20 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" cm="1">
+        <f t="array" ref="H11">_xll.XLL.GAMMA.PUT(f,sigma,F11,t)</f>
+        <v>5.590231529384676E-3</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J11" s="2" cm="1">
+        <f t="array" ref="J11">_xll.XLL.BLACK.PUT.IMPLIED(f,H11,F11,t)</f>
+        <v>0.21045960410593448</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F12">
         <v>75</v>
       </c>
@@ -642,14 +677,20 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" cm="1">
+        <f t="array" ref="H12">_xll.XLL.GAMMA.PUT(f,sigma,F12,t)</f>
+        <v>8.451791248063445E-3</v>
+      </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J12" s="2" cm="1">
+        <f t="array" ref="J12">_xll.XLL.BLACK.PUT.IMPLIED(f,H12,F12,t)</f>
+        <v>0.21001234896104137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>76</v>
       </c>
@@ -657,14 +698,20 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" cm="1">
+        <f t="array" ref="H13">_xll.XLL.GAMMA.PUT(f,sigma,F13,t)</f>
+        <v>1.2569613235804633E-2</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J13" s="2" cm="1">
+        <f t="array" ref="J13">_xll.XLL.BLACK.PUT.IMPLIED(f,H13,F13,t)</f>
+        <v>0.20957096145645532</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F14">
         <v>77</v>
       </c>
@@ -672,14 +719,20 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" cm="1">
+        <f t="array" ref="H14">_xll.XLL.GAMMA.PUT(f,sigma,F14,t)</f>
+        <v>1.8398212800229241E-2</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J14" s="2" cm="1">
+        <f t="array" ref="J14">_xll.XLL.BLACK.PUT.IMPLIED(f,H14,F14,t)</f>
+        <v>0.20913529120173258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>78</v>
       </c>
@@ -687,14 +740,20 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" cm="1">
+        <f t="array" ref="H15">_xll.XLL.GAMMA.PUT(f,sigma,F15,t)</f>
+        <v>2.6517310308358133E-2</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J15" s="2" cm="1">
+        <f t="array" ref="J15">_xll.XLL.BLACK.PUT.IMPLIED(f,H15,F15,t)</f>
+        <v>0.20870519353355413</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F16">
         <v>79</v>
       </c>
@@ -702,14 +761,20 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" cm="1">
+        <f t="array" ref="H16">_xll.XLL.GAMMA.PUT(f,sigma,F16,t)</f>
+        <v>3.7652736229766726E-2</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J16" s="2" cm="1">
+        <f t="array" ref="J16">_xll.XLL.BLACK.PUT.IMPLIED(f,H16,F16,t)</f>
+        <v>0.20828052922744211</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>80</v>
       </c>
@@ -717,14 +782,20 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" cm="1">
+        <f t="array" ref="H17">_xll.XLL.GAMMA.PUT(f,sigma,F17,t)</f>
+        <v>5.2696767052352822E-2</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J17" s="2" cm="1">
+        <f t="array" ref="J17">_xll.XLL.BLACK.PUT.IMPLIED(f,H17,F17,t)</f>
+        <v>0.20786116422816761</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>81</v>
       </c>
@@ -732,14 +803,20 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2" cm="1">
+        <f t="array" ref="H18">_xll.XLL.GAMMA.PUT(f,sigma,F18,t)</f>
+        <v>7.2726594958209656E-2</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J18" s="2" cm="1">
+        <f t="array" ref="J18">_xll.XLL.BLACK.PUT.IMPLIED(f,H18,F18,t)</f>
+        <v>0.20744696939560114</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>82</v>
       </c>
@@ -747,14 +824,20 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" cm="1">
+        <f t="array" ref="H19">_xll.XLL.GAMMA.PUT(f,sigma,F19,t)</f>
+        <v>9.9019472852507118E-2</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J19" s="2" cm="1">
+        <f t="array" ref="J19">_xll.XLL.BLACK.PUT.IMPLIED(f,H19,F19,t)</f>
+        <v>0.20703782026762049</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F20">
         <v>83</v>
       </c>
@@ -762,14 +845,20 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2" cm="1">
+        <f t="array" ref="H20">_xll.XLL.GAMMA.PUT(f,sigma,F20,t)</f>
+        <v>0.13306300235605129</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J20" s="2" cm="1">
+        <f t="array" ref="J20">_xll.XLL.BLACK.PUT.IMPLIED(f,H20,F20,t)</f>
+        <v>0.20663359683496854</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F21">
         <v>84</v>
       </c>
@@ -777,14 +866,20 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" cm="1">
+        <f t="array" ref="H21">_xll.XLL.GAMMA.PUT(f,sigma,F21,t)</f>
+        <v>0.17655906810759392</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J21" s="2" cm="1">
+        <f t="array" ref="J21">_xll.XLL.BLACK.PUT.IMPLIED(f,H21,F21,t)</f>
+        <v>0.20623418333211044</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F22">
         <v>85</v>
       </c>
@@ -792,14 +887,20 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2" cm="1">
+        <f t="array" ref="H22">_xll.XLL.GAMMA.PUT(f,sigma,F22,t)</f>
+        <v>0.23142008133591663</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J22" s="2" cm="1">
+        <f t="array" ref="J22">_xll.XLL.BLACK.PUT.IMPLIED(f,H22,F22,t)</f>
+        <v>0.20583946803790867</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F23">
         <v>86</v>
       </c>
@@ -807,14 +908,20 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2" cm="1">
+        <f t="array" ref="H23">_xll.XLL.GAMMA.PUT(f,sigma,F23,t)</f>
+        <v>0.2997564826258321</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J23" s="2" cm="1">
+        <f t="array" ref="J23">_xll.XLL.BLACK.PUT.IMPLIED(f,H23,F23,t)</f>
+        <v>0.20544934308943413</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F24">
         <v>87</v>
       </c>
@@ -822,14 +929,20 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2" cm="1">
+        <f t="array" ref="H24">_xll.XLL.GAMMA.PUT(f,sigma,F24,t)</f>
+        <v>0.38385485890439863</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J24" s="2" cm="1">
+        <f t="array" ref="J24">_xll.XLL.BLACK.PUT.IMPLIED(f,H24,F24,t)</f>
+        <v>0.20506370430575391</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F25">
         <v>88</v>
       </c>
@@ -837,14 +950,20 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2" cm="1">
+        <f t="array" ref="H25">_xll.XLL.GAMMA.PUT(f,sigma,F25,t)</f>
+        <v>0.48614653111121164</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J25" s="2" cm="1">
+        <f t="array" ref="J25">_xll.XLL.BLACK.PUT.IMPLIED(f,H25,F25,t)</f>
+        <v>0.20468245102133648</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F26">
         <v>89</v>
       </c>
@@ -852,14 +971,20 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2" cm="1">
+        <f t="array" ref="H26">_xll.XLL.GAMMA.PUT(f,sigma,F26,t)</f>
+        <v>0.60916703344991596</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J26" s="2" cm="1">
+        <f t="array" ref="J26">_xll.XLL.BLACK.PUT.IMPLIED(f,H26,F26,t)</f>
+        <v>0.20430548593030609</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F27">
         <v>90</v>
       </c>
@@ -867,14 +992,20 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2" cm="1">
+        <f t="array" ref="H27">_xll.XLL.GAMMA.PUT(f,sigma,F27,t)</f>
+        <v>0.75550749047170562</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J27" s="2" cm="1">
+        <f t="array" ref="J27">_xll.XLL.BLACK.PUT.IMPLIED(f,H27,F27,t)</f>
+        <v>0.20393271493704457</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F28">
         <v>91</v>
       </c>
@@ -882,14 +1013,20 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2" cm="1">
+        <f t="array" ref="H28">_xll.XLL.GAMMA.PUT(f,sigma,F28,t)</f>
+        <v>0.92775945788765313</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J28" s="2" cm="1">
+        <f t="array" ref="J28">_xll.XLL.BLACK.PUT.IMPLIED(f,H28,F28,t)</f>
+        <v>0.20356404701673117</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F29">
         <v>92</v>
       </c>
@@ -897,14 +1034,20 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2" cm="1">
+        <f t="array" ref="H29">_xll.XLL.GAMMA.PUT(f,sigma,F29,t)</f>
+        <v>1.1284552798969685</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J29" s="2" cm="1">
+        <f t="array" ref="J29">_xll.XLL.BLACK.PUT.IMPLIED(f,H29,F29,t)</f>
+        <v>0.20319939408279358</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F30">
         <v>93</v>
       </c>
@@ -912,14 +1055,20 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2" cm="1">
+        <f t="array" ref="H30">_xll.XLL.GAMMA.PUT(f,sigma,F30,t)</f>
+        <v>1.360006387955174</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J30" s="2" cm="1">
+        <f t="array" ref="J30">_xll.XLL.BLACK.PUT.IMPLIED(f,H30,F30,t)</f>
+        <v>0.20283867086138452</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F31">
         <v>94</v>
       </c>
@@ -927,14 +1076,20 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2" cm="1">
+        <f t="array" ref="H31">_xll.XLL.GAMMA.PUT(f,sigma,F31,t)</f>
+        <v>1.62464219013426</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J31" s="2" cm="1">
+        <f t="array" ref="J31">_xll.XLL.BLACK.PUT.IMPLIED(f,H31,F31,t)</f>
+        <v>0.20248179477256115</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F32">
         <v>95</v>
       </c>
@@ -942,14 +1097,20 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2" cm="1">
+        <f t="array" ref="H32">_xll.XLL.GAMMA.PUT(f,sigma,F32,t)</f>
+        <v>1.9243522559585848</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J32" s="2" cm="1">
+        <f t="array" ref="J32">_xll.XLL.BLACK.PUT.IMPLIED(f,H32,F32,t)</f>
+        <v>0.20212868581788687</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F33">
         <v>96</v>
       </c>
@@ -957,14 +1118,20 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2" cm="1">
+        <f t="array" ref="H33">_xll.XLL.GAMMA.PUT(f,sigma,F33,t)</f>
+        <v>2.2608343827001036</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J33" s="2" cm="1">
+        <f t="array" ref="J33">_xll.XLL.BLACK.PUT.IMPLIED(f,H33,F33,t)</f>
+        <v>0.20177926647365566</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F34">
         <v>97</v>
       </c>
@@ -972,14 +1139,20 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2" cm="1">
+        <f t="array" ref="H34">_xll.XLL.GAMMA.PUT(f,sigma,F34,t)</f>
+        <v>2.6354508444062361</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J34" s="2" cm="1">
+        <f t="array" ref="J34">_xll.XLL.BLACK.PUT.IMPLIED(f,H34,F34,t)</f>
+        <v>0.20143346158876071</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F35">
         <v>98</v>
       </c>
@@ -987,14 +1160,20 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2" cm="1">
+        <f t="array" ref="H35">_xll.XLL.GAMMA.PUT(f,sigma,F35,t)</f>
+        <v>3.0491946970869392</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J35" s="2" cm="1">
+        <f t="array" ref="J35">_xll.XLL.BLACK.PUT.IMPLIED(f,H35,F35,t)</f>
+        <v>0.20109119829026401</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F36">
         <v>99</v>
       </c>
@@ -1002,14 +1181,20 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2" cm="1">
+        <f t="array" ref="H36">_xll.XLL.GAMMA.PUT(f,sigma,F36,t)</f>
+        <v>3.5026674760476624</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J36" s="2" cm="1">
+        <f t="array" ref="J36">_xll.XLL.BLACK.PUT.IMPLIED(f,H36,F36,t)</f>
+        <v>0.20075240589094284</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F37">
         <v>100</v>
       </c>
@@ -1017,14 +1202,20 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2" cm="1">
+        <f t="array" ref="H37">_xll.XLL.GAMMA.PUT(f,sigma,F37,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J37" s="2" cm="1">
+        <f t="array" ref="J37">_xll.XLL.BLACK.PUT.IMPLIED(f,H37,F37,t)</f>
+        <v>0.20041701580256077</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F38">
         <v>101</v>
       </c>
@@ -1032,14 +1223,20 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2" cm="1">
+        <f t="array" ref="H38">_xll.XLL.GAMMA.PUT(f,sigma,F38,t)</f>
+        <v>4.5291995002208836</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J38" s="2" cm="1">
+        <f t="array" ref="J38">_xll.XLL.BLACK.PUT.IMPLIED(f,H38,F38,t)</f>
+        <v>0.20008496145309618</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F39">
         <v>102</v>
       </c>
@@ -1047,14 +1244,20 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2" cm="1">
+        <f t="array" ref="H39">_xll.XLL.GAMMA.PUT(f,sigma,F39,t)</f>
+        <v>5.1014732268873928</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J39" s="2" cm="1">
+        <f t="array" ref="J39">_xll.XLL.BLACK.PUT.IMPLIED(f,H39,F39,t)</f>
+        <v>0.19975617820979266</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F40">
         <v>103</v>
       </c>
@@ -1062,14 +1265,20 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2" cm="1">
+        <f t="array" ref="H40">_xll.XLL.GAMMA.PUT(f,sigma,F40,t)</f>
+        <v>5.7119430607959316</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J40" s="2" cm="1">
+        <f t="array" ref="J40">_xll.XLL.BLACK.PUT.IMPLIED(f,H40,F40,t)</f>
+        <v>0.19943060330278106</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F41">
         <v>104</v>
       </c>
@@ -1077,14 +1286,20 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2" cm="1">
+        <f t="array" ref="H41">_xll.XLL.GAMMA.PUT(f,sigma,F41,t)</f>
+        <v>6.359334058132589</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J41" s="2" cm="1">
+        <f t="array" ref="J41">_xll.XLL.BLACK.PUT.IMPLIED(f,H41,F41,t)</f>
+        <v>0.19910817575424916</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F42">
         <v>105</v>
       </c>
@@ -1092,14 +1307,20 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2" cm="1">
+        <f t="array" ref="H42">_xll.XLL.GAMMA.PUT(f,sigma,F42,t)</f>
+        <v>7.0420844428201121</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J42" s="2" cm="1">
+        <f t="array" ref="J42">_xll.XLL.BLACK.PUT.IMPLIED(f,H42,F42,t)</f>
+        <v>0.19878883631142852</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F43">
         <v>106</v>
       </c>
@@ -1107,14 +1328,20 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2" cm="1">
+        <f t="array" ref="H43">_xll.XLL.GAMMA.PUT(f,sigma,F43,t)</f>
+        <v>7.7583918958759028</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J43" s="2" cm="1">
+        <f t="array" ref="J43">_xll.XLL.BLACK.PUT.IMPLIED(f,H43,F43,t)</f>
+        <v>0.19847252738148907</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F44">
         <v>107</v>
       </c>
@@ -1122,14 +1349,20 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2" cm="1">
+        <f t="array" ref="H44">_xll.XLL.GAMMA.PUT(f,sigma,F44,t)</f>
+        <v>8.5062630478467582</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J44" s="2" cm="1">
+        <f t="array" ref="J44">_xll.XLL.BLACK.PUT.IMPLIED(f,H44,F44,t)</f>
+        <v>0.19815919297022394</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F45">
         <v>108</v>
       </c>
@@ -1137,14 +1370,20 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2" cm="1">
+        <f t="array" ref="H45">_xll.XLL.GAMMA.PUT(f,sigma,F45,t)</f>
+        <v>9.2835641106318576</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J45" s="2" cm="1">
+        <f t="array" ref="J45">_xll.XLL.BLACK.PUT.IMPLIED(f,H45,F45,t)</f>
+        <v>0.19784877862311953</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F46">
         <v>109</v>
       </c>
@@ -1152,14 +1391,20 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2" cm="1">
+        <f t="array" ref="H46">_xll.XLL.GAMMA.PUT(f,sigma,F46,t)</f>
+        <v>10.088070737440773</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J46" s="2" cm="1">
+        <f t="array" ref="J46">_xll.XLL.BLACK.PUT.IMPLIED(f,H46,F46,t)</f>
+        <v>0.19754123136892979</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F47">
         <v>110</v>
       </c>
@@ -1167,14 +1412,20 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2" cm="1">
+        <f t="array" ref="H47">_xll.XLL.GAMMA.PUT(f,sigma,F47,t)</f>
+        <v>10.917515436164138</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J47" s="2" cm="1">
+        <f t="array" ref="J47">_xll.XLL.BLACK.PUT.IMPLIED(f,H47,F47,t)</f>
+        <v>0.19723649966720683</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F48">
         <v>111</v>
       </c>
@@ -1182,14 +1433,20 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2" cm="1">
+        <f t="array" ref="H48">_xll.XLL.GAMMA.PUT(f,sigma,F48,t)</f>
+        <v>11.7696311573022</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J48" s="2" cm="1">
+        <f t="array" ref="J48">_xll.XLL.BLACK.PUT.IMPLIED(f,H48,F48,t)</f>
+        <v>0.19693453335599928</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F49">
         <v>112</v>
       </c>
@@ -1197,14 +1454,20 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2" cm="1">
+        <f t="array" ref="H49">_xll.XLL.GAMMA.PUT(f,sigma,F49,t)</f>
+        <v>12.64219000763228</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J49" s="2" cm="1">
+        <f t="array" ref="J49">_xll.XLL.BLACK.PUT.IMPLIED(f,H49,F49,t)</f>
+        <v>0.19663528360386642</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F50">
         <v>113</v>
       </c>
@@ -1212,14 +1475,20 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2" cm="1">
+        <f t="array" ref="H50">_xll.XLL.GAMMA.PUT(f,sigma,F50,t)</f>
+        <v>13.533036380390683</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J50" s="2" cm="1">
+        <f t="array" ref="J50">_xll.XLL.BLACK.PUT.IMPLIED(f,H50,F50,t)</f>
+        <v>0.19633870286258381</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F51">
         <v>114</v>
       </c>
@@ -1227,14 +1496,20 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2" cm="1">
+        <f t="array" ref="H51">_xll.XLL.GAMMA.PUT(f,sigma,F51,t)</f>
+        <v>14.44011412103788</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J51" s="2" cm="1">
+        <f t="array" ref="J51">_xll.XLL.BLACK.PUT.IMPLIED(f,H51,F51,t)</f>
+        <v>0.1960447448226682</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F52">
         <v>115</v>
       </c>
@@ -1242,14 +1517,20 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2" cm="1">
+        <f t="array" ref="H52">_xll.XLL.GAMMA.PUT(f,sigma,F52,t)</f>
+        <v>15.361487647106756</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J52" s="2" cm="1">
+        <f t="array" ref="J52">_xll.XLL.BLACK.PUT.IMPLIED(f,H52,F52,t)</f>
+        <v>0.19575336437070706</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F53">
         <v>116</v>
       </c>
@@ -1257,14 +1538,20 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2" cm="1">
+        <f t="array" ref="H53">_xll.XLL.GAMMA.PUT(f,sigma,F53,t)</f>
+        <v>16.29535719875858</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J53" s="2" cm="1">
+        <f t="array" ref="J53">_xll.XLL.BLACK.PUT.IMPLIED(f,H53,F53,t)</f>
+        <v>0.19546451754846336</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F54">
         <v>117</v>
       </c>
@@ -1272,14 +1559,20 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2" cm="1">
+        <f t="array" ref="H54">_xll.XLL.GAMMA.PUT(f,sigma,F54,t)</f>
+        <v>17.240068605568112</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J54" s="2" cm="1">
+        <f t="array" ref="J54">_xll.XLL.BLACK.PUT.IMPLIED(f,H54,F54,t)</f>
+        <v>0.19517816151349443</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F55">
         <v>118</v>
       </c>
@@ -1287,14 +1580,20 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2" cm="1">
+        <f t="array" ref="H55">_xll.XLL.GAMMA.PUT(f,sigma,F55,t)</f>
+        <v>18.194118111378401</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J55" s="2" cm="1">
+        <f t="array" ref="J55">_xll.XLL.BLACK.PUT.IMPLIED(f,H55,F55,t)</f>
+        <v>0.19489425450188741</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F56">
         <v>119</v>
       </c>
@@ -1302,14 +1601,20 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2" cm="1">
+        <f t="array" ref="H56">_xll.XLL.GAMMA.PUT(f,sigma,F56,t)</f>
+        <v>19.156152903317306</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J56" s="2" cm="1">
+        <f t="array" ref="J56">_xll.XLL.BLACK.PUT.IMPLIED(f,H56,F56,t)</f>
+        <v>0.1946127557918918</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F57">
         <v>120</v>
       </c>
@@ -1317,14 +1622,20 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2" cm="1">
+        <f t="array" ref="H57">_xll.XLL.GAMMA.PUT(f,sigma,F57,t)</f>
+        <v>20.12496804698003</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J57" s="2" cm="1">
+        <f t="array" ref="J57">_xll.XLL.BLACK.PUT.IMPLIED(f,H57,F57,t)</f>
+        <v>0.19433362566998369</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F58">
         <v>121</v>
       </c>
@@ -1332,14 +1643,20 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2" cm="1">
+        <f t="array" ref="H58">_xll.XLL.GAMMA.PUT(f,sigma,F58,t)</f>
+        <v>21.099500543233205</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J58" s="2" cm="1">
+        <f t="array" ref="J58">_xll.XLL.BLACK.PUT.IMPLIED(f,H58,F58,t)</f>
+        <v>0.19405682539738733</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F59">
         <v>122</v>
       </c>
@@ -1347,14 +1664,20 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2" cm="1">
+        <f t="array" ref="H59">_xll.XLL.GAMMA.PUT(f,sigma,F59,t)</f>
+        <v>22.078821200533753</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J59" s="2" cm="1">
+        <f t="array" ref="J59">_xll.XLL.BLACK.PUT.IMPLIED(f,H59,F59,t)</f>
+        <v>0.19378231717859215</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F60">
         <v>123</v>
       </c>
@@ -1362,14 +1685,20 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2" cm="1">
+        <f t="array" ref="H60">_xll.XLL.GAMMA.PUT(f,sigma,F60,t)</f>
+        <v>23.062124968007112</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J60" s="2" cm="1">
+        <f t="array" ref="J60">_xll.XLL.BLACK.PUT.IMPLIED(f,H60,F60,t)</f>
+        <v>0.19351006413067628</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F61">
         <v>124</v>
       </c>
@@ -1377,14 +1706,20 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2" cm="1">
+        <f t="array" ref="H61">_xll.XLL.GAMMA.PUT(f,sigma,F61,t)</f>
+        <v>24.04872030681635</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J61" s="2" cm="1">
+        <f t="array" ref="J61">_xll.XLL.BLACK.PUT.IMPLIED(f,H61,F61,t)</f>
+        <v>0.19324003025443812</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F62">
         <v>125</v>
       </c>
@@ -1392,14 +1727,20 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2" cm="1">
+        <f t="array" ref="H62">_xll.XLL.GAMMA.PUT(f,sigma,F62,t)</f>
+        <v>25.038018097943663</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J62" s="2" cm="1">
+        <f t="array" ref="J62">_xll.XLL.BLACK.PUT.IMPLIED(f,H62,F62,t)</f>
+        <v>0.19297218040625874</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F63">
         <v>126</v>
       </c>
@@ -1407,14 +1748,20 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2" cm="1">
+        <f t="array" ref="H63">_xll.XLL.GAMMA.PUT(f,sigma,F63,t)</f>
+        <v>26.029520499927315</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J63" s="2" cm="1">
+        <f t="array" ref="J63">_xll.XLL.BLACK.PUT.IMPLIED(f,H63,F63,t)</f>
+        <v>0.19270648027075188</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F64">
         <v>127</v>
       </c>
@@ -1422,14 +1769,20 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2" cm="1">
+        <f t="array" ref="H64">_xll.XLL.GAMMA.PUT(f,sigma,F64,t)</f>
+        <v>27.022810085691404</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J64" s="2" cm="1">
+        <f t="array" ref="J64">_xll.XLL.BLACK.PUT.IMPLIED(f,H64,F64,t)</f>
+        <v>0.19244289633549364</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F65">
         <v>128</v>
       </c>
@@ -1437,14 +1790,20 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2" cm="1">
+        <f t="array" ref="H65">_xll.XLL.GAMMA.PUT(f,sigma,F65,t)</f>
+        <v>28.017539507525299</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J65" s="2" cm="1">
+        <f t="array" ref="J65">_xll.XLL.BLACK.PUT.IMPLIED(f,H65,F65,t)</f>
+        <v>0.19218139586568742</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F66">
         <v>129</v>
       </c>
@@ -1452,14 +1811,20 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2" cm="1">
+        <f t="array" ref="H66">_xll.XLL.GAMMA.PUT(f,sigma,F66,t)</f>
+        <v>29.013421866483313</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J66" s="2" cm="1">
+        <f t="array" ref="J66">_xll.XLL.BLACK.PUT.IMPLIED(f,H66,F66,t)</f>
+        <v>0.19192194688040323</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F67">
         <v>130</v>
       </c>
@@ -1467,12 +1832,18 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2" cm="1">
+        <f t="array" ref="H67">_xll.XLL.GAMMA.PUT(f,sigma,F67,t)</f>
+        <v>30.010221898820959</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2" cm="1">
+        <f t="array" ref="J67">_xll.XLL.BLACK.PUT.IMPLIED(f,H67,F67,t)</f>
+        <v>0.19166451812980059</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14657\source\repos\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2FD1C8-F1C6-4CAD-830E-F0BC15667041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="sigma">Sheet1!$C$3</definedName>
     <definedName name="t">Sheet1!$C$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -94,19 +92,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -162,8 +167,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="输入" xfId="1" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -179,7 +184,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -477,14 +482,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +508,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,7 +516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
@@ -545,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -559,14 +567,20 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <f t="array" ref="H7">_xll.XLL.GAMMA.PUT(f,sigma,F7,t)</f>
+        <v>8.9763951445043927E-4</v>
+      </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J7" s="2">
+        <f t="array" ref="J7">_xll.XLL.BLACK.PUT.IMPLIED(f,H7,F7,t)</f>
+        <v>0.21231052715334578</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +588,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <f t="array" ref="D8">_xll.XLL.GAMMA.PUT(f,sigma,k,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -582,14 +599,20 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f t="array" ref="H8">_xll.XLL.GAMMA.PUT(f,sigma,F8,t)</f>
+        <v>1.4575439098829177E-3</v>
+      </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J8" s="2">
+        <f t="array" ref="J8">_xll.XLL.BLACK.PUT.IMPLIED(f,H8,F8,t)</f>
+        <v>0.21183817179416867</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>72</v>
       </c>
@@ -597,14 +620,20 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <f t="array" ref="H9">_xll.XLL.GAMMA.PUT(f,sigma,F9,t)</f>
+        <v>2.3228003245620993E-3</v>
+      </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J9" s="2">
+        <f t="array" ref="J9">_xll.XLL.BLACK.PUT.IMPLIED(f,H9,F9,t)</f>
+        <v>0.21137234937840421</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>73</v>
       </c>
@@ -612,14 +641,20 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f t="array" ref="H10">_xll.XLL.GAMMA.PUT(f,sigma,F10,t)</f>
+        <v>3.6352252638087446E-3</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J10" s="2">
+        <f t="array" ref="J10">_xll.XLL.BLACK.PUT.IMPLIED(f,H10,F10,t)</f>
+        <v>0.21091288331598537</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>74</v>
       </c>
@@ -627,14 +662,20 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <f t="array" ref="H11">_xll.XLL.GAMMA.PUT(f,sigma,F11,t)</f>
+        <v>5.590231529384676E-3</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J11" s="2">
+        <f t="array" ref="J11">_xll.XLL.BLACK.PUT.IMPLIED(f,H11,F11,t)</f>
+        <v>0.21045960410593448</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>75</v>
       </c>
@@ -642,14 +683,20 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <f t="array" ref="H12">_xll.XLL.GAMMA.PUT(f,sigma,F12,t)</f>
+        <v>8.451791248063445E-3</v>
+      </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J12" s="2">
+        <f t="array" ref="J12">_xll.XLL.BLACK.PUT.IMPLIED(f,H12,F12,t)</f>
+        <v>0.21001234896104137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>76</v>
       </c>
@@ -657,14 +704,20 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <f t="array" ref="H13">_xll.XLL.GAMMA.PUT(f,sigma,F13,t)</f>
+        <v>1.2569613235804633E-2</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J13" s="2">
+        <f t="array" ref="J13">_xll.XLL.BLACK.PUT.IMPLIED(f,H13,F13,t)</f>
+        <v>0.20957096145645532</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F14">
         <v>77</v>
       </c>
@@ -672,14 +725,20 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <f t="array" ref="H14">_xll.XLL.GAMMA.PUT(f,sigma,F14,t)</f>
+        <v>1.8398212800229241E-2</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J14" s="2">
+        <f t="array" ref="J14">_xll.XLL.BLACK.PUT.IMPLIED(f,H14,F14,t)</f>
+        <v>0.20913529120173258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>78</v>
       </c>
@@ -687,14 +746,20 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <f t="array" ref="H15">_xll.XLL.GAMMA.PUT(f,sigma,F15,t)</f>
+        <v>2.6517310308358133E-2</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J15" s="2">
+        <f t="array" ref="J15">_xll.XLL.BLACK.PUT.IMPLIED(f,H15,F15,t)</f>
+        <v>0.20870519353355413</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>79</v>
       </c>
@@ -702,14 +767,20 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <f t="array" ref="H16">_xll.XLL.GAMMA.PUT(f,sigma,F16,t)</f>
+        <v>3.7652736229766726E-2</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J16" s="2">
+        <f t="array" ref="J16">_xll.XLL.BLACK.PUT.IMPLIED(f,H16,F16,t)</f>
+        <v>0.20828052922744211</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>80</v>
       </c>
@@ -717,14 +788,20 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f t="array" ref="H17">_xll.XLL.GAMMA.PUT(f,sigma,F17,t)</f>
+        <v>5.2696767052352822E-2</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J17" s="2">
+        <f t="array" ref="J17">_xll.XLL.BLACK.PUT.IMPLIED(f,H17,F17,t)</f>
+        <v>0.20786116422816761</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>81</v>
       </c>
@@ -732,14 +809,20 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <f t="array" ref="H18">_xll.XLL.GAMMA.PUT(f,sigma,F18,t)</f>
+        <v>7.2726594958209656E-2</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J18" s="2">
+        <f t="array" ref="J18">_xll.XLL.BLACK.PUT.IMPLIED(f,H18,F18,t)</f>
+        <v>0.20744696939560114</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>82</v>
       </c>
@@ -747,14 +830,20 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f t="array" ref="H19">_xll.XLL.GAMMA.PUT(f,sigma,F19,t)</f>
+        <v>9.9019472852507118E-2</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J19" s="2">
+        <f t="array" ref="J19">_xll.XLL.BLACK.PUT.IMPLIED(f,H19,F19,t)</f>
+        <v>0.20703782026762049</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>83</v>
       </c>
@@ -762,14 +851,20 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f t="array" ref="H20">_xll.XLL.GAMMA.PUT(f,sigma,F20,t)</f>
+        <v>0.13306300235605129</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J20" s="2">
+        <f t="array" ref="J20">_xll.XLL.BLACK.PUT.IMPLIED(f,H20,F20,t)</f>
+        <v>0.20663359683496854</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>84</v>
       </c>
@@ -777,14 +872,20 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <f t="array" ref="H21">_xll.XLL.GAMMA.PUT(f,sigma,F21,t)</f>
+        <v>0.17655906810759348</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J21" s="2">
+        <f t="array" ref="J21">_xll.XLL.BLACK.PUT.IMPLIED(f,H21,F21,t)</f>
+        <v>0.20623418333210983</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>85</v>
       </c>
@@ -792,14 +893,20 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <f t="array" ref="H22">_xll.XLL.GAMMA.PUT(f,sigma,F22,t)</f>
+        <v>0.23142008133591663</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J22" s="2">
+        <f t="array" ref="J22">_xll.XLL.BLACK.PUT.IMPLIED(f,H22,F22,t)</f>
+        <v>0.20583946803790867</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>86</v>
       </c>
@@ -807,14 +914,20 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <f t="array" ref="H23">_xll.XLL.GAMMA.PUT(f,sigma,F23,t)</f>
+        <v>0.2997564826258321</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J23" s="2">
+        <f t="array" ref="J23">_xll.XLL.BLACK.PUT.IMPLIED(f,H23,F23,t)</f>
+        <v>0.20544934308943413</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>87</v>
       </c>
@@ -822,14 +935,20 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <f t="array" ref="H24">_xll.XLL.GAMMA.PUT(f,sigma,F24,t)</f>
+        <v>0.38385485890439863</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J24" s="2">
+        <f t="array" ref="J24">_xll.XLL.BLACK.PUT.IMPLIED(f,H24,F24,t)</f>
+        <v>0.20506370430575391</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>88</v>
       </c>
@@ -837,14 +956,20 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <f t="array" ref="H25">_xll.XLL.GAMMA.PUT(f,sigma,F25,t)</f>
+        <v>0.48614653111121164</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J25" s="2">
+        <f t="array" ref="J25">_xll.XLL.BLACK.PUT.IMPLIED(f,H25,F25,t)</f>
+        <v>0.20468245102133648</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>89</v>
       </c>
@@ -852,14 +977,20 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <f t="array" ref="H26">_xll.XLL.GAMMA.PUT(f,sigma,F26,t)</f>
+        <v>0.60916703344991596</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J26" s="2">
+        <f t="array" ref="J26">_xll.XLL.BLACK.PUT.IMPLIED(f,H26,F26,t)</f>
+        <v>0.20430548593030609</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>90</v>
       </c>
@@ -867,14 +998,20 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <f t="array" ref="H27">_xll.XLL.GAMMA.PUT(f,sigma,F27,t)</f>
+        <v>0.75550749047170562</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J27" s="2">
+        <f t="array" ref="J27">_xll.XLL.BLACK.PUT.IMPLIED(f,H27,F27,t)</f>
+        <v>0.20393271493704457</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>91</v>
       </c>
@@ -882,14 +1019,20 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <f t="array" ref="H28">_xll.XLL.GAMMA.PUT(f,sigma,F28,t)</f>
+        <v>0.92775945788765313</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J28" s="2">
+        <f t="array" ref="J28">_xll.XLL.BLACK.PUT.IMPLIED(f,H28,F28,t)</f>
+        <v>0.20356404701673117</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>92</v>
       </c>
@@ -897,14 +1040,20 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <f t="array" ref="H29">_xll.XLL.GAMMA.PUT(f,sigma,F29,t)</f>
+        <v>1.1284552798969685</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J29" s="2">
+        <f t="array" ref="J29">_xll.XLL.BLACK.PUT.IMPLIED(f,H29,F29,t)</f>
+        <v>0.20319939408279358</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>93</v>
       </c>
@@ -912,14 +1061,20 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <f t="array" ref="H30">_xll.XLL.GAMMA.PUT(f,sigma,F30,t)</f>
+        <v>1.360006387955174</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J30" s="2">
+        <f t="array" ref="J30">_xll.XLL.BLACK.PUT.IMPLIED(f,H30,F30,t)</f>
+        <v>0.20283867086138452</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>94</v>
       </c>
@@ -927,14 +1082,20 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <f t="array" ref="H31">_xll.XLL.GAMMA.PUT(f,sigma,F31,t)</f>
+        <v>1.62464219013426</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J31" s="2">
+        <f t="array" ref="J31">_xll.XLL.BLACK.PUT.IMPLIED(f,H31,F31,t)</f>
+        <v>0.20248179477256115</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>95</v>
       </c>
@@ -942,14 +1103,20 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <f t="array" ref="H32">_xll.XLL.GAMMA.PUT(f,sigma,F32,t)</f>
+        <v>1.9243522559585848</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J32" s="2">
+        <f t="array" ref="J32">_xll.XLL.BLACK.PUT.IMPLIED(f,H32,F32,t)</f>
+        <v>0.20212868581788687</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F33">
         <v>96</v>
       </c>
@@ -957,14 +1124,20 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <f t="array" ref="H33">_xll.XLL.GAMMA.PUT(f,sigma,F33,t)</f>
+        <v>2.2608343827001036</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J33" s="2">
+        <f t="array" ref="J33">_xll.XLL.BLACK.PUT.IMPLIED(f,H33,F33,t)</f>
+        <v>0.20177926647365566</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F34">
         <v>97</v>
       </c>
@@ -972,14 +1145,20 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <f t="array" ref="H34">_xll.XLL.GAMMA.PUT(f,sigma,F34,t)</f>
+        <v>2.6354508444062361</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J34" s="2">
+        <f t="array" ref="J34">_xll.XLL.BLACK.PUT.IMPLIED(f,H34,F34,t)</f>
+        <v>0.20143346158876071</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F35">
         <v>98</v>
       </c>
@@ -987,14 +1166,20 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <f t="array" ref="H35">_xll.XLL.GAMMA.PUT(f,sigma,F35,t)</f>
+        <v>3.0491946970869392</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J35" s="2">
+        <f t="array" ref="J35">_xll.XLL.BLACK.PUT.IMPLIED(f,H35,F35,t)</f>
+        <v>0.20109119829026401</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F36">
         <v>99</v>
       </c>
@@ -1002,14 +1187,20 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <f t="array" ref="H36">_xll.XLL.GAMMA.PUT(f,sigma,F36,t)</f>
+        <v>3.5026674760476624</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J36" s="2">
+        <f t="array" ref="J36">_xll.XLL.BLACK.PUT.IMPLIED(f,H36,F36,t)</f>
+        <v>0.20075240589094284</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F37">
         <v>100</v>
       </c>
@@ -1017,14 +1208,20 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <f t="array" ref="H37">_xll.XLL.GAMMA.PUT(f,sigma,F37,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J37" s="2">
+        <f t="array" ref="J37">_xll.XLL.BLACK.PUT.IMPLIED(f,H37,F37,t)</f>
+        <v>0.20041701580256077</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F38">
         <v>101</v>
       </c>
@@ -1032,14 +1229,20 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <f t="array" ref="H38">_xll.XLL.GAMMA.PUT(f,sigma,F38,t)</f>
+        <v>4.5291995002208836</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J38" s="2">
+        <f t="array" ref="J38">_xll.XLL.BLACK.PUT.IMPLIED(f,H38,F38,t)</f>
+        <v>0.20008496145309618</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F39">
         <v>102</v>
       </c>
@@ -1047,14 +1250,20 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <f t="array" ref="H39">_xll.XLL.GAMMA.PUT(f,sigma,F39,t)</f>
+        <v>5.1014732268873928</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J39" s="2">
+        <f t="array" ref="J39">_xll.XLL.BLACK.PUT.IMPLIED(f,H39,F39,t)</f>
+        <v>0.19975617820979266</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F40">
         <v>103</v>
       </c>
@@ -1062,14 +1271,20 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <f t="array" ref="H40">_xll.XLL.GAMMA.PUT(f,sigma,F40,t)</f>
+        <v>5.7119430607959316</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J40" s="2">
+        <f t="array" ref="J40">_xll.XLL.BLACK.PUT.IMPLIED(f,H40,F40,t)</f>
+        <v>0.19943060330278106</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F41">
         <v>104</v>
       </c>
@@ -1077,14 +1292,20 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <f t="array" ref="H41">_xll.XLL.GAMMA.PUT(f,sigma,F41,t)</f>
+        <v>6.359334058132589</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J41" s="2">
+        <f t="array" ref="J41">_xll.XLL.BLACK.PUT.IMPLIED(f,H41,F41,t)</f>
+        <v>0.19910817575424916</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F42">
         <v>105</v>
       </c>
@@ -1092,14 +1313,20 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <f t="array" ref="H42">_xll.XLL.GAMMA.PUT(f,sigma,F42,t)</f>
+        <v>7.0420844428201121</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J42" s="2">
+        <f t="array" ref="J42">_xll.XLL.BLACK.PUT.IMPLIED(f,H42,F42,t)</f>
+        <v>0.19878883631142771</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F43">
         <v>106</v>
       </c>
@@ -1107,14 +1334,20 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <f t="array" ref="H43">_xll.XLL.GAMMA.PUT(f,sigma,F43,t)</f>
+        <v>7.7583918958759028</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J43" s="2">
+        <f t="array" ref="J43">_xll.XLL.BLACK.PUT.IMPLIED(f,H43,F43,t)</f>
+        <v>0.19847252738148907</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F44">
         <v>107</v>
       </c>
@@ -1122,14 +1355,20 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <f t="array" ref="H44">_xll.XLL.GAMMA.PUT(f,sigma,F44,t)</f>
+        <v>8.5062630478467582</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J44" s="2">
+        <f t="array" ref="J44">_xll.XLL.BLACK.PUT.IMPLIED(f,H44,F44,t)</f>
+        <v>0.19815919297022394</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F45">
         <v>108</v>
       </c>
@@ -1137,14 +1376,20 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <f t="array" ref="H45">_xll.XLL.GAMMA.PUT(f,sigma,F45,t)</f>
+        <v>9.2835641106318576</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J45" s="2">
+        <f t="array" ref="J45">_xll.XLL.BLACK.PUT.IMPLIED(f,H45,F45,t)</f>
+        <v>0.19784877862311953</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F46">
         <v>109</v>
       </c>
@@ -1152,14 +1397,20 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <f t="array" ref="H46">_xll.XLL.GAMMA.PUT(f,sigma,F46,t)</f>
+        <v>10.088070737440773</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J46" s="2">
+        <f t="array" ref="J46">_xll.XLL.BLACK.PUT.IMPLIED(f,H46,F46,t)</f>
+        <v>0.19754123136892979</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F47">
         <v>110</v>
       </c>
@@ -1167,14 +1418,20 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <f t="array" ref="H47">_xll.XLL.GAMMA.PUT(f,sigma,F47,t)</f>
+        <v>10.917515436164138</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J47" s="2">
+        <f t="array" ref="J47">_xll.XLL.BLACK.PUT.IMPLIED(f,H47,F47,t)</f>
+        <v>0.19723649966720683</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F48">
         <v>111</v>
       </c>
@@ -1182,14 +1439,20 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <f t="array" ref="H48">_xll.XLL.GAMMA.PUT(f,sigma,F48,t)</f>
+        <v>11.7696311573022</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J48" s="2">
+        <f t="array" ref="J48">_xll.XLL.BLACK.PUT.IMPLIED(f,H48,F48,t)</f>
+        <v>0.19693453335599928</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>112</v>
       </c>
@@ -1197,14 +1460,20 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <f t="array" ref="H49">_xll.XLL.GAMMA.PUT(f,sigma,F49,t)</f>
+        <v>12.64219000763228</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J49" s="2">
+        <f t="array" ref="J49">_xll.XLL.BLACK.PUT.IMPLIED(f,H49,F49,t)</f>
+        <v>0.19663528360386642</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>113</v>
       </c>
@@ -1212,14 +1481,20 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <f t="array" ref="H50">_xll.XLL.GAMMA.PUT(f,sigma,F50,t)</f>
+        <v>13.533036380390683</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J50" s="2">
+        <f t="array" ref="J50">_xll.XLL.BLACK.PUT.IMPLIED(f,H50,F50,t)</f>
+        <v>0.19633870286258381</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>114</v>
       </c>
@@ -1227,14 +1502,20 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <f t="array" ref="H51">_xll.XLL.GAMMA.PUT(f,sigma,F51,t)</f>
+        <v>14.44011412103788</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J51" s="2">
+        <f t="array" ref="J51">_xll.XLL.BLACK.PUT.IMPLIED(f,H51,F51,t)</f>
+        <v>0.1960447448226682</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F52">
         <v>115</v>
       </c>
@@ -1242,14 +1523,20 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <f t="array" ref="H52">_xll.XLL.GAMMA.PUT(f,sigma,F52,t)</f>
+        <v>15.361487647106756</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J52" s="2">
+        <f t="array" ref="J52">_xll.XLL.BLACK.PUT.IMPLIED(f,H52,F52,t)</f>
+        <v>0.19575336437070706</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F53">
         <v>116</v>
       </c>
@@ -1257,14 +1544,20 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <f t="array" ref="H53">_xll.XLL.GAMMA.PUT(f,sigma,F53,t)</f>
+        <v>16.29535719875858</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J53" s="2">
+        <f t="array" ref="J53">_xll.XLL.BLACK.PUT.IMPLIED(f,H53,F53,t)</f>
+        <v>0.19546451754846336</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F54">
         <v>117</v>
       </c>
@@ -1272,14 +1565,20 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <f t="array" ref="H54">_xll.XLL.GAMMA.PUT(f,sigma,F54,t)</f>
+        <v>17.240068605568112</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J54" s="2">
+        <f t="array" ref="J54">_xll.XLL.BLACK.PUT.IMPLIED(f,H54,F54,t)</f>
+        <v>0.19517816151349443</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F55">
         <v>118</v>
       </c>
@@ -1287,14 +1586,20 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <f t="array" ref="H55">_xll.XLL.GAMMA.PUT(f,sigma,F55,t)</f>
+        <v>18.194118111378401</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J55" s="2">
+        <f t="array" ref="J55">_xll.XLL.BLACK.PUT.IMPLIED(f,H55,F55,t)</f>
+        <v>0.19489425450188741</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F56">
         <v>119</v>
       </c>
@@ -1302,14 +1607,20 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <f t="array" ref="H56">_xll.XLL.GAMMA.PUT(f,sigma,F56,t)</f>
+        <v>19.156152903317306</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J56" s="2">
+        <f t="array" ref="J56">_xll.XLL.BLACK.PUT.IMPLIED(f,H56,F56,t)</f>
+        <v>0.1946127557918918</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F57">
         <v>120</v>
       </c>
@@ -1317,14 +1628,20 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <f t="array" ref="H57">_xll.XLL.GAMMA.PUT(f,sigma,F57,t)</f>
+        <v>20.12496804698003</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J57" s="2">
+        <f t="array" ref="J57">_xll.XLL.BLACK.PUT.IMPLIED(f,H57,F57,t)</f>
+        <v>0.19433362566998369</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F58">
         <v>121</v>
       </c>
@@ -1332,14 +1649,20 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <f t="array" ref="H58">_xll.XLL.GAMMA.PUT(f,sigma,F58,t)</f>
+        <v>21.099500543233205</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J58" s="2">
+        <f t="array" ref="J58">_xll.XLL.BLACK.PUT.IMPLIED(f,H58,F58,t)</f>
+        <v>0.19405682539738733</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F59">
         <v>122</v>
       </c>
@@ -1347,14 +1670,20 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2">
+        <f t="array" ref="H59">_xll.XLL.GAMMA.PUT(f,sigma,F59,t)</f>
+        <v>22.078821200533753</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J59" s="2">
+        <f t="array" ref="J59">_xll.XLL.BLACK.PUT.IMPLIED(f,H59,F59,t)</f>
+        <v>0.19378231717859215</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F60">
         <v>123</v>
       </c>
@@ -1362,14 +1691,20 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <f t="array" ref="H60">_xll.XLL.GAMMA.PUT(f,sigma,F60,t)</f>
+        <v>23.062124968007112</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J60" s="2">
+        <f t="array" ref="J60">_xll.XLL.BLACK.PUT.IMPLIED(f,H60,F60,t)</f>
+        <v>0.19351006413067628</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F61">
         <v>124</v>
       </c>
@@ -1377,14 +1712,20 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <f t="array" ref="H61">_xll.XLL.GAMMA.PUT(f,sigma,F61,t)</f>
+        <v>24.04872030681635</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J61" s="2">
+        <f t="array" ref="J61">_xll.XLL.BLACK.PUT.IMPLIED(f,H61,F61,t)</f>
+        <v>0.19324003025443812</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>125</v>
       </c>
@@ -1392,14 +1733,20 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <f t="array" ref="H62">_xll.XLL.GAMMA.PUT(f,sigma,F62,t)</f>
+        <v>25.038018097943663</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J62" s="2">
+        <f t="array" ref="J62">_xll.XLL.BLACK.PUT.IMPLIED(f,H62,F62,t)</f>
+        <v>0.19297218040625874</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F63">
         <v>126</v>
       </c>
@@ -1407,14 +1754,20 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <f t="array" ref="H63">_xll.XLL.GAMMA.PUT(f,sigma,F63,t)</f>
+        <v>26.029520499927315</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J63" s="2">
+        <f t="array" ref="J63">_xll.XLL.BLACK.PUT.IMPLIED(f,H63,F63,t)</f>
+        <v>0.19270648027075188</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F64">
         <v>127</v>
       </c>
@@ -1422,14 +1775,20 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <f t="array" ref="H64">_xll.XLL.GAMMA.PUT(f,sigma,F64,t)</f>
+        <v>27.022810085691404</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J64" s="2">
+        <f t="array" ref="J64">_xll.XLL.BLACK.PUT.IMPLIED(f,H64,F64,t)</f>
+        <v>0.19244289633549364</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F65">
         <v>128</v>
       </c>
@@ -1437,14 +1796,20 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2">
+        <f t="array" ref="H65">_xll.XLL.GAMMA.PUT(f,sigma,F65,t)</f>
+        <v>28.017539507525299</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J65" s="2">
+        <f t="array" ref="J65">_xll.XLL.BLACK.PUT.IMPLIED(f,H65,F65,t)</f>
+        <v>0.19218139586568742</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F66">
         <v>129</v>
       </c>
@@ -1452,14 +1817,20 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <f t="array" ref="H66">_xll.XLL.GAMMA.PUT(f,sigma,F66,t)</f>
+        <v>29.013421866483313</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J66" s="2">
+        <f t="array" ref="J66">_xll.XLL.BLACK.PUT.IMPLIED(f,H66,F66,t)</f>
+        <v>0.19192194688040323</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F67">
         <v>130</v>
       </c>
@@ -1467,14 +1838,22 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <f t="array" ref="H67">_xll.XLL.GAMMA.PUT(f,sigma,F67,t)</f>
+        <v>30.010221898820959</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2">
+        <f t="array" ref="J67">_xll.XLL.BLACK.PUT.IMPLIED(f,H67,F67,t)</f>
+        <v>0.19166451812980059</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\source\repos\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E009E815-C276-433B-AD8B-B6F2599D0FED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -477,14 +475,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +502,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,7 +510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,7 +530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
@@ -545,7 +547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -559,14 +561,20 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F7,t)</f>
+        <v>8.9763951445043927E-4</v>
+      </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J7" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H7, F7, t)</f>
+        <v>0.21231052715334578</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +582,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,k,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -582,14 +593,20 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F8,t)</f>
+        <v>1.4575439098829177E-3</v>
+      </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J8" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H8, F8, t)</f>
+        <v>0.21183817179416867</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F9">
         <v>72</v>
       </c>
@@ -597,14 +614,20 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F9,t)</f>
+        <v>2.3228003245620993E-3</v>
+      </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J9" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H9, F9, t)</f>
+        <v>0.21137234937840421</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F10">
         <v>73</v>
       </c>
@@ -612,14 +635,20 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F10,t)</f>
+        <v>3.6352252638087446E-3</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J10" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H10, F10, t)</f>
+        <v>0.21091288331598537</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F11">
         <v>74</v>
       </c>
@@ -627,14 +656,20 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F11,t)</f>
+        <v>5.590231529384676E-3</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J11" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H11, F11, t)</f>
+        <v>0.21045960410593448</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F12">
         <v>75</v>
       </c>
@@ -642,14 +677,20 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F12,t)</f>
+        <v>8.451791248063445E-3</v>
+      </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J12" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H12, F12, t)</f>
+        <v>0.21001234896104137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>76</v>
       </c>
@@ -657,14 +698,20 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F13,t)</f>
+        <v>1.2569613235804633E-2</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J13" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H13, F13, t)</f>
+        <v>0.20957096145645532</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F14">
         <v>77</v>
       </c>
@@ -672,14 +719,20 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F14,t)</f>
+        <v>1.8398212800229241E-2</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J14" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H14, F14, t)</f>
+        <v>0.20913529120173258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>78</v>
       </c>
@@ -687,14 +740,20 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F15,t)</f>
+        <v>2.6517310308358133E-2</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J15" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H15, F15, t)</f>
+        <v>0.20870519353355413</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F16">
         <v>79</v>
       </c>
@@ -702,14 +761,20 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F16,t)</f>
+        <v>3.7652736229766726E-2</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J16" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H16, F16, t)</f>
+        <v>0.20828052922744211</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>80</v>
       </c>
@@ -717,14 +782,20 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F17,t)</f>
+        <v>5.2696767052352822E-2</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J17" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H17, F17, t)</f>
+        <v>0.20786116422816761</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>81</v>
       </c>
@@ -732,14 +803,20 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F18,t)</f>
+        <v>7.2726594958209656E-2</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J18" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H18, F18, t)</f>
+        <v>0.20744696939560114</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>82</v>
       </c>
@@ -747,14 +824,20 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F19,t)</f>
+        <v>9.9019472852507118E-2</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J19" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H19, F19, t)</f>
+        <v>0.20703782026762049</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F20">
         <v>83</v>
       </c>
@@ -762,14 +845,20 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F20,t)</f>
+        <v>0.13306300235605129</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J20" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H20, F20, t)</f>
+        <v>0.20663359683496854</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F21">
         <v>84</v>
       </c>
@@ -777,14 +866,20 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F21,t)</f>
+        <v>0.17655906810759392</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J21" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H21, F21, t)</f>
+        <v>0.20623418333211044</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F22">
         <v>85</v>
       </c>
@@ -792,14 +887,20 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F22,t)</f>
+        <v>0.23142008133591663</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J22" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H22, F22, t)</f>
+        <v>0.20583946803790867</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F23">
         <v>86</v>
       </c>
@@ -807,14 +908,20 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F23,t)</f>
+        <v>0.2997564826258321</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J23" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H23, F23, t)</f>
+        <v>0.20544934308943413</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F24">
         <v>87</v>
       </c>
@@ -822,14 +929,20 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F24,t)</f>
+        <v>0.38385485890439863</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J24" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H24, F24, t)</f>
+        <v>0.20506370430575391</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F25">
         <v>88</v>
       </c>
@@ -837,14 +950,20 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F25,t)</f>
+        <v>0.48614653111121164</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J25" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H25, F25, t)</f>
+        <v>0.20468245102133648</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F26">
         <v>89</v>
       </c>
@@ -852,14 +971,20 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F26,t)</f>
+        <v>0.60916703344991596</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J26" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H26, F26, t)</f>
+        <v>0.20430548593030609</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F27">
         <v>90</v>
       </c>
@@ -867,14 +992,20 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F27,t)</f>
+        <v>0.75550749047170562</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J27" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H27, F27, t)</f>
+        <v>0.20393271493704457</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F28">
         <v>91</v>
       </c>
@@ -882,14 +1013,20 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F28,t)</f>
+        <v>0.92775945788765313</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J28" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H28, F28, t)</f>
+        <v>0.20356404701673117</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F29">
         <v>92</v>
       </c>
@@ -897,14 +1034,20 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F29,t)</f>
+        <v>1.1284552798969685</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J29" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H29, F29, t)</f>
+        <v>0.20319939408279358</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F30">
         <v>93</v>
       </c>
@@ -912,14 +1055,20 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F30,t)</f>
+        <v>1.360006387955174</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J30" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H30, F30, t)</f>
+        <v>0.20283867086138452</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F31">
         <v>94</v>
       </c>
@@ -927,14 +1076,20 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F31,t)</f>
+        <v>1.62464219013426</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J31" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H31, F31, t)</f>
+        <v>0.20248179477256115</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F32">
         <v>95</v>
       </c>
@@ -942,14 +1097,20 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F32,t)</f>
+        <v>1.9243522559585848</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J32" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H32, F32, t)</f>
+        <v>0.20212868581788687</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F33">
         <v>96</v>
       </c>
@@ -957,14 +1118,20 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F33,t)</f>
+        <v>2.2608343827001036</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J33" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H33, F33, t)</f>
+        <v>0.20177926647365566</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F34">
         <v>97</v>
       </c>
@@ -972,14 +1139,20 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F34,t)</f>
+        <v>2.6354508444062361</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J34" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H34, F34, t)</f>
+        <v>0.20143346158876071</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F35">
         <v>98</v>
       </c>
@@ -987,14 +1160,20 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F35,t)</f>
+        <v>3.0491946970869392</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J35" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H35, F35, t)</f>
+        <v>0.20109119829026401</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F36">
         <v>99</v>
       </c>
@@ -1002,14 +1181,20 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F36,t)</f>
+        <v>3.5026674760476624</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J36" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H36, F36, t)</f>
+        <v>0.20075240589094284</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F37">
         <v>100</v>
       </c>
@@ -1017,14 +1202,20 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F37,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J37" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H37, F37, t)</f>
+        <v>0.20041701580256077</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F38">
         <v>101</v>
       </c>
@@ -1032,14 +1223,20 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F38,t)</f>
+        <v>4.5291995002208836</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J38" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H38, F38, t)</f>
+        <v>0.20008496145309618</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F39">
         <v>102</v>
       </c>
@@ -1047,14 +1244,20 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F39,t)</f>
+        <v>5.1014732268873928</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J39" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H39, F39, t)</f>
+        <v>0.19975617820979266</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F40">
         <v>103</v>
       </c>
@@ -1062,14 +1265,20 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F40,t)</f>
+        <v>5.7119430607959316</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J40" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H40, F40, t)</f>
+        <v>0.19943060330278106</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F41">
         <v>104</v>
       </c>
@@ -1077,14 +1286,20 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F41,t)</f>
+        <v>6.359334058132589</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J41" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H41, F41, t)</f>
+        <v>0.19910817575424916</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F42">
         <v>105</v>
       </c>
@@ -1092,14 +1307,20 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F42,t)</f>
+        <v>7.0420844428201121</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J42" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H42, F42, t)</f>
+        <v>0.19878883631142852</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F43">
         <v>106</v>
       </c>
@@ -1107,14 +1328,20 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F43,t)</f>
+        <v>7.7583918958759028</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J43" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H43, F43, t)</f>
+        <v>0.19847252738148907</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F44">
         <v>107</v>
       </c>
@@ -1122,14 +1349,20 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F44,t)</f>
+        <v>8.5062630478467582</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J44" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H44, F44, t)</f>
+        <v>0.19815919297022394</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F45">
         <v>108</v>
       </c>
@@ -1137,14 +1370,20 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F45,t)</f>
+        <v>9.2835641106318576</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J45" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H45, F45, t)</f>
+        <v>0.19784877862311953</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F46">
         <v>109</v>
       </c>
@@ -1152,14 +1391,20 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F46,t)</f>
+        <v>10.088070737440773</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J46" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H46, F46, t)</f>
+        <v>0.19754123136892979</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F47">
         <v>110</v>
       </c>
@@ -1167,14 +1412,20 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F47,t)</f>
+        <v>10.917515436164138</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J47" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H47, F47, t)</f>
+        <v>0.19723649966720683</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F48">
         <v>111</v>
       </c>
@@ -1182,14 +1433,20 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F48,t)</f>
+        <v>11.7696311573022</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J48" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H48, F48, t)</f>
+        <v>0.19693453335599928</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F49">
         <v>112</v>
       </c>
@@ -1197,14 +1454,20 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F49,t)</f>
+        <v>12.64219000763228</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J49" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H49, F49, t)</f>
+        <v>0.19663528360386642</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F50">
         <v>113</v>
       </c>
@@ -1212,14 +1475,20 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F50,t)</f>
+        <v>13.533036380390683</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J50" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H50, F50, t)</f>
+        <v>0.19633870286258381</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F51">
         <v>114</v>
       </c>
@@ -1227,14 +1496,20 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F51,t)</f>
+        <v>14.44011412103788</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J51" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H51, F51, t)</f>
+        <v>0.1960447448226682</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F52">
         <v>115</v>
       </c>
@@ -1242,14 +1517,20 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F52,t)</f>
+        <v>15.361487647106756</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J52" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H52, F52, t)</f>
+        <v>0.19575336437070706</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F53">
         <v>116</v>
       </c>
@@ -1257,14 +1538,20 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F53,t)</f>
+        <v>16.29535719875858</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J53" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H53, F53, t)</f>
+        <v>0.19546451754846336</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F54">
         <v>117</v>
       </c>
@@ -1272,14 +1559,20 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F54,t)</f>
+        <v>17.240068605568112</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J54" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H54, F54, t)</f>
+        <v>0.19517816151349443</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F55">
         <v>118</v>
       </c>
@@ -1287,14 +1580,20 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F55,t)</f>
+        <v>18.194118111378401</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J55" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H55, F55, t)</f>
+        <v>0.19489425450188741</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F56">
         <v>119</v>
       </c>
@@ -1302,14 +1601,20 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F56,t)</f>
+        <v>19.156152903317306</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J56" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H56, F56, t)</f>
+        <v>0.1946127557918918</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F57">
         <v>120</v>
       </c>
@@ -1317,14 +1622,20 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F57,t)</f>
+        <v>20.12496804698003</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J57" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H57, F57, t)</f>
+        <v>0.19433362566998369</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F58">
         <v>121</v>
       </c>
@@ -1332,14 +1643,20 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F58,t)</f>
+        <v>21.099500543233205</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J58" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H58, F58, t)</f>
+        <v>0.19405682539738733</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F59">
         <v>122</v>
       </c>
@@ -1347,14 +1664,20 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F59,t)</f>
+        <v>22.078821200533753</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J59" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H59, F59, t)</f>
+        <v>0.19378231717859215</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F60">
         <v>123</v>
       </c>
@@ -1362,14 +1685,20 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F60,t)</f>
+        <v>23.062124968007112</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J60" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H60, F60, t)</f>
+        <v>0.19351006413067628</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F61">
         <v>124</v>
       </c>
@@ -1377,14 +1706,20 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F61,t)</f>
+        <v>24.04872030681635</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J61" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H61, F61, t)</f>
+        <v>0.19324003025443812</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F62">
         <v>125</v>
       </c>
@@ -1392,14 +1727,20 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F62,t)</f>
+        <v>25.038018097943663</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J62" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H62, F62, t)</f>
+        <v>0.19297218040625874</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F63">
         <v>126</v>
       </c>
@@ -1407,14 +1748,20 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F63,t)</f>
+        <v>26.029520499927315</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J63" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H63, F63, t)</f>
+        <v>0.19270648027075188</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F64">
         <v>127</v>
       </c>
@@ -1422,14 +1769,20 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F64,t)</f>
+        <v>27.022810085691404</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J64" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H64, F64, t)</f>
+        <v>0.19244289633549364</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F65">
         <v>128</v>
       </c>
@@ -1437,14 +1790,20 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F65,t)</f>
+        <v>28.017539507525299</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J65" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H65, F65, t)</f>
+        <v>0.19218139586568742</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F66">
         <v>129</v>
       </c>
@@ -1452,14 +1811,20 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F66,t)</f>
+        <v>29.013421866483313</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J66" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H66, F66, t)</f>
+        <v>0.19192194688040323</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F67">
         <v>130</v>
       </c>
@@ -1467,12 +1832,18 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F67,t)</f>
+        <v>30.010221898820959</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H67, F67, t)</f>
+        <v>0.19166451812980059</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal2222\source\repos\keithalewis\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiang\source\repos\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECEC16-5D22-4C9F-9072-BB4EA1AA88DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD92044-150E-4E26-8C11-128E815492E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="15390" windowHeight="9982" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="1284" yWindow="900" windowWidth="17280" windowHeight="8964" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +37,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -477,14 +475,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1841A-FD92-4362-9698-89095B3322F2}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J67"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,7 +500,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,7 +508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -528,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
@@ -545,7 +545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -559,14 +559,20 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F7,t)</f>
+        <v>8.9763951445043927E-4</v>
+      </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J7" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H7,F7,t)</f>
+        <v>0.21231052715334578</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,7 +580,10 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,k,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="F8">
         <v>71</v>
       </c>
@@ -582,14 +591,20 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F8,t)</f>
+        <v>1.4575439098829177E-3</v>
+      </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J8" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H8,F8,t)</f>
+        <v>0.21183817179416867</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F9">
         <v>72</v>
       </c>
@@ -597,14 +612,20 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F9,t)</f>
+        <v>2.3228003245620993E-3</v>
+      </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J9" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H9,F9,t)</f>
+        <v>0.21137234937840421</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F10">
         <v>73</v>
       </c>
@@ -612,14 +633,20 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F10,t)</f>
+        <v>3.6352252638087446E-3</v>
+      </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J10" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H10,F10,t)</f>
+        <v>0.21091288331598537</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F11">
         <v>74</v>
       </c>
@@ -627,14 +654,20 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F11,t)</f>
+        <v>5.590231529384676E-3</v>
+      </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J11" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H11,F11,t)</f>
+        <v>0.21045960410593448</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F12">
         <v>75</v>
       </c>
@@ -642,14 +675,20 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F12,t)</f>
+        <v>8.451791248063445E-3</v>
+      </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J12" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H12,F12,t)</f>
+        <v>0.21001234896104137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>76</v>
       </c>
@@ -657,14 +696,20 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F13,t)</f>
+        <v>1.2569613235804633E-2</v>
+      </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J13" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H13,F13,t)</f>
+        <v>0.20957096145645532</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F14">
         <v>77</v>
       </c>
@@ -672,14 +717,20 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F14,t)</f>
+        <v>1.8398212800229241E-2</v>
+      </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J14" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H14,F14,t)</f>
+        <v>0.20913529120173258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>78</v>
       </c>
@@ -687,14 +738,20 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F15,t)</f>
+        <v>2.6517310308358133E-2</v>
+      </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="J15" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H15,F15,t)</f>
+        <v>0.20870519353355413</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F16">
         <v>79</v>
       </c>
@@ -702,14 +759,20 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F16,t)</f>
+        <v>3.7652736229766726E-2</v>
+      </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J16" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H16,F16,t)</f>
+        <v>0.20828052922744211</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>80</v>
       </c>
@@ -717,14 +780,20 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F17,t)</f>
+        <v>5.2696767052352822E-2</v>
+      </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J17" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H17,F17,t)</f>
+        <v>0.20786116422816761</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>81</v>
       </c>
@@ -732,14 +801,20 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F18,t)</f>
+        <v>7.2726594958209656E-2</v>
+      </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J18" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H18,F18,t)</f>
+        <v>0.20744696939560114</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>82</v>
       </c>
@@ -747,14 +822,20 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F19,t)</f>
+        <v>9.9019472852507118E-2</v>
+      </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J19" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H19,F19,t)</f>
+        <v>0.20703782026762049</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F20">
         <v>83</v>
       </c>
@@ -762,14 +843,20 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F20,t)</f>
+        <v>0.13306300235605129</v>
+      </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J20" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H20,F20,t)</f>
+        <v>0.20663359683496854</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F21">
         <v>84</v>
       </c>
@@ -777,14 +864,20 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F21,t)</f>
+        <v>0.17655906810759392</v>
+      </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J21" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H21,F21,t)</f>
+        <v>0.20623418333211044</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F22">
         <v>85</v>
       </c>
@@ -792,14 +885,20 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F22,t)</f>
+        <v>0.23142008133591663</v>
+      </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J22" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H22,F22,t)</f>
+        <v>0.20583946803790867</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F23">
         <v>86</v>
       </c>
@@ -807,14 +906,20 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F23,t)</f>
+        <v>0.2997564826258321</v>
+      </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J23" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H23,F23,t)</f>
+        <v>0.20544934308943413</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F24">
         <v>87</v>
       </c>
@@ -822,14 +927,20 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F24,t)</f>
+        <v>0.38385485890439863</v>
+      </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J24" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H24,F24,t)</f>
+        <v>0.20506370430575391</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F25">
         <v>88</v>
       </c>
@@ -837,14 +948,20 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F25,t)</f>
+        <v>0.48614653111121164</v>
+      </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J25" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H25,F25,t)</f>
+        <v>0.20468245102133648</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F26">
         <v>89</v>
       </c>
@@ -852,14 +969,20 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F26,t)</f>
+        <v>0.60916703344991596</v>
+      </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J26" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H26,F26,t)</f>
+        <v>0.20430548593030609</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F27">
         <v>90</v>
       </c>
@@ -867,14 +990,20 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F27,t)</f>
+        <v>0.75550749047170562</v>
+      </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J27" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H27,F27,t)</f>
+        <v>0.20393271493704457</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F28">
         <v>91</v>
       </c>
@@ -882,14 +1011,20 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F28,t)</f>
+        <v>0.92775945788765313</v>
+      </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J28" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H28,F28,t)</f>
+        <v>0.20356404701673117</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F29">
         <v>92</v>
       </c>
@@ -897,14 +1032,20 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F29,t)</f>
+        <v>1.1284552798969685</v>
+      </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J29" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H29,F29,t)</f>
+        <v>0.20319939408279358</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F30">
         <v>93</v>
       </c>
@@ -912,14 +1053,20 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F30,t)</f>
+        <v>1.360006387955174</v>
+      </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J30" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H30,F30,t)</f>
+        <v>0.20283867086138452</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F31">
         <v>94</v>
       </c>
@@ -927,14 +1074,20 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F31,t)</f>
+        <v>1.62464219013426</v>
+      </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J31" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H31,F31,t)</f>
+        <v>0.20248179477256115</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F32">
         <v>95</v>
       </c>
@@ -942,14 +1095,20 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F32,t)</f>
+        <v>1.9243522559585848</v>
+      </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J32" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H32,F32,t)</f>
+        <v>0.20212868581788687</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F33">
         <v>96</v>
       </c>
@@ -957,14 +1116,20 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F33,t)</f>
+        <v>2.2608343827001036</v>
+      </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J33" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H33,F33,t)</f>
+        <v>0.20177926647365566</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F34">
         <v>97</v>
       </c>
@@ -972,14 +1137,20 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F34,t)</f>
+        <v>2.6354508444062361</v>
+      </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J34" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H34,F34,t)</f>
+        <v>0.20143346158876071</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F35">
         <v>98</v>
       </c>
@@ -987,14 +1158,20 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F35,t)</f>
+        <v>3.0491946970869392</v>
+      </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J35" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H35,F35,t)</f>
+        <v>0.20109119829026401</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F36">
         <v>99</v>
       </c>
@@ -1002,14 +1179,20 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F36,t)</f>
+        <v>3.5026674760476624</v>
+      </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J36" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H36,F36,t)</f>
+        <v>0.20075240589094284</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F37">
         <v>100</v>
       </c>
@@ -1017,14 +1200,20 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F37,t)</f>
+        <v>3.9960690164368557</v>
+      </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J37" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H37,F37,t)</f>
+        <v>0.20041701580256077</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F38">
         <v>101</v>
       </c>
@@ -1032,14 +1221,20 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F38,t)</f>
+        <v>4.5291995002208836</v>
+      </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J38" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H38,F38,t)</f>
+        <v>0.20008496145309618</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F39">
         <v>102</v>
       </c>
@@ -1047,14 +1242,20 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F39,t)</f>
+        <v>5.1014732268873928</v>
+      </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J39" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H39,F39,t)</f>
+        <v>0.19975617820979266</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F40">
         <v>103</v>
       </c>
@@ -1062,14 +1263,20 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F40,t)</f>
+        <v>5.7119430607959316</v>
+      </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J40" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H40,F40,t)</f>
+        <v>0.19943060330278106</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F41">
         <v>104</v>
       </c>
@@ -1077,14 +1284,20 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F41,t)</f>
+        <v>6.359334058132589</v>
+      </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J41" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H41,F41,t)</f>
+        <v>0.19910817575424916</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F42">
         <v>105</v>
       </c>
@@ -1092,14 +1305,20 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F42,t)</f>
+        <v>7.0420844428201121</v>
+      </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J42" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H42,F42,t)</f>
+        <v>0.19878883631142852</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F43">
         <v>106</v>
       </c>
@@ -1107,14 +1326,20 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F43,t)</f>
+        <v>7.7583918958759028</v>
+      </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J43" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H43,F43,t)</f>
+        <v>0.19847252738148907</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F44">
         <v>107</v>
       </c>
@@ -1122,14 +1347,20 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F44,t)</f>
+        <v>8.5062630478467582</v>
+      </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J44" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H44,F44,t)</f>
+        <v>0.19815919297022394</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F45">
         <v>108</v>
       </c>
@@ -1137,14 +1368,20 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F45,t)</f>
+        <v>9.2835641106318576</v>
+      </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J45" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H45,F45,t)</f>
+        <v>0.19784877862311953</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F46">
         <v>109</v>
       </c>
@@ -1152,14 +1389,20 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F46,t)</f>
+        <v>10.088070737440773</v>
+      </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J46" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H46,F46,t)</f>
+        <v>0.19754123136892979</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F47">
         <v>110</v>
       </c>
@@ -1167,14 +1410,20 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F47,t)</f>
+        <v>10.917515436164138</v>
+      </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J47" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H47,F47,t)</f>
+        <v>0.19723649966720683</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F48">
         <v>111</v>
       </c>
@@ -1182,14 +1431,20 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F48,t)</f>
+        <v>11.7696311573022</v>
+      </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J48" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H48,F48,t)</f>
+        <v>0.19693453335599928</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F49">
         <v>112</v>
       </c>
@@ -1197,14 +1452,20 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F49,t)</f>
+        <v>12.64219000763228</v>
+      </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J49" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H49,F49,t)</f>
+        <v>0.19663528360386642</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F50">
         <v>113</v>
       </c>
@@ -1212,14 +1473,20 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F50,t)</f>
+        <v>13.533036380390683</v>
+      </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J50" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H50,F50,t)</f>
+        <v>0.19633870286258381</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F51">
         <v>114</v>
       </c>
@@ -1227,14 +1494,20 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F51,t)</f>
+        <v>14.44011412103788</v>
+      </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J51" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H51,F51,t)</f>
+        <v>0.1960447448226682</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F52">
         <v>115</v>
       </c>
@@ -1242,14 +1515,20 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F52,t)</f>
+        <v>15.361487647106756</v>
+      </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J52" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H52,F52,t)</f>
+        <v>0.19575336437070706</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F53">
         <v>116</v>
       </c>
@@ -1257,14 +1536,20 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F53,t)</f>
+        <v>16.29535719875858</v>
+      </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J53" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H53,F53,t)</f>
+        <v>0.19546451754846336</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F54">
         <v>117</v>
       </c>
@@ -1272,14 +1557,20 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F54,t)</f>
+        <v>17.240068605568112</v>
+      </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J54" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H54,F54,t)</f>
+        <v>0.19517816151349443</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F55">
         <v>118</v>
       </c>
@@ -1287,14 +1578,20 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F55,t)</f>
+        <v>18.194118111378401</v>
+      </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J55" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H55,F55,t)</f>
+        <v>0.19489425450188741</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F56">
         <v>119</v>
       </c>
@@ -1302,14 +1599,20 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F56,t)</f>
+        <v>19.156152903317306</v>
+      </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J56" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H56,F56,t)</f>
+        <v>0.1946127557918918</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F57">
         <v>120</v>
       </c>
@@ -1317,14 +1620,20 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F57,t)</f>
+        <v>20.12496804698003</v>
+      </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J57" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H57,F57,t)</f>
+        <v>0.19433362566998369</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F58">
         <v>121</v>
       </c>
@@ -1332,14 +1641,20 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F58,t)</f>
+        <v>21.099500543233205</v>
+      </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J58" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H58,F58,t)</f>
+        <v>0.19405682539738733</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F59">
         <v>122</v>
       </c>
@@ -1347,14 +1662,20 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F59,t)</f>
+        <v>22.078821200533753</v>
+      </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J59" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H59,F59,t)</f>
+        <v>0.19378231717859215</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F60">
         <v>123</v>
       </c>
@@ -1362,14 +1683,20 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F60,t)</f>
+        <v>23.062124968007112</v>
+      </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J60" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H60,F60,t)</f>
+        <v>0.19351006413067628</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F61">
         <v>124</v>
       </c>
@@ -1377,14 +1704,20 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F61,t)</f>
+        <v>24.04872030681635</v>
+      </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J61" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H61,F61,t)</f>
+        <v>0.19324003025443812</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F62">
         <v>125</v>
       </c>
@@ -1392,14 +1725,20 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F62,t)</f>
+        <v>25.038018097943663</v>
+      </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J62" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H62,F62,t)</f>
+        <v>0.19297218040625874</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F63">
         <v>126</v>
       </c>
@@ -1407,14 +1746,20 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F63,t)</f>
+        <v>26.029520499927315</v>
+      </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J63" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H63,F63,t)</f>
+        <v>0.19270648027075188</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F64">
         <v>127</v>
       </c>
@@ -1422,14 +1767,20 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F64,t)</f>
+        <v>27.022810085691404</v>
+      </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J64" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H64,F64,t)</f>
+        <v>0.19244289633549364</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F65">
         <v>128</v>
       </c>
@@ -1437,14 +1788,20 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F65,t)</f>
+        <v>28.017539507525299</v>
+      </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J65" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H65,F65,t)</f>
+        <v>0.19218139586568742</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F66">
         <v>129</v>
       </c>
@@ -1452,14 +1809,20 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F66,t)</f>
+        <v>29.013421866483313</v>
+      </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="J66" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H66,F66,t)</f>
+        <v>0.19192194688040323</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F67">
         <v>130</v>
       </c>
@@ -1467,12 +1830,18 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <f>_xll.XLL.GAMMA.PUT(f,sigma,F67,t)</f>
+        <v>30.010221898820959</v>
+      </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f,H67,F67,t)</f>
+        <v>0.19166451812980059</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william\Source\Repos\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494D9FF1-00C1-F84C-A481-8360A128CF87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61584CEA-4E49-481C-A43F-A2EC71AA472B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="32500" windowHeight="20540" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="32720" windowHeight="19300" xr2:uid="{59ABE93D-F590-4F15-A965-72CEF18EA92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="sigma">Sheet1!$C$3</definedName>
     <definedName name="t">Sheet1!$C$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +29,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +36,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -478,15 +475,15 @@
   <dimension ref="B2:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,7 +499,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -510,7 +507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -530,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
@@ -547,7 +544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -561,20 +558,20 @@
         <f t="array" ref="G7">_xll.XLL.BLACK.PUT(f, sigma, F7, t)</f>
         <v>3.7401735689890359E-4</v>
       </c>
-      <c r="H7" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H7" ca="1">XLL.GAMMA.PUT(f, sigma, F7, t)</f>
-        <v>#NAME?</v>
+      <c r="H7" s="2" cm="1">
+        <f t="array" ref="H7">_xll.XLL.GAMMA.PUT(f, sigma, F7, t)</f>
+        <v>3.963201819854302</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" ref="I7">_xll.XLL.BLACK.PUT.IMPLIED(f, G7, F7, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J7" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J7" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G7, F7, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H7, F7, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -582,9 +579,9 @@
         <f t="array" ref="C8">_xll.XLL.BLACK.PUT(f, sigma, k, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="D8" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">XLL.GAMMA.PUT(f, sigma, k, t)</f>
-        <v>#NAME?</v>
+      <c r="D8" s="2" cm="1">
+        <f t="array" ref="D8">_xll.XLL.GAMMA.PUT(f, sigma, k, t)</f>
+        <v>8.3639460511410366</v>
       </c>
       <c r="F8">
         <v>71</v>
@@ -593,20 +590,20 @@
         <f t="array" ref="G8">_xll.XLL.BLACK.PUT(f, sigma, F8, t)</f>
         <v>6.6190274539823513E-4</v>
       </c>
-      <c r="H8" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H8" ca="1">XLL.GAMMA.PUT(f, sigma, F8, t)</f>
-        <v>#NAME?</v>
+      <c r="H8" s="2" cm="1">
+        <f t="array" ref="H8">_xll.XLL.GAMMA.PUT(f, sigma, F8, t)</f>
+        <v>4.0959284543641168</v>
       </c>
       <c r="I8" cm="1">
         <f t="array" ref="I8">_xll.XLL.BLACK.PUT.IMPLIED(f, G8, F8, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J8" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J8" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G8, F8, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H8, F8, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F9">
         <v>72</v>
       </c>
@@ -614,20 +611,20 @@
         <f t="array" ref="G9">_xll.XLL.BLACK.PUT(f, sigma, F9, t)</f>
         <v>1.1416834541484455E-3</v>
       </c>
-      <c r="H9" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H9" ca="1">XLL.GAMMA.PUT(f, sigma, F9, t)</f>
-        <v>#NAME?</v>
+      <c r="H9" s="2" cm="1">
+        <f t="array" ref="H9">_xll.XLL.GAMMA.PUT(f, sigma, F9, t)</f>
+        <v>4.2301222194637873</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" ref="I9">_xll.XLL.BLACK.PUT.IMPLIED(f, G9, F9, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J9" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J9" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G9, F9, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H9, F9, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F10">
         <v>73</v>
       </c>
@@ -635,20 +632,20 @@
         <f t="array" ref="G10">_xll.XLL.BLACK.PUT(f, sigma, F10, t)</f>
         <v>1.921340827967688E-3</v>
       </c>
-      <c r="H10" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H10" ca="1">XLL.GAMMA.PUT(f, sigma, F10, t)</f>
-        <v>#NAME?</v>
+      <c r="H10" s="2" cm="1">
+        <f t="array" ref="H10">_xll.XLL.GAMMA.PUT(f, sigma, F10, t)</f>
+        <v>4.3657279214190208</v>
       </c>
       <c r="I10" cm="1">
         <f t="array" ref="I10">_xll.XLL.BLACK.PUT.IMPLIED(f, G10, F10, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J10" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J10" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G10, F10, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H10, F10, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F11">
         <v>74</v>
       </c>
@@ -656,20 +653,20 @@
         <f t="array" ref="G11">_xll.XLL.BLACK.PUT(f, sigma, F11, t)</f>
         <v>3.1579703105526491E-3</v>
       </c>
-      <c r="H11" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H11" ca="1">XLL.GAMMA.PUT(f, sigma, F11, t)</f>
-        <v>#NAME?</v>
+      <c r="H11" s="2" cm="1">
+        <f t="array" ref="H11">_xll.XLL.GAMMA.PUT(f, sigma, F11, t)</f>
+        <v>4.5026902671583588</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" ref="I11">_xll.XLL.BLACK.PUT.IMPLIED(f, G11, F11, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J11" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J11" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G11, F11, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H11, F11, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F12">
         <v>75</v>
       </c>
@@ -677,20 +674,20 @@
         <f t="array" ref="G12">_xll.XLL.BLACK.PUT(f, sigma, F12, t)</f>
         <v>5.0742901084088743E-3</v>
       </c>
-      <c r="H12" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H12" ca="1">XLL.GAMMA.PUT(f, sigma, F12, t)</f>
-        <v>#NAME?</v>
+      <c r="H12" s="2" cm="1">
+        <f t="array" ref="H12">_xll.XLL.GAMMA.PUT(f, sigma, F12, t)</f>
+        <v>4.6409539279453753</v>
       </c>
       <c r="I12" cm="1">
         <f t="array" ref="I12">_xll.XLL.BLACK.PUT.IMPLIED(f, G12, F12, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J12" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J12" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G12, F12, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H12, F12, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F13">
         <v>76</v>
       </c>
@@ -698,20 +695,20 @@
         <f t="array" ref="G13">_xll.XLL.BLACK.PUT(f, sigma, F13, t)</f>
         <v>7.978238008985894E-3</v>
       </c>
-      <c r="H13" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H13" ca="1">XLL.GAMMA.PUT(f, sigma, F13, t)</f>
-        <v>#NAME?</v>
+      <c r="H13" s="2" cm="1">
+        <f t="array" ref="H13">_xll.XLL.GAMMA.PUT(f, sigma, F13, t)</f>
+        <v>4.7804636003104859</v>
       </c>
       <c r="I13" cm="1">
         <f t="array" ref="I13">_xll.XLL.BLACK.PUT.IMPLIED(f, G13, F13, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J13" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J13" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G13, F13, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H13, F13, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F14">
         <v>77</v>
       </c>
@@ -719,20 +716,20 @@
         <f t="array" ref="G14">_xll.XLL.BLACK.PUT(f, sigma, F14, t)</f>
         <v>1.228534023985528E-2</v>
       </c>
-      <c r="H14" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H14" ca="1">XLL.GAMMA.PUT(f, sigma, F14, t)</f>
-        <v>#NAME?</v>
+      <c r="H14" s="2" cm="1">
+        <f t="array" ref="H14">_xll.XLL.GAMMA.PUT(f, sigma, F14, t)</f>
+        <v>4.9211640642892869</v>
       </c>
       <c r="I14" cm="1">
         <f t="array" ref="I14">_xll.XLL.BLACK.PUT.IMPLIED(f, G14, F14, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J14" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J14" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G14, F14, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H14, F14, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F15">
         <v>78</v>
       </c>
@@ -740,20 +737,20 @@
         <f t="array" ref="G15">_xll.XLL.BLACK.PUT(f, sigma, F15, t)</f>
         <v>1.8543180097092993E-2</v>
       </c>
-      <c r="H15" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H15" ca="1">XLL.GAMMA.PUT(f, sigma, F15, t)</f>
-        <v>#NAME?</v>
+      <c r="H15" s="2" cm="1">
+        <f t="array" ref="H15">_xll.XLL.GAMMA.PUT(f, sigma, F15, t)</f>
+        <v>5.0630002390167244</v>
       </c>
       <c r="I15" cm="1">
         <f t="array" ref="I15">_xll.XLL.BLACK.PUT.IMPLIED(f, G15, F15, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J15" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J15" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G15, F15, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H15, F15, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F16">
         <v>79</v>
       </c>
@@ -761,20 +758,20 @@
         <f t="array" ref="G16">_xll.XLL.BLACK.PUT(f, sigma, F16, t)</f>
         <v>2.7456906561138417E-2</v>
       </c>
-      <c r="H16" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H16" ca="1">XLL.GAMMA.PUT(f, sigma, F16, t)</f>
-        <v>#NAME?</v>
+      <c r="H16" s="2" cm="1">
+        <f t="array" ref="H16">_xll.XLL.GAMMA.PUT(f, sigma, F16, t)</f>
+        <v>5.2059172357285295</v>
       </c>
       <c r="I16" cm="1">
         <f t="array" ref="I16">_xll.XLL.BLACK.PUT.IMPLIED(f, G16, F16, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J16" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G16, F16, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H16, F16, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F17">
         <v>80</v>
       </c>
@@ -782,20 +779,20 @@
         <f t="array" ref="G17">_xll.XLL.BLACK.PUT(f, sigma, F17, t)</f>
         <v>3.991434342184963E-2</v>
       </c>
-      <c r="H17" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H17" ca="1">XLL.GAMMA.PUT(f, sigma, F17, t)</f>
-        <v>#NAME?</v>
+      <c r="H17" s="2" cm="1">
+        <f t="array" ref="H17">_xll.XLL.GAMMA.PUT(f, sigma, F17, t)</f>
+        <v>5.3498604082231669</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">_xll.XLL.BLACK.PUT.IMPLIED(f, G17, F17, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J17" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G17, F17, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H17, F17, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F18">
         <v>81</v>
       </c>
@@ -803,20 +800,20 @@
         <f t="array" ref="G18">_xll.XLL.BLACK.PUT(f, sigma, F18, t)</f>
         <v>5.7008934088089269E-2</v>
       </c>
-      <c r="H18" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H18" ca="1">XLL.GAMMA.PUT(f, sigma, F18, t)</f>
-        <v>#NAME?</v>
+      <c r="H18" s="2" cm="1">
+        <f t="array" ref="H18">_xll.XLL.GAMMA.PUT(f, sigma, F18, t)</f>
+        <v>5.4947754008391092</v>
       </c>
       <c r="I18" cm="1">
         <f t="array" ref="I18">_xll.XLL.BLACK.PUT.IMPLIED(f, G18, F18, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J18" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J18" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G18, F18, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H18, F18, t)</f>
+        <v>0.71640333802561273</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F19">
         <v>82</v>
       </c>
@@ -824,20 +821,20 @@
         <f t="array" ref="G19">_xll.XLL.BLACK.PUT(f, sigma, F19, t)</f>
         <v>8.0058534547871929E-2</v>
       </c>
-      <c r="H19" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H19" ca="1">XLL.GAMMA.PUT(f, sigma, F19, t)</f>
-        <v>#NAME?</v>
+      <c r="H19" s="2" cm="1">
+        <f t="array" ref="H19">_xll.XLL.GAMMA.PUT(f, sigma, F19, t)</f>
+        <v>5.6406081940035344</v>
       </c>
       <c r="I19" cm="1">
         <f t="array" ref="I19">_xll.XLL.BLACK.PUT.IMPLIED(f, G19, F19, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J19" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J19" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G19, F19, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H19, F19, t)</f>
+        <v>0.70313972572283223</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F20">
         <v>83</v>
       </c>
@@ -845,20 +842,20 @@
         <f t="array" ref="G20">_xll.XLL.BLACK.PUT(f, sigma, F20, t)</f>
         <v>0.1106179901946911</v>
       </c>
-      <c r="H20" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H20" ca="1">XLL.GAMMA.PUT(f, sigma, F20, t)</f>
-        <v>#NAME?</v>
+      <c r="H20" s="2" cm="1">
+        <f t="array" ref="H20">_xll.XLL.GAMMA.PUT(f, sigma, F20, t)</f>
+        <v>5.7873051474096338</v>
       </c>
       <c r="I20" cm="1">
         <f t="array" ref="I20">_xll.XLL.BLACK.PUT.IMPLIED(f, G20, F20, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J20" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J20" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G20, F20, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H20, F20, t)</f>
+        <v>0.6896996744555709</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F21">
         <v>84</v>
       </c>
@@ -866,20 +863,20 @@
         <f t="array" ref="G21">_xll.XLL.BLACK.PUT(f, sigma, F21, t)</f>
         <v>0.15048353300942807</v>
       </c>
-      <c r="H21" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H21" ca="1">XLL.GAMMA.PUT(f, sigma, F21, t)</f>
-        <v>#NAME?</v>
+      <c r="H21" s="2" cm="1">
+        <f t="array" ref="H21">_xll.XLL.GAMMA.PUT(f, sigma, F21, t)</f>
+        <v>5.9348130408805035</v>
       </c>
       <c r="I21" cm="1">
         <f t="array" ref="I21">_xll.XLL.BLACK.PUT.IMPLIED(f, G21, F21, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J21" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G21, F21, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H21, F21, t)</f>
+        <v>0.67607438118793084</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F22">
         <v>85</v>
       </c>
@@ -887,20 +884,20 @@
         <f t="array" ref="G22">_xll.XLL.BLACK.PUT(f, sigma, F22, t)</f>
         <v>0.20168732797265232</v>
       </c>
-      <c r="H22" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H22" ca="1">XLL.GAMMA.PUT(f, sigma, F22, t)</f>
-        <v>#NAME?</v>
+      <c r="H22" s="2" cm="1">
+        <f t="array" ref="H22">_xll.XLL.GAMMA.PUT(f, sigma, F22, t)</f>
+        <v>6.0830791129783481</v>
       </c>
       <c r="I22" cm="1">
         <f t="array" ref="I22">_xll.XLL.BLACK.PUT.IMPLIED(f, G22, F22, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J22" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J22" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G22, F22, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H22, F22, t)</f>
+        <v>0.66225424411378231</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F23">
         <v>86</v>
       </c>
@@ -908,20 +905,20 @@
         <f t="array" ref="G23">_xll.XLL.BLACK.PUT(f, sigma, F23, t)</f>
         <v>0.266480974586214</v>
       </c>
-      <c r="H23" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H23" ca="1">XLL.GAMMA.PUT(f, sigma, F23, t)</f>
-        <v>#NAME?</v>
+      <c r="H23" s="2" cm="1">
+        <f t="array" ref="H23">_xll.XLL.GAMMA.PUT(f, sigma, F23, t)</f>
+        <v>6.2320510974181875</v>
       </c>
       <c r="I23" cm="1">
         <f t="array" ref="I23">_xll.XLL.BLACK.PUT.IMPLIED(f, G23, F23, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J23" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J23" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G23, F23, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H23, F23, t)</f>
+        <v>0.64822874243217898</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F24">
         <v>87</v>
       </c>
@@ -929,20 +926,20 @@
         <f t="array" ref="G24">_xll.XLL.BLACK.PUT(f, sigma, F24, t)</f>
         <v>0.34730740212793254</v>
       </c>
-      <c r="H24" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H24" ca="1">XLL.GAMMA.PUT(f, sigma, F24, t)</f>
-        <v>#NAME?</v>
+      <c r="H24" s="2" cm="1">
+        <f t="array" ref="H24">_xll.XLL.GAMMA.PUT(f, sigma, F24, t)</f>
+        <v>6.3816772573454141</v>
       </c>
       <c r="I24" cm="1">
         <f t="array" ref="I24">_xll.XLL.BLACK.PUT.IMPLIED(f, G24, F24, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J24" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J24" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G24, F24, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H24, F24, t)</f>
+        <v>0.63398629343802493</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F25">
         <v>88</v>
       </c>
@@ -950,20 +947,20 @@
         <f t="array" ref="G25">_xll.XLL.BLACK.PUT(f, sigma, F25, t)</f>
         <v>0.44676133725329947</v>
       </c>
-      <c r="H25" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H25" ca="1">XLL.GAMMA.PUT(f, sigma, F25, t)</f>
-        <v>#NAME?</v>
+      <c r="H25" s="2" cm="1">
+        <f t="array" ref="H25">_xll.XLL.GAMMA.PUT(f, sigma, F25, t)</f>
+        <v>6.5319064175370087</v>
       </c>
       <c r="I25" cm="1">
         <f t="array" ref="I25">_xll.XLL.BLACK.PUT.IMPLIED(f, G25, F25, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J25" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J25" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G25, F25, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H25, F25, t)</f>
+        <v>0.61951408136100827</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F26">
         <v>89</v>
       </c>
@@ -971,20 +968,20 @@
         <f t="array" ref="G26">_xll.XLL.BLACK.PUT(f, sigma, F26, t)</f>
         <v>0.56753930674006803</v>
       </c>
-      <c r="H26" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H26" ca="1">XLL.GAMMA.PUT(f, sigma, F26, t)</f>
-        <v>#NAME?</v>
+      <c r="H26" s="2" cm="1">
+        <f t="array" ref="H26">_xll.XLL.GAMMA.PUT(f, sigma, F26, t)</f>
+        <v>6.6826879945858453</v>
       </c>
       <c r="I26" cm="1">
         <f t="array" ref="I26">_xll.XLL.BLACK.PUT.IMPLIED(f, G26, F26, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J26" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J26" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G26, F26, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H26, F26, t)</f>
+        <v>0.60479785070110403</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F27">
         <v>90</v>
       </c>
@@ -992,20 +989,20 @@
         <f t="array" ref="G27">_xll.XLL.BLACK.PUT(f, sigma, F27, t)</f>
         <v>0.71238089607367172</v>
       </c>
-      <c r="H27" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H27" ca="1">XLL.GAMMA.PUT(f, sigma, F27, t)</f>
-        <v>#NAME?</v>
+      <c r="H27" s="2" cm="1">
+        <f t="array" ref="H27">_xll.XLL.GAMMA.PUT(f, sigma, F27, t)</f>
+        <v>6.8339720251278306</v>
       </c>
       <c r="I27" cm="1">
         <f t="array" ref="I27">_xll.XLL.BLACK.PUT.IMPLIED(f, G27, F27, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J27" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J27" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G27, F27, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H27, F27, t)</f>
+        <v>0.58982165450627688</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F28">
         <v>91</v>
       </c>
@@ -1013,20 +1010,20 @@
         <f t="array" ref="G28">_xll.XLL.BLACK.PUT(f, sigma, F28, t)</f>
         <v>0.88400364647703356</v>
       </c>
-      <c r="H28" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H28" ca="1">XLL.GAMMA.PUT(f, sigma, F28, t)</f>
-        <v>#NAME?</v>
+      <c r="H28" s="2" cm="1">
+        <f t="array" ref="H28">_xll.XLL.GAMMA.PUT(f, sigma, F28, t)</f>
+        <v>6.9857091921710941</v>
       </c>
       <c r="I28" cm="1">
         <f t="array" ref="I28">_xll.XLL.BLACK.PUT.IMPLIED(f, G28, F28, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J28" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J28" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G28, F28, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H28, F28, t)</f>
+        <v>0.574567544846869</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F29">
         <v>92</v>
       </c>
@@ -1034,20 +1031,20 @@
         <f t="array" ref="G29">_xll.XLL.BLACK.PUT(f, sigma, F29, t)</f>
         <v>1.0850344779622993</v>
       </c>
-      <c r="H29" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H29" ca="1">XLL.GAMMA.PUT(f, sigma, F29, t)</f>
-        <v>#NAME?</v>
+      <c r="H29" s="2" cm="1">
+        <f t="array" ref="H29">_xll.XLL.GAMMA.PUT(f, sigma, F29, t)</f>
+        <v>7.137850849586111</v>
       </c>
       <c r="I29" cm="1">
         <f t="array" ref="I29">_xll.XLL.BLACK.PUT.IMPLIED(f, G29, F29, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J29" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J29" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G29, F29, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H29, F29, t)</f>
+        <v>0.55901518825223762</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F30">
         <v>93</v>
       </c>
@@ -1055,20 +1052,20 @@
         <f t="array" ref="G30">_xll.XLL.BLACK.PUT(f, sigma, F30, t)</f>
         <v>1.3179408286409853</v>
       </c>
-      <c r="H30" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H30" ca="1">XLL.GAMMA.PUT(f, sigma, F30, t)</f>
-        <v>#NAME?</v>
+      <c r="H30" s="2" cm="1">
+        <f t="array" ref="H30">_xll.XLL.GAMMA.PUT(f, sigma, F30, t)</f>
+        <v>7.2903490448155601</v>
       </c>
       <c r="I30" cm="1">
         <f t="array" ref="I30">_xll.XLL.BLACK.PUT.IMPLIED(f, G30, F30, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J30" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J30" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G30, F30, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J30" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H30, F30, t)</f>
+        <v>0.54314138245544541</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F31">
         <v>94</v>
       </c>
@@ -1076,20 +1073,20 @@
         <f t="array" ref="G31">_xll.XLL.BLACK.PUT(f, sigma, F31, t)</f>
         <v>1.584964775689393</v>
       </c>
-      <c r="H31" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H31" ca="1">XLL.GAMMA.PUT(f, sigma, F31, t)</f>
-        <v>#NAME?</v>
+      <c r="H31" s="2" cm="1">
+        <f t="array" ref="H31">_xll.XLL.GAMMA.PUT(f, sigma, F31, t)</f>
+        <v>7.4431565398616533</v>
       </c>
       <c r="I31" cm="1">
         <f t="array" ref="I31">_xll.XLL.BLACK.PUT.IMPLIED(f, G31, F31, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J31" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J31" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G31, F31, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H31, F31, t)</f>
+        <v>0.52691944144289049</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F32">
         <v>95</v>
       </c>
@@ -1097,20 +1094,20 @@
         <f t="array" ref="G32">_xll.XLL.BLACK.PUT(f, sigma, F32, t)</f>
         <v>1.8880632480607211</v>
       </c>
-      <c r="H32" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H32" ca="1">XLL.GAMMA.PUT(f, sigma, F32, t)</f>
-        <v>#NAME?</v>
+      <c r="H32" s="2" cm="1">
+        <f t="array" ref="H32">_xll.XLL.GAMMA.PUT(f, sigma, F32, t)</f>
+        <v>7.5962268306086047</v>
       </c>
       <c r="I32" cm="1">
         <f t="array" ref="I32">_xll.XLL.BLACK.PUT.IMPLIED(f, G32, F32, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J32" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J32" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G32, F32, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H32, F32, t)</f>
+        <v>0.51031840191366418</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F33">
         <v>96</v>
       </c>
@@ -1118,20 +1115,20 @@
         <f t="array" ref="G33">_xll.XLL.BLACK.PUT(f, sigma, F33, t)</f>
         <v>2.2288570738163216</v>
       </c>
-      <c r="H33" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H33" ca="1">XLL.GAMMA.PUT(f, sigma, F33, t)</f>
-        <v>#NAME?</v>
+      <c r="H33" s="2" cm="1">
+        <f t="array" ref="H33">_xll.XLL.GAMMA.PUT(f, sigma, F33, t)</f>
+        <v>7.7495141645368832</v>
       </c>
       <c r="I33" cm="1">
         <f t="array" ref="I33">_xll.XLL.BLACK.PUT.IMPLIED(f, G33, F33, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J33" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J33" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G33, F33, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H33, F33, t)</f>
+        <v>0.49330198314201251</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F34">
         <v>97</v>
       </c>
@@ -1139,20 +1136,20 @@
         <f t="array" ref="G34">_xll.XLL.BLACK.PUT(f, sigma, F34, t)</f>
         <v>2.6085910627585847</v>
       </c>
-      <c r="H34" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H34" ca="1">XLL.GAMMA.PUT(f, sigma, F34, t)</f>
-        <v>#NAME?</v>
+      <c r="H34" s="2" cm="1">
+        <f t="array" ref="H34">_xll.XLL.GAMMA.PUT(f, sigma, F34, t)</f>
+        <v>7.9029735568853345</v>
       </c>
       <c r="I34" cm="1">
         <f t="array" ref="I34">_xll.XLL.BLACK.PUT.IMPLIED(f, G34, F34, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J34" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J34" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G34, F34, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H34, F34, t)</f>
+        <v>0.47582719933496326</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F35">
         <v>98</v>
       </c>
@@ -1160,20 +1157,20 @@
         <f t="array" ref="G35">_xll.XLL.BLACK.PUT(f, sigma, F35, t)</f>
         <v>3.0281066582734937</v>
       </c>
-      <c r="H35" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H35" ca="1">XLL.GAMMA.PUT(f, sigma, F35, t)</f>
-        <v>#NAME?</v>
+      <c r="H35" s="2" cm="1">
+        <f t="array" ref="H35">_xll.XLL.GAMMA.PUT(f, sigma, F35, t)</f>
+        <v>8.0565608053163622</v>
       </c>
       <c r="I35" cm="1">
         <f t="array" ref="I35">_xll.XLL.BLACK.PUT.IMPLIED(f, G35, F35, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J35" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J35" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G35, F35, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H35, F35, t)</f>
+        <v>0.45784247081990675</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F36">
         <v>99</v>
       </c>
@@ -1181,20 +1178,20 @@
         <f t="array" ref="G36">_xll.XLL.BLACK.PUT(f, sigma, F36, t)</f>
         <v>3.4878279587501879</v>
       </c>
-      <c r="H36" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H36" ca="1">XLL.GAMMA.PUT(f, sigma, F36, t)</f>
-        <v>#NAME?</v>
+      <c r="H36" s="2" cm="1">
+        <f t="array" ref="H36">_xll.XLL.GAMMA.PUT(f, sigma, F36, t)</f>
+        <v>8.2102325031386751</v>
       </c>
       <c r="I36" cm="1">
         <f t="array" ref="I36">_xll.XLL.BLACK.PUT.IMPLIED(f, G36, F36, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J36" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J36" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G36, F36, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J36" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H36, F36, t)</f>
+        <v>0.43928499300691598</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F37">
         <v>100</v>
       </c>
@@ -1202,20 +1199,20 @@
         <f t="array" ref="G37">_xll.XLL.BLACK.PUT(f, sigma, F37, t)</f>
         <v>3.987761167674492</v>
       </c>
-      <c r="H37" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H37" ca="1">XLL.GAMMA.PUT(f, sigma, F37, t)</f>
-        <v>#NAME?</v>
+      <c r="H37" s="2" cm="1">
+        <f t="array" ref="H37">_xll.XLL.GAMMA.PUT(f, sigma, F37, t)</f>
+        <v>8.3639460511410366</v>
       </c>
       <c r="I37" cm="1">
         <f t="array" ref="I37">_xll.XLL.BLACK.PUT.IMPLIED(f, G37, F37, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J37" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J37" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G37, F37, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J37" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H37, F37, t)</f>
+        <v>0.42007697179433634</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F38">
         <v>101</v>
       </c>
@@ -1223,20 +1220,20 @@
         <f t="array" ref="G38">_xll.XLL.BLACK.PUT(f, sigma, F38, t)</f>
         <v>4.5275068370385512</v>
       </c>
-      <c r="H38" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H38" ca="1">XLL.GAMMA.PUT(f, sigma, F38, t)</f>
-        <v>#NAME?</v>
+      <c r="H38" s="2" cm="1">
+        <f t="array" ref="H38">_xll.XLL.GAMMA.PUT(f, sigma, F38, t)</f>
+        <v>8.5176596680896104</v>
       </c>
       <c r="I38" cm="1">
         <f t="array" ref="I38">_xll.XLL.BLACK.PUT.IMPLIED(f, G38, F38, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J38" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J38" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G38, F38, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J38" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H38, F38, t)</f>
+        <v>0.40012006415520585</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F39">
         <v>102</v>
       </c>
@@ -1244,20 +1241,20 @@
         <f t="array" ref="G39">_xll.XLL.BLACK.PUT(f, sigma, F39, t)</f>
         <v>5.1062836665495652</v>
       </c>
-      <c r="H39" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H39" ca="1">XLL.GAMMA.PUT(f, sigma, F39, t)</f>
-        <v>#NAME?</v>
+      <c r="H39" s="2" cm="1">
+        <f t="array" ref="H39">_xll.XLL.GAMMA.PUT(f, sigma, F39, t)</f>
+        <v>8.6713323999406136</v>
       </c>
       <c r="I39" cm="1">
         <f t="array" ref="I39">_xll.XLL.BLACK.PUT.IMPLIED(f, G39, F39, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J39" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J39" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G39, F39, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H39, F39, t)</f>
+        <v>0.3792868521554863</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F40">
         <v>103</v>
       </c>
@@ -1265,20 +1262,20 @@
         <f t="array" ref="G40">_xll.XLL.BLACK.PUT(f, sigma, F40, t)</f>
         <v>5.7229621445706016</v>
       </c>
-      <c r="H40" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H40" ca="1">XLL.GAMMA.PUT(f, sigma, F40, t)</f>
-        <v>#NAME?</v>
+      <c r="H40" s="2" cm="1">
+        <f t="array" ref="H40">_xll.XLL.GAMMA.PUT(f, sigma, F40, t)</f>
+        <v>8.8249241278188322</v>
       </c>
       <c r="I40" cm="1">
         <f t="array" ref="I40">_xll.XLL.BLACK.PUT.IMPLIED(f, G40, F40, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J40" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J40" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G40, F40, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J40" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H40, F40, t)</f>
+        <v>0.3574071515897167</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F41">
         <v>104</v>
       </c>
@@ -1286,20 +1283,20 @@
         <f t="array" ref="G41">_xll.XLL.BLACK.PUT(f, sigma, F41, t)</f>
         <v>6.3761059854440632</v>
       </c>
-      <c r="H41" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H41" ca="1">XLL.GAMMA.PUT(f, sigma, F41, t)</f>
-        <v>#NAME?</v>
+      <c r="H41" s="2" cm="1">
+        <f t="array" ref="H41">_xll.XLL.GAMMA.PUT(f, sigma, F41, t)</f>
+        <v>8.9783955748116888</v>
       </c>
       <c r="I41" cm="1">
         <f t="array" ref="I41">_xll.XLL.BLACK.PUT.IMPLIED(f, G41, F41, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J41" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J41" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G41, F41, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H41, F41, t)</f>
+        <v>0.3342447268968548</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F42">
         <v>105</v>
       </c>
@@ -1307,20 +1304,20 @@
         <f t="array" ref="G42">_xll.XLL.BLACK.PUT(f, sigma, F42, t)</f>
         <v>7.0640191378988533</v>
       </c>
-      <c r="H42" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H42" ca="1">XLL.GAMMA.PUT(f, sigma, F42, t)</f>
-        <v>#NAME?</v>
+      <c r="H42" s="2" cm="1">
+        <f t="array" ref="H42">_xll.XLL.GAMMA.PUT(f, sigma, F42, t)</f>
+        <v>9.1317083116274755</v>
       </c>
       <c r="I42" cm="1">
         <f t="array" ref="I42">_xll.XLL.BLACK.PUT.IMPLIED(f, G42, F42, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J42" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J42" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G42, F42, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H42, F42, t)</f>
+        <v>0.3094546571620741</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F43">
         <v>106</v>
       </c>
@@ -1328,20 +1325,20 @@
         <f t="array" ref="G43">_xll.XLL.BLACK.PUT(f, sigma, F43, t)</f>
         <v>7.7847961044341929</v>
       </c>
-      <c r="H43" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H43" ca="1">XLL.GAMMA.PUT(f, sigma, F43, t)</f>
-        <v>#NAME?</v>
+      <c r="H43" s="2" cm="1">
+        <f t="array" ref="H43">_xll.XLL.GAMMA.PUT(f, sigma, F43, t)</f>
+        <v>9.2848247611651971</v>
       </c>
       <c r="I43" cm="1">
         <f t="array" ref="I43">_xll.XLL.BLACK.PUT.IMPLIED(f, G43, F43, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J43" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J43" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G43, F43, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J43" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H43, F43, t)</f>
+        <v>0.28249716690176441</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F44">
         <v>107</v>
       </c>
@@ -1349,20 +1346,20 @@
         <f t="array" ref="G44">_xll.XLL.BLACK.PUT(f, sigma, F44, t)</f>
         <v>8.5363734057617648</v>
       </c>
-      <c r="H44" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H44" ca="1">XLL.GAMMA.PUT(f, sigma, F44, t)</f>
-        <v>#NAME?</v>
+      <c r="H44" s="2" cm="1">
+        <f t="array" ref="H44">_xll.XLL.GAMMA.PUT(f, sigma, F44, t)</f>
+        <v>9.4377082020425558</v>
       </c>
       <c r="I44" cm="1">
         <f t="array" ref="I44">_xll.XLL.BLACK.PUT.IMPLIED(f, G44, F44, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J44" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J44" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G44, F44, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J44" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H44, F44, t)</f>
+        <v>0.2524372114553462</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F45">
         <v>108</v>
       </c>
@@ -1370,20 +1367,20 @@
         <f t="array" ref="G45">_xll.XLL.BLACK.PUT(f, sigma, F45, t)</f>
         <v>9.3165802243033653</v>
       </c>
-      <c r="H45" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H45" ca="1">XLL.GAMMA.PUT(f, sigma, F45, t)</f>
-        <v>#NAME?</v>
+      <c r="H45" s="2" cm="1">
+        <f t="array" ref="H45">_xll.XLL.GAMMA.PUT(f, sigma, F45, t)</f>
+        <v>9.5903227711275569</v>
       </c>
       <c r="I45" cm="1">
         <f t="array" ref="I45">_xll.XLL.BLACK.PUT.IMPLIED(f, G45, F45, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J45" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J45" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G45, F45, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J45" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H45, F45, t)</f>
+        <v>0.21736388100450091</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F46">
         <v>109</v>
       </c>
@@ -1391,20 +1388,20 @@
         <f t="array" ref="G46">_xll.XLL.BLACK.PUT(f, sigma, F46, t)</f>
         <v>10.123186539019287</v>
       </c>
-      <c r="H46" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H46" ca="1">XLL.GAMMA.PUT(f, sigma, F46, t)</f>
-        <v>#NAME?</v>
+      <c r="H46" s="2" cm="1">
+        <f t="array" ref="H46">_xll.XLL.GAMMA.PUT(f, sigma, F46, t)</f>
+        <v>9.7426334651178461</v>
       </c>
       <c r="I46" cm="1">
         <f t="array" ref="I46">_xll.XLL.BLACK.PUT.IMPLIED(f, G46, F46, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J46" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J46" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G46, F46, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J46" s="2">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H46, F46, t)</f>
+        <v>0.17183698443929843</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F47">
         <v>110</v>
       </c>
@@ -1412,20 +1409,20 @@
         <f t="array" ref="G47">_xll.XLL.BLACK.PUT(f, sigma, F47, t)</f>
         <v>10.953947391857227</v>
       </c>
-      <c r="H47" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H47" ca="1">XLL.GAMMA.PUT(f, sigma, F47, t)</f>
-        <v>#NAME?</v>
+      <c r="H47" s="2" cm="1">
+        <f t="array" ref="H47">_xll.XLL.GAMMA.PUT(f, sigma, F47, t)</f>
+        <v>9.894606141211149</v>
       </c>
       <c r="I47" cm="1">
         <f t="array" ref="I47">_xll.XLL.BLACK.PUT.IMPLIED(f, G47, F47, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J47" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J47" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G47, F47, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J47" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H47, F47, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F48">
         <v>111</v>
       </c>
@@ -1433,20 +1430,20 @@
         <f t="array" ref="G48">_xll.XLL.BLACK.PUT(f, sigma, F48, t)</f>
         <v>11.806642276452763</v>
       </c>
-      <c r="H48" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H48" ca="1">XLL.GAMMA.PUT(f, sigma, F48, t)</f>
-        <v>#NAME?</v>
+      <c r="H48" s="2" cm="1">
+        <f t="array" ref="H48">_xll.XLL.GAMMA.PUT(f, sigma, F48, t)</f>
+        <v>10.046207516908865</v>
       </c>
       <c r="I48" cm="1">
         <f t="array" ref="I48">_xll.XLL.BLACK.PUT.IMPLIED(f, G48, F48, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J48" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J48" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G48, F48, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J48" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H48, F48, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F49">
         <v>112</v>
       </c>
@@ -1454,20 +1451,20 @@
         <f t="array" ref="G49">_xll.XLL.BLACK.PUT(f, sigma, F49, t)</f>
         <v>12.679108988059141</v>
       </c>
-      <c r="H49" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H49" ca="1">XLL.GAMMA.PUT(f, sigma, F49, t)</f>
-        <v>#NAME?</v>
+      <c r="H49" s="2" cm="1">
+        <f t="array" ref="H49">_xll.XLL.GAMMA.PUT(f, sigma, F49, t)</f>
+        <v>10.19740516899388</v>
       </c>
       <c r="I49" cm="1">
         <f t="array" ref="I49">_xll.XLL.BLACK.PUT.IMPLIED(f, G49, F49, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J49" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J49" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G49, F49, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H49, F49, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F50">
         <v>113</v>
       </c>
@@ -1475,20 +1472,20 @@
         <f t="array" ref="G50">_xll.XLL.BLACK.PUT(f, sigma, F50, t)</f>
         <v>13.569271600088328</v>
       </c>
-      <c r="H50" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H50" ca="1">XLL.GAMMA.PUT(f, sigma, F50, t)</f>
-        <v>#NAME?</v>
+      <c r="H50" s="2" cm="1">
+        <f t="array" ref="H50">_xll.XLL.GAMMA.PUT(f, sigma, F50, t)</f>
+        <v>10.34816753172241</v>
       </c>
       <c r="I50" cm="1">
         <f t="array" ref="I50">_xll.XLL.BLACK.PUT.IMPLIED(f, G50, F50, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J50" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J50" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G50, F50, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H50, F50, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F51">
         <v>114</v>
       </c>
@@ -1496,20 +1493,20 @@
         <f t="array" ref="G51">_xll.XLL.BLACK.PUT(f, sigma, F51, t)</f>
         <v>14.47516252219144</v>
       </c>
-      <c r="H51" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H51" ca="1">XLL.GAMMA.PUT(f, sigma, F51, t)</f>
-        <v>#NAME?</v>
+      <c r="H51" s="2" cm="1">
+        <f t="array" ref="H51">_xll.XLL.GAMMA.PUT(f, sigma, F51, t)</f>
+        <v>10.498463894268863</v>
       </c>
       <c r="I51" cm="1">
         <f t="array" ref="I51">_xll.XLL.BLACK.PUT.IMPLIED(f, G51, F51, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J51" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J51" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G51, F51, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H51, F51, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F52">
         <v>115</v>
       </c>
@@ -1517,20 +1514,20 @@
         <f t="array" ref="G52">_xll.XLL.BLACK.PUT(f, sigma, F52, t)</f>
         <v>15.39493883771641</v>
       </c>
-      <c r="H52" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H52" ca="1">XLL.GAMMA.PUT(f, sigma, F52, t)</f>
-        <v>#NAME?</v>
+      <c r="H52" s="2" cm="1">
+        <f t="array" ref="H52">_xll.XLL.GAMMA.PUT(f, sigma, F52, t)</f>
+        <v>10.648264397461435</v>
       </c>
       <c r="I52" cm="1">
         <f t="array" ref="I52">_xll.XLL.BLACK.PUT.IMPLIED(f, G52, F52, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J52" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J52" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G52, F52, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H52, F52, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F53">
         <v>116</v>
       </c>
@@ -1538,20 +1535,20 @@
         <f t="array" ref="G53">_xll.XLL.BLACK.PUT(f, sigma, F53, t)</f>
         <v>16.32689330971084</v>
       </c>
-      <c r="H53" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H53" ca="1">XLL.GAMMA.PUT(f, sigma, F53, t)</f>
-        <v>#NAME?</v>
+      <c r="H53" s="2" cm="1">
+        <f t="array" ref="H53">_xll.XLL.GAMMA.PUT(f, sigma, F53, t)</f>
+        <v>10.797540029844917</v>
       </c>
       <c r="I53" cm="1">
         <f t="array" ref="I53">_xll.XLL.BLACK.PUT.IMPLIED(f, G53, F53, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J53" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J53" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G53, F53, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J53" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H53, F53, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F54">
         <v>117</v>
       </c>
@@ -1559,20 +1556,20 @@
         <f t="array" ref="G54">_xll.XLL.BLACK.PUT(f, sigma, F54, t)</f>
         <v>17.269460583629098</v>
       </c>
-      <c r="H54" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H54" ca="1">XLL.GAMMA.PUT(f, sigma, F54, t)</f>
-        <v>#NAME?</v>
+      <c r="H54" s="2" cm="1">
+        <f t="array" ref="H54">_xll.XLL.GAMMA.PUT(f, sigma, F54, t)</f>
+        <v>10.94626262310666</v>
       </c>
       <c r="I54" cm="1">
         <f t="array" ref="I54">_xll.XLL.BLACK.PUT.IMPLIED(f, G54, F54, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J54" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J54" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G54, F54, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J54" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H54, F54, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F55">
         <v>118</v>
       </c>
@@ -1580,20 +1577,20 @@
         <f t="array" ref="G55">_xll.XLL.BLACK.PUT(f, sigma, F55, t)</f>
         <v>18.221219204170339</v>
       </c>
-      <c r="H55" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H55" ca="1">XLL.GAMMA.PUT(f, sigma, F55, t)</f>
-        <v>#NAME?</v>
+      <c r="H55" s="2" cm="1">
+        <f t="array" ref="H55">_xll.XLL.GAMMA.PUT(f, sigma, F55, t)</f>
+        <v>11.094404846899982</v>
       </c>
       <c r="I55" cm="1">
         <f t="array" ref="I55">_xll.XLL.BLACK.PUT.IMPLIED(f, G55, F55, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J55" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J55" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G55, F55, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J55" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H55, F55, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F56">
         <v>119</v>
       </c>
@@ -1601,20 +1598,20 @@
         <f t="array" ref="G56">_xll.XLL.BLACK.PUT(f, sigma, F56, t)</f>
         <v>19.180890108309001</v>
       </c>
-      <c r="H56" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H56" ca="1">XLL.GAMMA.PUT(f, sigma, F56, t)</f>
-        <v>#NAME?</v>
+      <c r="H56" s="2" cm="1">
+        <f t="array" ref="H56">_xll.XLL.GAMMA.PUT(f, sigma, F56, t)</f>
+        <v>11.24194020309854</v>
       </c>
       <c r="I56" cm="1">
         <f t="array" ref="I56">_xll.XLL.BLACK.PUT.IMPLIED(f, G56, F56, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J56" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J56" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G56, F56, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J56" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H56, F56, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F57">
         <v>120</v>
       </c>
@@ -1622,20 +1619,20 @@
         <f t="array" ref="G57">_xll.XLL.BLACK.PUT(f, sigma, F57, t)</f>
         <v>20.14733226325697</v>
       </c>
-      <c r="H57" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H57" ca="1">XLL.GAMMA.PUT(f, sigma, F57, t)</f>
-        <v>#NAME?</v>
+      <c r="H57" s="2" cm="1">
+        <f t="array" ref="H57">_xll.XLL.GAMMA.PUT(f, sigma, F57, t)</f>
+        <v>11.388843019514271</v>
       </c>
       <c r="I57" cm="1">
         <f t="array" ref="I57">_xll.XLL.BLACK.PUT.IMPLIED(f, G57, F57, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J57" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J57" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G57, F57, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J57" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H57, F57, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F58">
         <v>121</v>
       </c>
@@ -1643,20 +1640,20 @@
         <f t="array" ref="G58">_xll.XLL.BLACK.PUT(f, sigma, F58, t)</f>
         <v>21.119536094302745</v>
       </c>
-      <c r="H58" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H58" ca="1">XLL.GAMMA.PUT(f, sigma, F58, t)</f>
-        <v>#NAME?</v>
+      <c r="H58" s="2" cm="1">
+        <f t="array" ref="H58">_xll.XLL.GAMMA.PUT(f, sigma, F58, t)</f>
+        <v>11.535088443110187</v>
       </c>
       <c r="I58" cm="1">
         <f t="array" ref="I58">_xll.XLL.BLACK.PUT.IMPLIED(f, G58, F58, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J58" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J58" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G58, F58, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J58" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H58, F58, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F59">
         <v>122</v>
       </c>
@@ -1664,20 +1661,20 @@
         <f t="array" ref="G59">_xll.XLL.BLACK.PUT(f, sigma, F59, t)</f>
         <v>22.096615300806519</v>
       </c>
-      <c r="H59" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H59" ca="1">XLL.GAMMA.PUT(f, sigma, F59, t)</f>
-        <v>#NAME?</v>
+      <c r="H59" s="2" cm="1">
+        <f t="array" ref="H59">_xll.XLL.GAMMA.PUT(f, sigma, F59, t)</f>
+        <v>11.680652432738526</v>
       </c>
       <c r="I59" cm="1">
         <f t="array" ref="I59">_xll.XLL.BLACK.PUT.IMPLIED(f, G59, F59, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J59" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J59" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G59, F59, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J59" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H59, F59, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F60">
         <v>123</v>
       </c>
@@ -1685,20 +1682,20 @@
         <f t="array" ref="G60">_xll.XLL.BLACK.PUT(f, sigma, F60, t)</f>
         <v>23.077797596311726</v>
       </c>
-      <c r="H60" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H60" ca="1">XLL.GAMMA.PUT(f, sigma, F60, t)</f>
-        <v>#NAME?</v>
+      <c r="H60" s="2" cm="1">
+        <f t="array" ref="H60">_xll.XLL.GAMMA.PUT(f, sigma, F60, t)</f>
+        <v>11.825511751433707</v>
       </c>
       <c r="I60" cm="1">
         <f t="array" ref="I60">_xll.XLL.BLACK.PUT.IMPLIED(f, G60, F60, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J60" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J60" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G60, F60, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J60" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H60, F60, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F61">
         <v>124</v>
       </c>
@@ -1706,20 +1703,20 @@
         <f t="array" ref="G61">_xll.XLL.BLACK.PUT(f, sigma, F61, t)</f>
         <v>24.062414837222818</v>
       </c>
-      <c r="H61" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H61" ca="1">XLL.GAMMA.PUT(f, sigma, F61, t)</f>
-        <v>#NAME?</v>
+      <c r="H61" s="2" cm="1">
+        <f t="array" ref="H61">_xll.XLL.GAMMA.PUT(f, sigma, F61, t)</f>
+        <v>11.969643958288465</v>
       </c>
       <c r="I61" cm="1">
         <f t="array" ref="I61">_xll.XLL.BLACK.PUT.IMPLIED(f, G61, F61, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J61" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G61, F61, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J61" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H61, F61, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F62">
         <v>125</v>
       </c>
@@ -1727,20 +1724,20 @@
         <f t="array" ref="G62">_xll.XLL.BLACK.PUT(f, sigma, F62, t)</f>
         <v>25.04989292927732</v>
       </c>
-      <c r="H62" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H62" ca="1">XLL.GAMMA.PUT(f, sigma, F62, t)</f>
-        <v>#NAME?</v>
+      <c r="H62" s="2" cm="1">
+        <f t="array" ref="H62">_xll.XLL.GAMMA.PUT(f, sigma, F62, t)</f>
+        <v>12.113027399940803</v>
       </c>
       <c r="I62" cm="1">
         <f t="array" ref="I62">_xll.XLL.BLACK.PUT.IMPLIED(f, G62, F62, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J62" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J62" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G62, F62, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J62" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H62, F62, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F63">
         <v>126</v>
       </c>
@@ -1748,20 +1745,20 @@
         <f t="array" ref="G63">_xll.XLL.BLACK.PUT(f, sigma, F63, t)</f>
         <v>26.039741826510507</v>
       </c>
-      <c r="H63" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H63" ca="1">XLL.GAMMA.PUT(f, sigma, F63, t)</f>
-        <v>#NAME?</v>
+      <c r="H63" s="2" cm="1">
+        <f t="array" ref="H63">_xll.XLL.GAMMA.PUT(f, sigma, F63, t)</f>
+        <v>12.255641201698108</v>
       </c>
       <c r="I63" cm="1">
         <f t="array" ref="I63">_xll.XLL.BLACK.PUT.IMPLIED(f, G63, F63, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J63" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J63" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G63, F63, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J63" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H63, F63, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F64">
         <v>127</v>
       </c>
@@ -1769,20 +1766,20 @@
         <f t="array" ref="G64">_xll.XLL.BLACK.PUT(f, sigma, F64, t)</f>
         <v>27.031545866893069</v>
       </c>
-      <c r="H64" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H64" ca="1">XLL.GAMMA.PUT(f, sigma, F64, t)</f>
-        <v>#NAME?</v>
+      <c r="H64" s="2" cm="1">
+        <f t="array" ref="H64">_xll.XLL.GAMMA.PUT(f, sigma, F64, t)</f>
+        <v>12.397465258324287</v>
       </c>
       <c r="I64" cm="1">
         <f t="array" ref="I64">_xll.XLL.BLACK.PUT.IMPLIED(f, G64, F64, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J64" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J64" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G64, F64, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J64" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H64, F64, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F65">
         <v>128</v>
       </c>
@@ -1790,20 +1787,20 @@
         <f t="array" ref="G65">_xll.XLL.BLACK.PUT(f, sigma, F65, t)</f>
         <v>28.024954624625238</v>
       </c>
-      <c r="H65" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H65" ca="1">XLL.GAMMA.PUT(f, sigma, F65, t)</f>
-        <v>#NAME?</v>
+      <c r="H65" s="2" cm="1">
+        <f t="array" ref="H65">_xll.XLL.GAMMA.PUT(f, sigma, F65, t)</f>
+        <v>12.538480224514501</v>
       </c>
       <c r="I65" cm="1">
         <f t="array" ref="I65">_xll.XLL.BLACK.PUT.IMPLIED(f, G65, F65, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J65" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J65" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G65, F65, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J65" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H65, F65, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F66">
         <v>129</v>
       </c>
@@ -1811,20 +1808,20 @@
         <f t="array" ref="G66">_xll.XLL.BLACK.PUT(f, sigma, F66, t)</f>
         <v>29.01967440261366</v>
       </c>
-      <c r="H66" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H66" ca="1">XLL.GAMMA.PUT(f, sigma, F66, t)</f>
-        <v>#NAME?</v>
+      <c r="H66" s="2" cm="1">
+        <f t="array" ref="H66">_xll.XLL.GAMMA.PUT(f, sigma, F66, t)</f>
+        <v>12.67866750508129</v>
       </c>
       <c r="I66" cm="1">
         <f t="array" ref="I66">_xll.XLL.BLACK.PUT.IMPLIED(f, G66, F66, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J66" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J66" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G66, F66, t)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J66" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H66, F66, t)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F67">
         <v>130</v>
       </c>
@@ -1832,17 +1829,17 @@
         <f t="array" ref="G67">_xll.XLL.BLACK.PUT(f, sigma, F67, t)</f>
         <v>30.01546044060332</v>
       </c>
-      <c r="H67" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="H67" ca="1">XLL.GAMMA.PUT(f, sigma, F67, t)</f>
-        <v>#NAME?</v>
+      <c r="H67" s="2" cm="1">
+        <f t="array" ref="H67">_xll.XLL.GAMMA.PUT(f, sigma, F67, t)</f>
+        <v>12.818009244875094</v>
       </c>
       <c r="I67" cm="1">
         <f t="array" ref="I67">_xll.XLL.BLACK.PUT.IMPLIED(f, G67, F67, t)</f>
         <v>0.2</v>
       </c>
-      <c r="J67" s="2" t="e" cm="1">
-        <f t="array" aca="1" ref="J67" ca="1">XLL.GAMMA.PUT.IMPLIED(f, G67, F67, t)</f>
-        <v>#NAME?</v>
+      <c r="J67" s="2" t="e">
+        <f>_xll.XLL.BLACK.PUT.IMPLIED(f, H67, F67, t)</f>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
